--- a/artfynd/A 58063-2025 artfynd.xlsx
+++ b/artfynd/A 58063-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046977</v>
+        <v>131046942</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395528</v>
+        <v>395445</v>
       </c>
       <c r="R2" t="n">
-        <v>6804736</v>
+        <v>6804607</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046942</v>
+        <v>131046989</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395445</v>
+        <v>395484</v>
       </c>
       <c r="R3" t="n">
-        <v>6804607</v>
+        <v>6804617</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046989</v>
+        <v>131046915</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395484</v>
+        <v>395373</v>
       </c>
       <c r="R4" t="n">
-        <v>6804617</v>
+        <v>6804690</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1001,10 +1001,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046971</v>
+        <v>131046977</v>
       </c>
       <c r="B5" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395487</v>
+        <v>395528</v>
       </c>
       <c r="R5" t="n">
-        <v>6804812</v>
+        <v>6804736</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1108,10 +1108,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046915</v>
+        <v>131046971</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395373</v>
+        <v>395487</v>
       </c>
       <c r="R6" t="n">
-        <v>6804690</v>
+        <v>6804812</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1215,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046758</v>
+        <v>131046767</v>
       </c>
       <c r="B7" t="n">
-        <v>57877</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1226,16 +1226,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1244,21 +1244,24 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395526</v>
+        <v>395395</v>
       </c>
       <c r="R7" t="n">
-        <v>6804768</v>
+        <v>6804584</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1290,7 +1293,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1300,7 +1303,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1330,7 +1338,7 @@
         <v>131046940</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1434,10 +1442,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046938</v>
+        <v>131046965</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1469,10 +1477,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395437</v>
+        <v>395396</v>
       </c>
       <c r="R9" t="n">
-        <v>6804676</v>
+        <v>6804747</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1504,7 +1512,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1514,7 +1522,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1541,10 +1549,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046965</v>
+        <v>131046938</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1576,10 +1584,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395396</v>
+        <v>395437</v>
       </c>
       <c r="R10" t="n">
-        <v>6804747</v>
+        <v>6804676</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1611,7 +1619,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1621,7 +1629,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1648,10 +1656,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046908</v>
+        <v>131046927</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1683,10 +1691,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395394</v>
+        <v>395404</v>
       </c>
       <c r="R11" t="n">
-        <v>6804623</v>
+        <v>6804786</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1718,7 +1726,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1728,7 +1736,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1755,10 +1763,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046767</v>
+        <v>131046910</v>
       </c>
       <c r="B12" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1766,42 +1774,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395395</v>
+        <v>395389</v>
       </c>
       <c r="R12" t="n">
-        <v>6804584</v>
+        <v>6804638</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1843,12 +1843,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:44</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1875,10 +1870,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046927</v>
+        <v>131046908</v>
       </c>
       <c r="B13" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1910,10 +1905,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395404</v>
+        <v>395394</v>
       </c>
       <c r="R13" t="n">
-        <v>6804786</v>
+        <v>6804623</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1945,7 +1940,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1955,7 +1950,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1982,10 +1977,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046910</v>
+        <v>131046758</v>
       </c>
       <c r="B14" t="n">
-        <v>79239</v>
+        <v>57881</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1993,34 +1988,39 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395389</v>
+        <v>395526</v>
       </c>
       <c r="R14" t="n">
-        <v>6804638</v>
+        <v>6804768</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2089,10 +2089,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046907</v>
+        <v>131046800</v>
       </c>
       <c r="B15" t="n">
-        <v>79239</v>
+        <v>81228</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2100,21 +2100,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395411</v>
+        <v>395387</v>
       </c>
       <c r="R15" t="n">
-        <v>6804605</v>
+        <v>6804626</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2196,10 +2196,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131046800</v>
+        <v>131047000</v>
       </c>
       <c r="B16" t="n">
-        <v>81224</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2207,21 +2207,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395387</v>
+        <v>395494</v>
       </c>
       <c r="R16" t="n">
-        <v>6804626</v>
+        <v>6804583</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2303,10 +2303,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131046968</v>
+        <v>131046986</v>
       </c>
       <c r="B17" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2338,10 +2338,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395412</v>
+        <v>395520</v>
       </c>
       <c r="R17" t="n">
-        <v>6804755</v>
+        <v>6804657</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2410,10 +2410,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131047002</v>
+        <v>131046907</v>
       </c>
       <c r="B18" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395503</v>
+        <v>395411</v>
       </c>
       <c r="R18" t="n">
-        <v>6804603</v>
+        <v>6804605</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2517,10 +2517,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131046986</v>
+        <v>131047002</v>
       </c>
       <c r="B19" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395520</v>
+        <v>395503</v>
       </c>
       <c r="R19" t="n">
-        <v>6804657</v>
+        <v>6804603</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2624,10 +2624,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131047000</v>
+        <v>131046968</v>
       </c>
       <c r="B20" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2659,10 +2659,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395494</v>
+        <v>395412</v>
       </c>
       <c r="R20" t="n">
-        <v>6804583</v>
+        <v>6804755</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2731,10 +2731,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131046922</v>
+        <v>131046714</v>
       </c>
       <c r="B21" t="n">
-        <v>79239</v>
+        <v>83223</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2742,21 +2742,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2766,10 +2766,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395365</v>
+        <v>395419</v>
       </c>
       <c r="R21" t="n">
-        <v>6804755</v>
+        <v>6804801</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2838,10 +2838,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131047020</v>
+        <v>131047027</v>
       </c>
       <c r="B22" t="n">
-        <v>57880</v>
+        <v>78909</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2849,39 +2849,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>353</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395541</v>
+        <v>395391</v>
       </c>
       <c r="R22" t="n">
-        <v>6804800</v>
+        <v>6804697</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2913,7 +2908,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2923,19 +2918,14 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:04</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="b">
         <v>0</v>
@@ -2955,10 +2945,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131046714</v>
+        <v>131046963</v>
       </c>
       <c r="B23" t="n">
-        <v>83219</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2966,21 +2956,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2990,10 +2980,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395419</v>
+        <v>395386</v>
       </c>
       <c r="R23" t="n">
-        <v>6804801</v>
+        <v>6804723</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3025,7 +3015,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3035,7 +3025,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3062,10 +3052,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131046792</v>
+        <v>131046972</v>
       </c>
       <c r="B24" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3073,39 +3063,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395357</v>
+        <v>395524</v>
       </c>
       <c r="R24" t="n">
-        <v>6804769</v>
+        <v>6804798</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3137,7 +3122,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3147,12 +3132,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:22</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3179,10 +3159,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131047027</v>
+        <v>131046922</v>
       </c>
       <c r="B25" t="n">
-        <v>78905</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3190,21 +3170,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3214,10 +3194,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395391</v>
+        <v>395365</v>
       </c>
       <c r="R25" t="n">
-        <v>6804697</v>
+        <v>6804755</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3249,7 +3229,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3259,7 +3239,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3286,10 +3266,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131046972</v>
+        <v>131046792</v>
       </c>
       <c r="B26" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3297,34 +3277,39 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395524</v>
+        <v>395357</v>
       </c>
       <c r="R26" t="n">
-        <v>6804798</v>
+        <v>6804769</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3356,7 +3341,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3366,7 +3351,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>11:22</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3393,10 +3383,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131046963</v>
+        <v>131047020</v>
       </c>
       <c r="B27" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3404,34 +3394,39 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>395386</v>
+        <v>395541</v>
       </c>
       <c r="R27" t="n">
-        <v>6804723</v>
+        <v>6804800</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3463,7 +3458,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3473,14 +3468,19 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27" t="b">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>131046801</v>
       </c>
       <c r="B28" t="n">
-        <v>81224</v>
+        <v>81228</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>131046945</v>
       </c>
       <c r="B29" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>131046964</v>
       </c>
       <c r="B30" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3821,10 +3821,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046991</v>
+        <v>131046937</v>
       </c>
       <c r="B31" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395479</v>
+        <v>395433</v>
       </c>
       <c r="R31" t="n">
-        <v>6804588</v>
+        <v>6804692</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3928,10 +3928,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046937</v>
+        <v>131046991</v>
       </c>
       <c r="B32" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395433</v>
+        <v>395479</v>
       </c>
       <c r="R32" t="n">
-        <v>6804692</v>
+        <v>6804588</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4038,7 +4038,7 @@
         <v>131046914</v>
       </c>
       <c r="B33" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4142,10 +4142,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131046725</v>
+        <v>131046987</v>
       </c>
       <c r="B34" t="n">
-        <v>79271</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4153,21 +4153,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>395392</v>
+        <v>395501</v>
       </c>
       <c r="R34" t="n">
-        <v>6804595</v>
+        <v>6804647</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4249,10 +4249,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131046987</v>
+        <v>131046725</v>
       </c>
       <c r="B35" t="n">
-        <v>79239</v>
+        <v>79275</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4260,21 +4260,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4284,10 +4284,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>395501</v>
+        <v>395392</v>
       </c>
       <c r="R35" t="n">
-        <v>6804647</v>
+        <v>6804595</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4359,7 +4359,7 @@
         <v>131046934</v>
       </c>
       <c r="B36" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4463,10 +4463,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131046970</v>
+        <v>131046981</v>
       </c>
       <c r="B37" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4498,10 +4498,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>395474</v>
+        <v>395501</v>
       </c>
       <c r="R37" t="n">
-        <v>6804807</v>
+        <v>6804703</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4570,10 +4570,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131046981</v>
+        <v>131046966</v>
       </c>
       <c r="B38" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4605,10 +4605,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>395501</v>
+        <v>395401</v>
       </c>
       <c r="R38" t="n">
-        <v>6804703</v>
+        <v>6804761</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4677,10 +4677,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131046966</v>
+        <v>131046970</v>
       </c>
       <c r="B39" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>395401</v>
+        <v>395474</v>
       </c>
       <c r="R39" t="n">
-        <v>6804761</v>
+        <v>6804807</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4784,10 +4784,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131046919</v>
+        <v>131046935</v>
       </c>
       <c r="B40" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4819,10 +4819,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395363</v>
+        <v>395438</v>
       </c>
       <c r="R40" t="n">
-        <v>6804723</v>
+        <v>6804735</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4891,10 +4891,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131046941</v>
+        <v>131046920</v>
       </c>
       <c r="B41" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4926,10 +4926,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>395442</v>
+        <v>395369</v>
       </c>
       <c r="R41" t="n">
-        <v>6804622</v>
+        <v>6804738</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4998,10 +4998,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131046935</v>
+        <v>131046919</v>
       </c>
       <c r="B42" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5033,10 +5033,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395438</v>
+        <v>395363</v>
       </c>
       <c r="R42" t="n">
-        <v>6804735</v>
+        <v>6804723</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5105,10 +5105,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131046980</v>
+        <v>131046936</v>
       </c>
       <c r="B43" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>395494</v>
+        <v>395431</v>
       </c>
       <c r="R43" t="n">
-        <v>6804716</v>
+        <v>6804712</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5212,10 +5212,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131046988</v>
+        <v>131046941</v>
       </c>
       <c r="B44" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>395491</v>
+        <v>395442</v>
       </c>
       <c r="R44" t="n">
-        <v>6804630</v>
+        <v>6804622</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5319,10 +5319,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131046936</v>
+        <v>131046932</v>
       </c>
       <c r="B45" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395431</v>
+        <v>395455</v>
       </c>
       <c r="R45" t="n">
-        <v>6804712</v>
+        <v>6804767</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5426,10 +5426,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046932</v>
+        <v>131046979</v>
       </c>
       <c r="B46" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5461,10 +5461,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395455</v>
+        <v>395499</v>
       </c>
       <c r="R46" t="n">
-        <v>6804767</v>
+        <v>6804721</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5533,10 +5533,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131046979</v>
+        <v>131046988</v>
       </c>
       <c r="B47" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>395499</v>
+        <v>395491</v>
       </c>
       <c r="R47" t="n">
-        <v>6804721</v>
+        <v>6804630</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5643,7 +5643,7 @@
         <v>131046918</v>
       </c>
       <c r="B48" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5747,10 +5747,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131046920</v>
+        <v>131046980</v>
       </c>
       <c r="B49" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5782,10 +5782,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>395369</v>
+        <v>395494</v>
       </c>
       <c r="R49" t="n">
-        <v>6804738</v>
+        <v>6804716</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5857,7 +5857,7 @@
         <v>131046716</v>
       </c>
       <c r="B50" t="n">
-        <v>83219</v>
+        <v>83223</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5961,10 +5961,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131046960</v>
+        <v>131046959</v>
       </c>
       <c r="B51" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395414</v>
+        <v>395420</v>
       </c>
       <c r="R51" t="n">
-        <v>6804670</v>
+        <v>6804656</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6068,10 +6068,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131046959</v>
+        <v>131046982</v>
       </c>
       <c r="B52" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395420</v>
+        <v>395507</v>
       </c>
       <c r="R52" t="n">
-        <v>6804656</v>
+        <v>6804695</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6175,10 +6175,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131046982</v>
+        <v>131046967</v>
       </c>
       <c r="B53" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6210,10 +6210,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>395507</v>
+        <v>395410</v>
       </c>
       <c r="R53" t="n">
-        <v>6804695</v>
+        <v>6804765</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6282,10 +6282,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131046967</v>
+        <v>131046960</v>
       </c>
       <c r="B54" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6317,10 +6317,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>395410</v>
+        <v>395414</v>
       </c>
       <c r="R54" t="n">
-        <v>6804765</v>
+        <v>6804670</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6389,10 +6389,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131046925</v>
+        <v>131046722</v>
       </c>
       <c r="B55" t="n">
-        <v>79239</v>
+        <v>79275</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6400,21 +6400,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6424,10 +6424,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>395380</v>
+        <v>395391</v>
       </c>
       <c r="R55" t="n">
-        <v>6804774</v>
+        <v>6804603</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6496,10 +6496,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131046722</v>
+        <v>131046925</v>
       </c>
       <c r="B56" t="n">
-        <v>79271</v>
+        <v>79243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6507,21 +6507,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6531,10 +6531,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>395391</v>
+        <v>395380</v>
       </c>
       <c r="R56" t="n">
-        <v>6804603</v>
+        <v>6804774</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6603,10 +6603,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046926</v>
+        <v>131046944</v>
       </c>
       <c r="B57" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6638,10 +6638,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395395</v>
+        <v>395449</v>
       </c>
       <c r="R57" t="n">
-        <v>6804786</v>
+        <v>6804589</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6710,10 +6710,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131046969</v>
+        <v>131046924</v>
       </c>
       <c r="B58" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6745,10 +6745,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395464</v>
+        <v>395373</v>
       </c>
       <c r="R58" t="n">
-        <v>6804807</v>
+        <v>6804784</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6817,10 +6817,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131046944</v>
+        <v>131046969</v>
       </c>
       <c r="B59" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6852,10 +6852,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>395449</v>
+        <v>395464</v>
       </c>
       <c r="R59" t="n">
-        <v>6804589</v>
+        <v>6804807</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6924,10 +6924,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131046924</v>
+        <v>131046926</v>
       </c>
       <c r="B60" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6959,10 +6959,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>395373</v>
+        <v>395395</v>
       </c>
       <c r="R60" t="n">
-        <v>6804784</v>
+        <v>6804786</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7031,10 +7031,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131046760</v>
+        <v>131046904</v>
       </c>
       <c r="B61" t="n">
-        <v>57877</v>
+        <v>79243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7042,39 +7042,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>395448</v>
+        <v>395385</v>
       </c>
       <c r="R61" t="n">
-        <v>6804572</v>
+        <v>6804578</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7106,7 +7101,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7116,7 +7111,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7143,10 +7138,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131046939</v>
+        <v>131046983</v>
       </c>
       <c r="B62" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7178,10 +7173,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>395446</v>
+        <v>395515</v>
       </c>
       <c r="R62" t="n">
-        <v>6804659</v>
+        <v>6804694</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7213,7 +7208,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7223,7 +7218,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7250,10 +7245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131046904</v>
+        <v>131046939</v>
       </c>
       <c r="B63" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7285,10 +7280,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395385</v>
+        <v>395446</v>
       </c>
       <c r="R63" t="n">
-        <v>6804578</v>
+        <v>6804659</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7320,7 +7315,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7330,7 +7325,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7357,10 +7352,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131046983</v>
+        <v>131046760</v>
       </c>
       <c r="B64" t="n">
-        <v>79239</v>
+        <v>57881</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7368,34 +7363,39 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395515</v>
+        <v>395448</v>
       </c>
       <c r="R64" t="n">
-        <v>6804694</v>
+        <v>6804572</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7464,10 +7464,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131046723</v>
+        <v>131046961</v>
       </c>
       <c r="B65" t="n">
-        <v>79271</v>
+        <v>79243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7475,21 +7475,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7499,10 +7499,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>395447</v>
+        <v>395403</v>
       </c>
       <c r="R65" t="n">
-        <v>6804620</v>
+        <v>6804693</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7571,10 +7571,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131046961</v>
+        <v>131046723</v>
       </c>
       <c r="B66" t="n">
-        <v>79239</v>
+        <v>79275</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7582,21 +7582,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7606,10 +7606,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>395403</v>
+        <v>395447</v>
       </c>
       <c r="R66" t="n">
-        <v>6804693</v>
+        <v>6804620</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7681,7 +7681,7 @@
         <v>131046943</v>
       </c>
       <c r="B67" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7785,10 +7785,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131046717</v>
+        <v>131047026</v>
       </c>
       <c r="B68" t="n">
-        <v>83219</v>
+        <v>78909</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7796,21 +7796,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6440</v>
+        <v>353</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7820,10 +7820,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>395464</v>
+        <v>395386</v>
       </c>
       <c r="R68" t="n">
-        <v>6804807</v>
+        <v>6804628</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7892,10 +7892,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131046921</v>
+        <v>131046717</v>
       </c>
       <c r="B69" t="n">
-        <v>79239</v>
+        <v>83223</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7903,21 +7903,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7927,10 +7927,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395357</v>
+        <v>395464</v>
       </c>
       <c r="R69" t="n">
-        <v>6804752</v>
+        <v>6804807</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8002,7 +8002,7 @@
         <v>131046917</v>
       </c>
       <c r="B70" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8106,10 +8106,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131047026</v>
+        <v>131046921</v>
       </c>
       <c r="B71" t="n">
-        <v>78905</v>
+        <v>79243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8117,21 +8117,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8141,10 +8141,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395386</v>
+        <v>395357</v>
       </c>
       <c r="R71" t="n">
-        <v>6804628</v>
+        <v>6804752</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8213,10 +8213,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131046930</v>
+        <v>131046933</v>
       </c>
       <c r="B72" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8248,10 +8248,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>395446</v>
+        <v>395458</v>
       </c>
       <c r="R72" t="n">
-        <v>6804802</v>
+        <v>6804762</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8293,7 +8293,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8323,7 +8323,7 @@
         <v>131047012</v>
       </c>
       <c r="B73" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8437,10 +8437,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131046916</v>
+        <v>131046930</v>
       </c>
       <c r="B74" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8472,10 +8472,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395367</v>
+        <v>395446</v>
       </c>
       <c r="R74" t="n">
-        <v>6804698</v>
+        <v>6804802</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8507,7 +8507,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8547,7 +8547,7 @@
         <v>131046923</v>
       </c>
       <c r="B75" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8651,10 +8651,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131046933</v>
+        <v>131046916</v>
       </c>
       <c r="B76" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>395458</v>
+        <v>395367</v>
       </c>
       <c r="R76" t="n">
-        <v>6804762</v>
+        <v>6804698</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8761,7 +8761,7 @@
         <v>131046958</v>
       </c>
       <c r="B77" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8865,10 +8865,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131046913</v>
+        <v>131046911</v>
       </c>
       <c r="B78" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8900,10 +8900,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>395387</v>
+        <v>395395</v>
       </c>
       <c r="R78" t="n">
-        <v>6804675</v>
+        <v>6804651</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -8972,10 +8972,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131046911</v>
+        <v>131046913</v>
       </c>
       <c r="B79" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -9007,10 +9007,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>395395</v>
+        <v>395387</v>
       </c>
       <c r="R79" t="n">
-        <v>6804651</v>
+        <v>6804675</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9079,10 +9079,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131046929</v>
+        <v>131046905</v>
       </c>
       <c r="B80" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9114,10 +9114,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>395420</v>
+        <v>395392</v>
       </c>
       <c r="R80" t="n">
-        <v>6804798</v>
+        <v>6804583</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9149,7 +9149,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -9159,7 +9159,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9186,10 +9186,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131046931</v>
+        <v>131046962</v>
       </c>
       <c r="B81" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9221,10 +9221,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395443</v>
+        <v>395389</v>
       </c>
       <c r="R81" t="n">
-        <v>6804778</v>
+        <v>6804711</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9293,10 +9293,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131046781</v>
+        <v>131046929</v>
       </c>
       <c r="B82" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9304,39 +9304,34 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P82" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>395473</v>
+        <v>395420</v>
       </c>
       <c r="R82" t="n">
-        <v>6804805</v>
+        <v>6804798</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9368,7 +9363,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -9378,12 +9373,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>11:58</t>
-        </is>
-      </c>
-      <c r="AC82" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9410,10 +9400,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131047001</v>
+        <v>131046931</v>
       </c>
       <c r="B83" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9445,10 +9435,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>395505</v>
+        <v>395443</v>
       </c>
       <c r="R83" t="n">
-        <v>6804590</v>
+        <v>6804778</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9480,7 +9470,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9490,7 +9480,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9517,10 +9507,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131046905</v>
+        <v>131046781</v>
       </c>
       <c r="B84" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9528,34 +9518,39 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P84" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>395392</v>
+        <v>395473</v>
       </c>
       <c r="R84" t="n">
-        <v>6804583</v>
+        <v>6804805</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9587,7 +9582,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -9597,7 +9592,12 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9624,10 +9624,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131046962</v>
+        <v>131047001</v>
       </c>
       <c r="B85" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9659,10 +9659,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>395389</v>
+        <v>395505</v>
       </c>
       <c r="R85" t="n">
-        <v>6804711</v>
+        <v>6804590</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9694,7 +9694,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -9704,7 +9704,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9734,7 +9734,7 @@
         <v>131046976</v>
       </c>
       <c r="B86" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9838,10 +9838,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131046779</v>
+        <v>131046978</v>
       </c>
       <c r="B87" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9849,39 +9849,34 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P87" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>395369</v>
+        <v>395521</v>
       </c>
       <c r="R87" t="n">
-        <v>6804718</v>
+        <v>6804726</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9913,7 +9908,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -9923,12 +9918,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>11:13</t>
-        </is>
-      </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -9955,10 +9945,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131046978</v>
+        <v>131046793</v>
       </c>
       <c r="B88" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9966,34 +9956,39 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P88" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>395521</v>
+        <v>395448</v>
       </c>
       <c r="R88" t="n">
-        <v>6804726</v>
+        <v>6804583</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10025,7 +10020,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10035,7 +10030,12 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:38</t>
+        </is>
+      </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10062,10 +10062,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131046793</v>
+        <v>131046779</v>
       </c>
       <c r="B89" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -10102,10 +10102,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>395448</v>
+        <v>395369</v>
       </c>
       <c r="R89" t="n">
-        <v>6804583</v>
+        <v>6804718</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10147,12 +10147,12 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>Färska ringhack (gran)</t>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10182,7 +10182,7 @@
         <v>131046804</v>
       </c>
       <c r="B90" t="n">
-        <v>78996</v>
+        <v>79000</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10286,10 +10286,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131046778</v>
+        <v>131046718</v>
       </c>
       <c r="B91" t="n">
-        <v>57880</v>
+        <v>83223</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10297,39 +10297,34 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P91" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>395366</v>
+        <v>395471</v>
       </c>
       <c r="R91" t="n">
-        <v>6804690</v>
+        <v>6804595</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10361,7 +10356,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10371,12 +10366,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>11:09</t>
-        </is>
-      </c>
-      <c r="AC91" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10406,7 +10396,7 @@
         <v>131046984</v>
       </c>
       <c r="B92" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10510,10 +10500,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046791</v>
+        <v>131046990</v>
       </c>
       <c r="B93" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10521,39 +10511,34 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P93" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395362</v>
+        <v>395474</v>
       </c>
       <c r="R93" t="n">
-        <v>6804701</v>
+        <v>6804600</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10585,7 +10570,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10595,12 +10580,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>11:10</t>
-        </is>
-      </c>
-      <c r="AC93" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10627,10 +10607,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046718</v>
+        <v>131046791</v>
       </c>
       <c r="B94" t="n">
-        <v>83219</v>
+        <v>57884</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10638,34 +10618,39 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P94" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395471</v>
+        <v>395362</v>
       </c>
       <c r="R94" t="n">
-        <v>6804595</v>
+        <v>6804701</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10697,7 +10682,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10707,7 +10692,12 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="AC94" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10734,10 +10724,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131046990</v>
+        <v>131046778</v>
       </c>
       <c r="B95" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10745,34 +10735,39 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P95" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>395474</v>
+        <v>395366</v>
       </c>
       <c r="R95" t="n">
-        <v>6804600</v>
+        <v>6804690</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10804,7 +10799,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -10814,7 +10809,12 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:09</t>
+        </is>
+      </c>
+      <c r="AC95" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10841,10 +10841,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131046906</v>
+        <v>131046912</v>
       </c>
       <c r="B96" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10876,10 +10876,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>395395</v>
+        <v>395382</v>
       </c>
       <c r="R96" t="n">
-        <v>6804604</v>
+        <v>6804661</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10948,10 +10948,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131046928</v>
+        <v>131046906</v>
       </c>
       <c r="B97" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10983,10 +10983,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395417</v>
+        <v>395395</v>
       </c>
       <c r="R97" t="n">
-        <v>6804797</v>
+        <v>6804604</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11018,7 +11018,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11055,32 +11055,32 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131046794</v>
+        <v>131046975</v>
       </c>
       <c r="B98" t="n">
-        <v>57072</v>
+        <v>79243</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>102613</v>
+        <v>6425</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11090,10 +11090,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395383</v>
+        <v>395535</v>
       </c>
       <c r="R98" t="n">
-        <v>6804574</v>
+        <v>6804771</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11162,10 +11162,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131046912</v>
+        <v>131046928</v>
       </c>
       <c r="B99" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -11197,10 +11197,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395382</v>
+        <v>395417</v>
       </c>
       <c r="R99" t="n">
-        <v>6804661</v>
+        <v>6804797</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11232,7 +11232,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11242,7 +11242,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11272,7 +11272,7 @@
         <v>131046985</v>
       </c>
       <c r="B100" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>131046715</v>
       </c>
       <c r="B101" t="n">
-        <v>83219</v>
+        <v>83223</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11483,32 +11483,32 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131046975</v>
+        <v>131046794</v>
       </c>
       <c r="B102" t="n">
-        <v>79239</v>
+        <v>57076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6425</v>
+        <v>102613</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395535</v>
+        <v>395383</v>
       </c>
       <c r="R102" t="n">
-        <v>6804771</v>
+        <v>6804574</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11593,7 +11593,7 @@
         <v>131046797</v>
       </c>
       <c r="B103" t="n">
-        <v>78997</v>
+        <v>79001</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>

--- a/artfynd/A 58063-2025 artfynd.xlsx
+++ b/artfynd/A 58063-2025 artfynd.xlsx
@@ -2731,10 +2731,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131046714</v>
+        <v>131047027</v>
       </c>
       <c r="B21" t="n">
-        <v>83223</v>
+        <v>78909</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2742,21 +2742,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6440</v>
+        <v>353</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2766,10 +2766,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395419</v>
+        <v>395391</v>
       </c>
       <c r="R21" t="n">
-        <v>6804801</v>
+        <v>6804697</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2838,10 +2838,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131047027</v>
+        <v>131046963</v>
       </c>
       <c r="B22" t="n">
-        <v>78909</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2849,21 +2849,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395391</v>
+        <v>395386</v>
       </c>
       <c r="R22" t="n">
-        <v>6804697</v>
+        <v>6804723</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2945,7 +2945,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131046963</v>
+        <v>131046972</v>
       </c>
       <c r="B23" t="n">
         <v>79243</v>
@@ -2980,10 +2980,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395386</v>
+        <v>395524</v>
       </c>
       <c r="R23" t="n">
-        <v>6804723</v>
+        <v>6804798</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3052,10 +3052,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131046972</v>
+        <v>131046792</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3063,34 +3063,39 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395524</v>
+        <v>395357</v>
       </c>
       <c r="R24" t="n">
-        <v>6804798</v>
+        <v>6804769</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3122,7 +3127,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3132,7 +3137,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>11:22</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3159,10 +3169,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131046922</v>
+        <v>131047020</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3170,34 +3180,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395365</v>
+        <v>395541</v>
       </c>
       <c r="R25" t="n">
-        <v>6804755</v>
+        <v>6804800</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3229,7 +3244,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3239,14 +3254,19 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25" t="b">
         <v>0</v>
@@ -3266,10 +3286,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131046792</v>
+        <v>131046714</v>
       </c>
       <c r="B26" t="n">
-        <v>57884</v>
+        <v>83223</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3277,39 +3297,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395357</v>
+        <v>395419</v>
       </c>
       <c r="R26" t="n">
-        <v>6804769</v>
+        <v>6804801</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3341,7 +3356,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3351,12 +3366,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:22</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3383,10 +3393,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131047020</v>
+        <v>131046922</v>
       </c>
       <c r="B27" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3394,39 +3404,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>395541</v>
+        <v>395365</v>
       </c>
       <c r="R27" t="n">
-        <v>6804800</v>
+        <v>6804755</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3458,7 +3463,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3468,19 +3473,14 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:04</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="b">
         <v>0</v>
@@ -6389,10 +6389,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131046722</v>
+        <v>131046925</v>
       </c>
       <c r="B55" t="n">
-        <v>79275</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6400,21 +6400,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6424,10 +6424,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>395391</v>
+        <v>395380</v>
       </c>
       <c r="R55" t="n">
-        <v>6804603</v>
+        <v>6804774</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6496,10 +6496,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131046925</v>
+        <v>131046722</v>
       </c>
       <c r="B56" t="n">
-        <v>79243</v>
+        <v>79275</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6507,21 +6507,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6531,10 +6531,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>395380</v>
+        <v>395391</v>
       </c>
       <c r="R56" t="n">
-        <v>6804774</v>
+        <v>6804603</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD56" t="b">

--- a/artfynd/A 58063-2025 artfynd.xlsx
+++ b/artfynd/A 58063-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046942</v>
+        <v>131046977</v>
       </c>
       <c r="B2" t="n">
         <v>79243</v>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395445</v>
+        <v>395528</v>
       </c>
       <c r="R2" t="n">
-        <v>6804607</v>
+        <v>6804736</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046989</v>
+        <v>131046942</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395484</v>
+        <v>395445</v>
       </c>
       <c r="R3" t="n">
-        <v>6804617</v>
+        <v>6804607</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,7 +894,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046915</v>
+        <v>131046989</v>
       </c>
       <c r="B4" t="n">
         <v>79243</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395373</v>
+        <v>395484</v>
       </c>
       <c r="R4" t="n">
-        <v>6804690</v>
+        <v>6804617</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1001,7 +1001,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046977</v>
+        <v>131046971</v>
       </c>
       <c r="B5" t="n">
         <v>79243</v>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395528</v>
+        <v>395487</v>
       </c>
       <c r="R5" t="n">
-        <v>6804736</v>
+        <v>6804812</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046971</v>
+        <v>131046915</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395487</v>
+        <v>395373</v>
       </c>
       <c r="R6" t="n">
-        <v>6804812</v>
+        <v>6804690</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1215,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046767</v>
+        <v>131046758</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1226,16 +1226,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1244,24 +1244,21 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395395</v>
+        <v>395526</v>
       </c>
       <c r="R7" t="n">
-        <v>6804584</v>
+        <v>6804768</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1293,7 +1290,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1303,12 +1300,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:44</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1335,7 +1327,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046940</v>
+        <v>131046927</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1370,10 +1362,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395441</v>
+        <v>395404</v>
       </c>
       <c r="R8" t="n">
-        <v>6804637</v>
+        <v>6804786</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1405,7 +1397,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1415,7 +1407,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1442,7 +1434,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046965</v>
+        <v>131046940</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1477,10 +1469,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395396</v>
+        <v>395441</v>
       </c>
       <c r="R9" t="n">
-        <v>6804747</v>
+        <v>6804637</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1512,7 +1504,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1522,7 +1514,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1549,7 +1541,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046938</v>
+        <v>131046965</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1584,10 +1576,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395437</v>
+        <v>395396</v>
       </c>
       <c r="R10" t="n">
-        <v>6804676</v>
+        <v>6804747</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1619,7 +1611,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1629,7 +1621,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1656,7 +1648,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046927</v>
+        <v>131046910</v>
       </c>
       <c r="B11" t="n">
         <v>79243</v>
@@ -1691,10 +1683,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395404</v>
+        <v>395389</v>
       </c>
       <c r="R11" t="n">
-        <v>6804786</v>
+        <v>6804638</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1726,7 +1718,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1736,7 +1728,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1763,7 +1755,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046910</v>
+        <v>131046908</v>
       </c>
       <c r="B12" t="n">
         <v>79243</v>
@@ -1798,10 +1790,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395389</v>
+        <v>395394</v>
       </c>
       <c r="R12" t="n">
-        <v>6804638</v>
+        <v>6804623</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1833,7 +1825,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1843,7 +1835,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1870,7 +1862,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046908</v>
+        <v>131046938</v>
       </c>
       <c r="B13" t="n">
         <v>79243</v>
@@ -1905,10 +1897,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395394</v>
+        <v>395437</v>
       </c>
       <c r="R13" t="n">
-        <v>6804623</v>
+        <v>6804676</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1940,7 +1932,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1950,7 +1942,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1977,10 +1969,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046758</v>
+        <v>131046767</v>
       </c>
       <c r="B14" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1988,16 +1980,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2006,21 +1998,24 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395526</v>
+        <v>395395</v>
       </c>
       <c r="R14" t="n">
-        <v>6804768</v>
+        <v>6804584</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2052,7 +2047,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2062,7 +2057,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2731,10 +2731,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131047027</v>
+        <v>131046972</v>
       </c>
       <c r="B21" t="n">
-        <v>78909</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2742,21 +2742,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2766,10 +2766,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395391</v>
+        <v>395524</v>
       </c>
       <c r="R21" t="n">
-        <v>6804697</v>
+        <v>6804798</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2838,10 +2838,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131046963</v>
+        <v>131046792</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2849,34 +2849,39 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395386</v>
+        <v>395357</v>
       </c>
       <c r="R22" t="n">
-        <v>6804723</v>
+        <v>6804769</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2908,7 +2913,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2918,7 +2923,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:22</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2945,10 +2955,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131046972</v>
+        <v>131047020</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2956,34 +2966,39 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395524</v>
+        <v>395541</v>
       </c>
       <c r="R23" t="n">
-        <v>6804798</v>
+        <v>6804800</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3015,7 +3030,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3025,14 +3040,19 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23" t="b">
         <v>0</v>
@@ -3052,10 +3072,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131046792</v>
+        <v>131046714</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>83223</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3063,39 +3083,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395357</v>
+        <v>395419</v>
       </c>
       <c r="R24" t="n">
-        <v>6804769</v>
+        <v>6804801</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3127,7 +3142,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3137,12 +3152,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:22</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3169,10 +3179,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131047020</v>
+        <v>131047027</v>
       </c>
       <c r="B25" t="n">
-        <v>57884</v>
+        <v>78909</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3180,39 +3190,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>353</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395541</v>
+        <v>395391</v>
       </c>
       <c r="R25" t="n">
-        <v>6804800</v>
+        <v>6804697</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3244,7 +3249,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3254,19 +3259,14 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:04</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="b">
         <v>0</v>
@@ -3286,10 +3286,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131046714</v>
+        <v>131046963</v>
       </c>
       <c r="B26" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3297,21 +3297,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3321,10 +3321,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395419</v>
+        <v>395386</v>
       </c>
       <c r="R26" t="n">
-        <v>6804801</v>
+        <v>6804723</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3607,7 +3607,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131046945</v>
+        <v>131046937</v>
       </c>
       <c r="B29" t="n">
         <v>79243</v>
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>395448</v>
+        <v>395433</v>
       </c>
       <c r="R29" t="n">
-        <v>6804579</v>
+        <v>6804692</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3714,7 +3714,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046964</v>
+        <v>131046991</v>
       </c>
       <c r="B30" t="n">
         <v>79243</v>
@@ -3749,10 +3749,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395381</v>
+        <v>395479</v>
       </c>
       <c r="R30" t="n">
-        <v>6804728</v>
+        <v>6804588</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3821,7 +3821,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046937</v>
+        <v>131046945</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395433</v>
+        <v>395448</v>
       </c>
       <c r="R31" t="n">
-        <v>6804692</v>
+        <v>6804579</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3928,7 +3928,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046991</v>
+        <v>131046964</v>
       </c>
       <c r="B32" t="n">
         <v>79243</v>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395479</v>
+        <v>395381</v>
       </c>
       <c r="R32" t="n">
-        <v>6804588</v>
+        <v>6804728</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4142,10 +4142,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131046987</v>
+        <v>131046725</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>79275</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4153,21 +4153,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>395501</v>
+        <v>395392</v>
       </c>
       <c r="R34" t="n">
-        <v>6804647</v>
+        <v>6804595</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4249,10 +4249,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131046725</v>
+        <v>131046987</v>
       </c>
       <c r="B35" t="n">
-        <v>79275</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4260,21 +4260,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4284,10 +4284,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>395392</v>
+        <v>395501</v>
       </c>
       <c r="R35" t="n">
-        <v>6804595</v>
+        <v>6804647</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4784,7 +4784,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131046935</v>
+        <v>131046920</v>
       </c>
       <c r="B40" t="n">
         <v>79243</v>
@@ -4819,10 +4819,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395438</v>
+        <v>395369</v>
       </c>
       <c r="R40" t="n">
-        <v>6804735</v>
+        <v>6804738</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4891,7 +4891,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131046920</v>
+        <v>131046935</v>
       </c>
       <c r="B41" t="n">
         <v>79243</v>
@@ -4926,10 +4926,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>395369</v>
+        <v>395438</v>
       </c>
       <c r="R41" t="n">
-        <v>6804738</v>
+        <v>6804735</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5105,7 +5105,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131046936</v>
+        <v>131046932</v>
       </c>
       <c r="B43" t="n">
         <v>79243</v>
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>395431</v>
+        <v>395455</v>
       </c>
       <c r="R43" t="n">
-        <v>6804712</v>
+        <v>6804767</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5212,7 +5212,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131046941</v>
+        <v>131046936</v>
       </c>
       <c r="B44" t="n">
         <v>79243</v>
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>395442</v>
+        <v>395431</v>
       </c>
       <c r="R44" t="n">
-        <v>6804622</v>
+        <v>6804712</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5319,7 +5319,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131046932</v>
+        <v>131046979</v>
       </c>
       <c r="B45" t="n">
         <v>79243</v>
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395455</v>
+        <v>395499</v>
       </c>
       <c r="R45" t="n">
-        <v>6804767</v>
+        <v>6804721</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5426,7 +5426,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046979</v>
+        <v>131046941</v>
       </c>
       <c r="B46" t="n">
         <v>79243</v>
@@ -5461,10 +5461,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395499</v>
+        <v>395442</v>
       </c>
       <c r="R46" t="n">
-        <v>6804721</v>
+        <v>6804622</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5961,7 +5961,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131046959</v>
+        <v>131046982</v>
       </c>
       <c r="B51" t="n">
         <v>79243</v>
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395420</v>
+        <v>395507</v>
       </c>
       <c r="R51" t="n">
-        <v>6804656</v>
+        <v>6804695</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6068,7 +6068,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131046982</v>
+        <v>131046967</v>
       </c>
       <c r="B52" t="n">
         <v>79243</v>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395507</v>
+        <v>395410</v>
       </c>
       <c r="R52" t="n">
-        <v>6804695</v>
+        <v>6804765</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6175,7 +6175,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131046967</v>
+        <v>131046959</v>
       </c>
       <c r="B53" t="n">
         <v>79243</v>
@@ -6210,10 +6210,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>395410</v>
+        <v>395420</v>
       </c>
       <c r="R53" t="n">
-        <v>6804765</v>
+        <v>6804656</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -7031,10 +7031,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131046904</v>
+        <v>131046760</v>
       </c>
       <c r="B61" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7042,34 +7042,39 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>395385</v>
+        <v>395448</v>
       </c>
       <c r="R61" t="n">
-        <v>6804578</v>
+        <v>6804572</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7101,7 +7106,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7111,7 +7116,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7138,7 +7143,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131046983</v>
+        <v>131046904</v>
       </c>
       <c r="B62" t="n">
         <v>79243</v>
@@ -7173,10 +7178,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>395515</v>
+        <v>395385</v>
       </c>
       <c r="R62" t="n">
-        <v>6804694</v>
+        <v>6804578</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7208,7 +7213,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7218,7 +7223,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7245,7 +7250,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131046939</v>
+        <v>131046983</v>
       </c>
       <c r="B63" t="n">
         <v>79243</v>
@@ -7280,10 +7285,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395446</v>
+        <v>395515</v>
       </c>
       <c r="R63" t="n">
-        <v>6804659</v>
+        <v>6804694</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7315,7 +7320,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7325,7 +7330,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7352,10 +7357,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131046760</v>
+        <v>131046939</v>
       </c>
       <c r="B64" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7363,39 +7368,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395448</v>
+        <v>395446</v>
       </c>
       <c r="R64" t="n">
-        <v>6804572</v>
+        <v>6804659</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7464,10 +7464,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131046961</v>
+        <v>131046723</v>
       </c>
       <c r="B65" t="n">
-        <v>79243</v>
+        <v>79275</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7475,21 +7475,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7499,10 +7499,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>395403</v>
+        <v>395447</v>
       </c>
       <c r="R65" t="n">
-        <v>6804693</v>
+        <v>6804620</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7571,10 +7571,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131046723</v>
+        <v>131046961</v>
       </c>
       <c r="B66" t="n">
-        <v>79275</v>
+        <v>79243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7582,21 +7582,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7606,10 +7606,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>395447</v>
+        <v>395403</v>
       </c>
       <c r="R66" t="n">
-        <v>6804620</v>
+        <v>6804693</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7785,10 +7785,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131047026</v>
+        <v>131046717</v>
       </c>
       <c r="B68" t="n">
-        <v>78909</v>
+        <v>83223</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7796,21 +7796,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>353</v>
+        <v>6440</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7820,10 +7820,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>395386</v>
+        <v>395464</v>
       </c>
       <c r="R68" t="n">
-        <v>6804628</v>
+        <v>6804807</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7892,10 +7892,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131046717</v>
+        <v>131047026</v>
       </c>
       <c r="B69" t="n">
-        <v>83223</v>
+        <v>78909</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7903,21 +7903,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6440</v>
+        <v>353</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7927,10 +7927,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395464</v>
+        <v>395386</v>
       </c>
       <c r="R69" t="n">
-        <v>6804807</v>
+        <v>6804628</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8213,7 +8213,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131046933</v>
+        <v>131046930</v>
       </c>
       <c r="B72" t="n">
         <v>79243</v>
@@ -8248,10 +8248,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>395458</v>
+        <v>395446</v>
       </c>
       <c r="R72" t="n">
-        <v>6804762</v>
+        <v>6804802</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8293,7 +8293,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8320,10 +8320,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131047012</v>
+        <v>131046923</v>
       </c>
       <c r="B73" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8331,39 +8331,34 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>395446</v>
+        <v>395364</v>
       </c>
       <c r="R73" t="n">
-        <v>6804659</v>
+        <v>6804764</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8395,7 +8390,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8405,19 +8400,14 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD73" t="b">
         <v>0</v>
       </c>
       <c r="AE73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG73" t="b">
         <v>0</v>
@@ -8437,7 +8427,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131046930</v>
+        <v>131046916</v>
       </c>
       <c r="B74" t="n">
         <v>79243</v>
@@ -8472,10 +8462,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395446</v>
+        <v>395367</v>
       </c>
       <c r="R74" t="n">
-        <v>6804802</v>
+        <v>6804698</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8507,7 +8497,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8517,7 +8507,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8544,7 +8534,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131046923</v>
+        <v>131046933</v>
       </c>
       <c r="B75" t="n">
         <v>79243</v>
@@ -8579,10 +8569,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395364</v>
+        <v>395458</v>
       </c>
       <c r="R75" t="n">
-        <v>6804764</v>
+        <v>6804762</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8614,7 +8604,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8624,7 +8614,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8651,10 +8641,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131046916</v>
+        <v>131047012</v>
       </c>
       <c r="B76" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8662,34 +8652,39 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>395367</v>
+        <v>395446</v>
       </c>
       <c r="R76" t="n">
-        <v>6804698</v>
+        <v>6804659</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8721,7 +8716,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -8731,14 +8726,19 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
       <c r="AE76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG76" t="b">
         <v>0</v>
@@ -8758,7 +8758,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131046958</v>
+        <v>131046913</v>
       </c>
       <c r="B77" t="n">
         <v>79243</v>
@@ -8793,10 +8793,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>395430</v>
+        <v>395387</v>
       </c>
       <c r="R77" t="n">
-        <v>6804615</v>
+        <v>6804675</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -8865,7 +8865,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131046911</v>
+        <v>131046958</v>
       </c>
       <c r="B78" t="n">
         <v>79243</v>
@@ -8900,10 +8900,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>395395</v>
+        <v>395430</v>
       </c>
       <c r="R78" t="n">
-        <v>6804651</v>
+        <v>6804615</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -8972,7 +8972,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131046913</v>
+        <v>131046911</v>
       </c>
       <c r="B79" t="n">
         <v>79243</v>
@@ -9007,10 +9007,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>395387</v>
+        <v>395395</v>
       </c>
       <c r="R79" t="n">
-        <v>6804675</v>
+        <v>6804651</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9293,7 +9293,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131046929</v>
+        <v>131047001</v>
       </c>
       <c r="B82" t="n">
         <v>79243</v>
@@ -9328,10 +9328,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>395420</v>
+        <v>395505</v>
       </c>
       <c r="R82" t="n">
-        <v>6804798</v>
+        <v>6804590</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9363,7 +9363,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -9373,7 +9373,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9400,7 +9400,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131046931</v>
+        <v>131046929</v>
       </c>
       <c r="B83" t="n">
         <v>79243</v>
@@ -9435,10 +9435,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>395443</v>
+        <v>395420</v>
       </c>
       <c r="R83" t="n">
-        <v>6804778</v>
+        <v>6804798</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9470,7 +9470,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9480,7 +9480,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9507,10 +9507,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131046781</v>
+        <v>131046976</v>
       </c>
       <c r="B84" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9518,39 +9518,34 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P84" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>395473</v>
+        <v>395525</v>
       </c>
       <c r="R84" t="n">
-        <v>6804805</v>
+        <v>6804757</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9582,7 +9577,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -9592,12 +9587,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>11:58</t>
-        </is>
-      </c>
-      <c r="AC84" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9624,7 +9614,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131047001</v>
+        <v>131046931</v>
       </c>
       <c r="B85" t="n">
         <v>79243</v>
@@ -9659,10 +9649,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>395505</v>
+        <v>395443</v>
       </c>
       <c r="R85" t="n">
-        <v>6804590</v>
+        <v>6804778</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9694,7 +9684,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -9704,7 +9694,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9731,10 +9721,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131046976</v>
+        <v>131046781</v>
       </c>
       <c r="B86" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9742,34 +9732,39 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>395525</v>
+        <v>395473</v>
       </c>
       <c r="R86" t="n">
-        <v>6804757</v>
+        <v>6804805</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9801,7 +9796,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -9811,7 +9806,12 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9838,10 +9838,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131046978</v>
+        <v>131046779</v>
       </c>
       <c r="B87" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9849,34 +9849,39 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P87" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>395521</v>
+        <v>395369</v>
       </c>
       <c r="R87" t="n">
-        <v>6804726</v>
+        <v>6804718</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9908,7 +9913,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -9918,7 +9923,12 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:13</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -9945,10 +9955,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131046793</v>
+        <v>131046978</v>
       </c>
       <c r="B88" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9956,39 +9966,34 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P88" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>395448</v>
+        <v>395521</v>
       </c>
       <c r="R88" t="n">
-        <v>6804583</v>
+        <v>6804726</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10020,7 +10025,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10030,12 +10035,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>11:38</t>
-        </is>
-      </c>
-      <c r="AC88" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10062,7 +10062,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131046779</v>
+        <v>131046793</v>
       </c>
       <c r="B89" t="n">
         <v>57884</v>
@@ -10093,7 +10093,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -10102,10 +10102,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>395369</v>
+        <v>395448</v>
       </c>
       <c r="R89" t="n">
-        <v>6804718</v>
+        <v>6804583</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10147,12 +10147,12 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10179,10 +10179,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131046804</v>
+        <v>131046791</v>
       </c>
       <c r="B90" t="n">
-        <v>79000</v>
+        <v>57884</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10190,34 +10190,39 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6446</v>
+        <v>100109</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>395367</v>
+        <v>395362</v>
       </c>
       <c r="R90" t="n">
-        <v>6804754</v>
+        <v>6804701</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10249,7 +10254,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -10259,7 +10264,12 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10286,10 +10296,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131046718</v>
+        <v>131046778</v>
       </c>
       <c r="B91" t="n">
-        <v>83223</v>
+        <v>57884</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10297,34 +10307,39 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P91" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>395471</v>
+        <v>395366</v>
       </c>
       <c r="R91" t="n">
-        <v>6804595</v>
+        <v>6804690</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10356,7 +10371,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10366,7 +10381,12 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:09</t>
+        </is>
+      </c>
+      <c r="AC91" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10393,10 +10413,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046984</v>
+        <v>131046804</v>
       </c>
       <c r="B92" t="n">
-        <v>79243</v>
+        <v>79000</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10404,21 +10424,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10428,10 +10448,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395531</v>
+        <v>395367</v>
       </c>
       <c r="R92" t="n">
-        <v>6804688</v>
+        <v>6804754</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10463,7 +10483,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10473,7 +10493,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10500,10 +10520,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046990</v>
+        <v>131046718</v>
       </c>
       <c r="B93" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10511,21 +10531,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10535,10 +10555,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395474</v>
+        <v>395471</v>
       </c>
       <c r="R93" t="n">
-        <v>6804600</v>
+        <v>6804595</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10570,7 +10590,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10580,7 +10600,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10607,10 +10627,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046791</v>
+        <v>131046990</v>
       </c>
       <c r="B94" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10618,39 +10638,34 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P94" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395362</v>
+        <v>395474</v>
       </c>
       <c r="R94" t="n">
-        <v>6804701</v>
+        <v>6804600</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10682,7 +10697,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10692,12 +10707,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>11:10</t>
-        </is>
-      </c>
-      <c r="AC94" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10724,10 +10734,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131046778</v>
+        <v>131046984</v>
       </c>
       <c r="B95" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10735,39 +10745,34 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P95" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>395366</v>
+        <v>395531</v>
       </c>
       <c r="R95" t="n">
-        <v>6804690</v>
+        <v>6804688</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10799,7 +10804,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -10809,12 +10814,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>11:09</t>
-        </is>
-      </c>
-      <c r="AC95" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10841,10 +10841,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131046912</v>
+        <v>131046715</v>
       </c>
       <c r="B96" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10852,21 +10852,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10876,10 +10876,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>395382</v>
+        <v>395445</v>
       </c>
       <c r="R96" t="n">
-        <v>6804661</v>
+        <v>6804803</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10948,7 +10948,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131046906</v>
+        <v>131046912</v>
       </c>
       <c r="B97" t="n">
         <v>79243</v>
@@ -10983,10 +10983,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395395</v>
+        <v>395382</v>
       </c>
       <c r="R97" t="n">
-        <v>6804604</v>
+        <v>6804661</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11018,7 +11018,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11055,7 +11055,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131046975</v>
+        <v>131046906</v>
       </c>
       <c r="B98" t="n">
         <v>79243</v>
@@ -11090,10 +11090,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395535</v>
+        <v>395395</v>
       </c>
       <c r="R98" t="n">
-        <v>6804771</v>
+        <v>6804604</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11162,7 +11162,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131046928</v>
+        <v>131046985</v>
       </c>
       <c r="B99" t="n">
         <v>79243</v>
@@ -11197,10 +11197,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395417</v>
+        <v>395531</v>
       </c>
       <c r="R99" t="n">
-        <v>6804797</v>
+        <v>6804664</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11232,7 +11232,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11242,7 +11242,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11269,7 +11269,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131046985</v>
+        <v>131046928</v>
       </c>
       <c r="B100" t="n">
         <v>79243</v>
@@ -11304,10 +11304,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395531</v>
+        <v>395417</v>
       </c>
       <c r="R100" t="n">
-        <v>6804664</v>
+        <v>6804797</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11376,10 +11376,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131046715</v>
+        <v>131046975</v>
       </c>
       <c r="B101" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11387,21 +11387,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11411,10 +11411,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395445</v>
+        <v>395535</v>
       </c>
       <c r="R101" t="n">
-        <v>6804803</v>
+        <v>6804771</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD101" t="b">

--- a/artfynd/A 58063-2025 artfynd.xlsx
+++ b/artfynd/A 58063-2025 artfynd.xlsx
@@ -6389,10 +6389,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131046925</v>
+        <v>131046722</v>
       </c>
       <c r="B55" t="n">
-        <v>79243</v>
+        <v>79275</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6400,21 +6400,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6424,10 +6424,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>395380</v>
+        <v>395391</v>
       </c>
       <c r="R55" t="n">
-        <v>6804774</v>
+        <v>6804603</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6496,10 +6496,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131046722</v>
+        <v>131046925</v>
       </c>
       <c r="B56" t="n">
-        <v>79275</v>
+        <v>79243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6507,21 +6507,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6531,10 +6531,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>395391</v>
+        <v>395380</v>
       </c>
       <c r="R56" t="n">
-        <v>6804603</v>
+        <v>6804774</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -8213,10 +8213,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131046930</v>
+        <v>131047012</v>
       </c>
       <c r="B72" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8224,24 +8224,29 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
@@ -8251,7 +8256,7 @@
         <v>395446</v>
       </c>
       <c r="R72" t="n">
-        <v>6804802</v>
+        <v>6804659</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8283,7 +8288,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8293,14 +8298,19 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD72" t="b">
         <v>0</v>
       </c>
       <c r="AE72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG72" t="b">
         <v>0</v>
@@ -8320,7 +8330,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131046923</v>
+        <v>131046930</v>
       </c>
       <c r="B73" t="n">
         <v>79243</v>
@@ -8355,10 +8365,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>395364</v>
+        <v>395446</v>
       </c>
       <c r="R73" t="n">
-        <v>6804764</v>
+        <v>6804802</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8390,7 +8400,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8400,7 +8410,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8427,7 +8437,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131046916</v>
+        <v>131046923</v>
       </c>
       <c r="B74" t="n">
         <v>79243</v>
@@ -8462,10 +8472,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395367</v>
+        <v>395364</v>
       </c>
       <c r="R74" t="n">
-        <v>6804698</v>
+        <v>6804764</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8497,7 +8507,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8507,7 +8517,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8534,7 +8544,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131046933</v>
+        <v>131046916</v>
       </c>
       <c r="B75" t="n">
         <v>79243</v>
@@ -8569,10 +8579,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395458</v>
+        <v>395367</v>
       </c>
       <c r="R75" t="n">
-        <v>6804762</v>
+        <v>6804698</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8604,7 +8614,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8614,7 +8624,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8641,10 +8651,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131047012</v>
+        <v>131046933</v>
       </c>
       <c r="B76" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8652,39 +8662,34 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>395446</v>
+        <v>395458</v>
       </c>
       <c r="R76" t="n">
-        <v>6804659</v>
+        <v>6804762</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8716,7 +8721,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -8726,19 +8731,14 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
       <c r="AE76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG76" t="b">
         <v>0</v>
@@ -11162,7 +11162,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131046985</v>
+        <v>131046928</v>
       </c>
       <c r="B99" t="n">
         <v>79243</v>
@@ -11197,10 +11197,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395531</v>
+        <v>395417</v>
       </c>
       <c r="R99" t="n">
-        <v>6804664</v>
+        <v>6804797</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11232,7 +11232,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11242,7 +11242,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11269,7 +11269,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131046928</v>
+        <v>131046975</v>
       </c>
       <c r="B100" t="n">
         <v>79243</v>
@@ -11304,10 +11304,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395417</v>
+        <v>395535</v>
       </c>
       <c r="R100" t="n">
-        <v>6804797</v>
+        <v>6804771</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11376,7 +11376,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131046975</v>
+        <v>131046985</v>
       </c>
       <c r="B101" t="n">
         <v>79243</v>
@@ -11411,10 +11411,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395535</v>
+        <v>395531</v>
       </c>
       <c r="R101" t="n">
-        <v>6804771</v>
+        <v>6804664</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD101" t="b">

--- a/artfynd/A 58063-2025 artfynd.xlsx
+++ b/artfynd/A 58063-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046977</v>
+        <v>131046971</v>
       </c>
       <c r="B2" t="n">
         <v>79243</v>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395528</v>
+        <v>395487</v>
       </c>
       <c r="R2" t="n">
-        <v>6804736</v>
+        <v>6804812</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046942</v>
+        <v>131046989</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395445</v>
+        <v>395484</v>
       </c>
       <c r="R3" t="n">
-        <v>6804607</v>
+        <v>6804617</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,7 +894,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046989</v>
+        <v>131046977</v>
       </c>
       <c r="B4" t="n">
         <v>79243</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395484</v>
+        <v>395528</v>
       </c>
       <c r="R4" t="n">
-        <v>6804617</v>
+        <v>6804736</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1001,7 +1001,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046971</v>
+        <v>131046915</v>
       </c>
       <c r="B5" t="n">
         <v>79243</v>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395487</v>
+        <v>395373</v>
       </c>
       <c r="R5" t="n">
-        <v>6804812</v>
+        <v>6804690</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046915</v>
+        <v>131046942</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395373</v>
+        <v>395445</v>
       </c>
       <c r="R6" t="n">
-        <v>6804690</v>
+        <v>6804607</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1215,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046758</v>
+        <v>131046940</v>
       </c>
       <c r="B7" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1226,39 +1226,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395526</v>
+        <v>395441</v>
       </c>
       <c r="R7" t="n">
-        <v>6804768</v>
+        <v>6804637</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1290,7 +1285,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1300,7 +1295,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1327,7 +1322,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046927</v>
+        <v>131046910</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1362,10 +1357,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395404</v>
+        <v>395389</v>
       </c>
       <c r="R8" t="n">
-        <v>6804786</v>
+        <v>6804638</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1397,7 +1392,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1407,7 +1402,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1434,7 +1429,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046940</v>
+        <v>131046908</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1469,10 +1464,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395441</v>
+        <v>395394</v>
       </c>
       <c r="R9" t="n">
-        <v>6804637</v>
+        <v>6804623</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1504,7 +1499,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1514,7 +1509,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1541,7 +1536,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046965</v>
+        <v>131046938</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1576,10 +1571,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395396</v>
+        <v>395437</v>
       </c>
       <c r="R10" t="n">
-        <v>6804747</v>
+        <v>6804676</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1611,7 +1606,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1621,7 +1616,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1648,7 +1643,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046910</v>
+        <v>131046927</v>
       </c>
       <c r="B11" t="n">
         <v>79243</v>
@@ -1683,10 +1678,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395389</v>
+        <v>395404</v>
       </c>
       <c r="R11" t="n">
-        <v>6804638</v>
+        <v>6804786</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1718,7 +1713,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1728,7 +1723,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1755,10 +1750,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046908</v>
+        <v>131046758</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1766,34 +1761,39 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395394</v>
+        <v>395526</v>
       </c>
       <c r="R12" t="n">
-        <v>6804623</v>
+        <v>6804768</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1862,7 +1862,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046938</v>
+        <v>131046965</v>
       </c>
       <c r="B13" t="n">
         <v>79243</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395437</v>
+        <v>395396</v>
       </c>
       <c r="R13" t="n">
-        <v>6804676</v>
+        <v>6804747</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2089,10 +2089,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046800</v>
+        <v>131046907</v>
       </c>
       <c r="B15" t="n">
-        <v>81228</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2100,21 +2100,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395387</v>
+        <v>395411</v>
       </c>
       <c r="R15" t="n">
-        <v>6804626</v>
+        <v>6804605</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2196,7 +2196,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131047000</v>
+        <v>131046968</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395494</v>
+        <v>395412</v>
       </c>
       <c r="R16" t="n">
-        <v>6804583</v>
+        <v>6804755</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2303,7 +2303,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131046986</v>
+        <v>131047002</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2338,10 +2338,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395520</v>
+        <v>395503</v>
       </c>
       <c r="R17" t="n">
-        <v>6804657</v>
+        <v>6804603</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2410,7 +2410,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046907</v>
+        <v>131046986</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395411</v>
+        <v>395520</v>
       </c>
       <c r="R18" t="n">
-        <v>6804605</v>
+        <v>6804657</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2517,7 +2517,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131047002</v>
+        <v>131047000</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395503</v>
+        <v>395494</v>
       </c>
       <c r="R19" t="n">
-        <v>6804603</v>
+        <v>6804583</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2624,10 +2624,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131046968</v>
+        <v>131046800</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>81228</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2635,21 +2635,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2659,10 +2659,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395412</v>
+        <v>395387</v>
       </c>
       <c r="R20" t="n">
-        <v>6804755</v>
+        <v>6804626</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3179,10 +3179,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131047027</v>
+        <v>131046963</v>
       </c>
       <c r="B25" t="n">
-        <v>78909</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3190,21 +3190,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395391</v>
+        <v>395386</v>
       </c>
       <c r="R25" t="n">
-        <v>6804697</v>
+        <v>6804723</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3286,10 +3286,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131046963</v>
+        <v>131047027</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>78909</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3297,21 +3297,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3321,10 +3321,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395386</v>
+        <v>395391</v>
       </c>
       <c r="R26" t="n">
-        <v>6804723</v>
+        <v>6804697</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3500,10 +3500,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131046801</v>
+        <v>131046964</v>
       </c>
       <c r="B28" t="n">
-        <v>81228</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3511,21 +3511,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3535,10 +3535,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>395526</v>
+        <v>395381</v>
       </c>
       <c r="R28" t="n">
-        <v>6804768</v>
+        <v>6804728</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3607,7 +3607,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131046937</v>
+        <v>131046945</v>
       </c>
       <c r="B29" t="n">
         <v>79243</v>
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>395433</v>
+        <v>395448</v>
       </c>
       <c r="R29" t="n">
-        <v>6804692</v>
+        <v>6804579</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3714,10 +3714,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046991</v>
+        <v>131046801</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>81228</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3725,21 +3725,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3749,10 +3749,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395479</v>
+        <v>395526</v>
       </c>
       <c r="R30" t="n">
-        <v>6804588</v>
+        <v>6804768</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3821,7 +3821,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046945</v>
+        <v>131046937</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395448</v>
+        <v>395433</v>
       </c>
       <c r="R31" t="n">
-        <v>6804579</v>
+        <v>6804692</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3928,7 +3928,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046964</v>
+        <v>131046914</v>
       </c>
       <c r="B32" t="n">
         <v>79243</v>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395381</v>
+        <v>395382</v>
       </c>
       <c r="R32" t="n">
-        <v>6804728</v>
+        <v>6804689</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4035,7 +4035,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131046914</v>
+        <v>131046991</v>
       </c>
       <c r="B33" t="n">
         <v>79243</v>
@@ -4070,10 +4070,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>395382</v>
+        <v>395479</v>
       </c>
       <c r="R33" t="n">
-        <v>6804689</v>
+        <v>6804588</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4142,10 +4142,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131046725</v>
+        <v>131046987</v>
       </c>
       <c r="B34" t="n">
-        <v>79275</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4153,21 +4153,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>395392</v>
+        <v>395501</v>
       </c>
       <c r="R34" t="n">
-        <v>6804595</v>
+        <v>6804647</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4249,10 +4249,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131046987</v>
+        <v>131046725</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>79275</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4260,21 +4260,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4284,10 +4284,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>395501</v>
+        <v>395392</v>
       </c>
       <c r="R35" t="n">
-        <v>6804647</v>
+        <v>6804595</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4570,7 +4570,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131046966</v>
+        <v>131046970</v>
       </c>
       <c r="B38" t="n">
         <v>79243</v>
@@ -4605,10 +4605,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>395401</v>
+        <v>395474</v>
       </c>
       <c r="R38" t="n">
-        <v>6804761</v>
+        <v>6804807</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4677,7 +4677,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131046970</v>
+        <v>131046966</v>
       </c>
       <c r="B39" t="n">
         <v>79243</v>
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>395474</v>
+        <v>395401</v>
       </c>
       <c r="R39" t="n">
-        <v>6804807</v>
+        <v>6804761</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4784,7 +4784,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131046920</v>
+        <v>131046919</v>
       </c>
       <c r="B40" t="n">
         <v>79243</v>
@@ -4819,10 +4819,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395369</v>
+        <v>395363</v>
       </c>
       <c r="R40" t="n">
-        <v>6804738</v>
+        <v>6804723</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4891,7 +4891,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131046935</v>
+        <v>131046920</v>
       </c>
       <c r="B41" t="n">
         <v>79243</v>
@@ -4926,10 +4926,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>395438</v>
+        <v>395369</v>
       </c>
       <c r="R41" t="n">
-        <v>6804735</v>
+        <v>6804738</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4998,7 +4998,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131046919</v>
+        <v>131046941</v>
       </c>
       <c r="B42" t="n">
         <v>79243</v>
@@ -5033,10 +5033,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395363</v>
+        <v>395442</v>
       </c>
       <c r="R42" t="n">
-        <v>6804723</v>
+        <v>6804622</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5105,7 +5105,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131046932</v>
+        <v>131046979</v>
       </c>
       <c r="B43" t="n">
         <v>79243</v>
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>395455</v>
+        <v>395499</v>
       </c>
       <c r="R43" t="n">
-        <v>6804767</v>
+        <v>6804721</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5212,7 +5212,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131046936</v>
+        <v>131046918</v>
       </c>
       <c r="B44" t="n">
         <v>79243</v>
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>395431</v>
+        <v>395369</v>
       </c>
       <c r="R44" t="n">
-        <v>6804712</v>
+        <v>6804718</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5319,7 +5319,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131046979</v>
+        <v>131046980</v>
       </c>
       <c r="B45" t="n">
         <v>79243</v>
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395499</v>
+        <v>395494</v>
       </c>
       <c r="R45" t="n">
-        <v>6804721</v>
+        <v>6804716</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5426,7 +5426,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046941</v>
+        <v>131046988</v>
       </c>
       <c r="B46" t="n">
         <v>79243</v>
@@ -5461,10 +5461,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395442</v>
+        <v>395491</v>
       </c>
       <c r="R46" t="n">
-        <v>6804622</v>
+        <v>6804630</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5533,7 +5533,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131046988</v>
+        <v>131046935</v>
       </c>
       <c r="B47" t="n">
         <v>79243</v>
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>395491</v>
+        <v>395438</v>
       </c>
       <c r="R47" t="n">
-        <v>6804630</v>
+        <v>6804735</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5640,7 +5640,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131046918</v>
+        <v>131046932</v>
       </c>
       <c r="B48" t="n">
         <v>79243</v>
@@ -5675,10 +5675,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>395369</v>
+        <v>395455</v>
       </c>
       <c r="R48" t="n">
-        <v>6804718</v>
+        <v>6804767</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5747,7 +5747,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131046980</v>
+        <v>131046936</v>
       </c>
       <c r="B49" t="n">
         <v>79243</v>
@@ -5782,10 +5782,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>395494</v>
+        <v>395431</v>
       </c>
       <c r="R49" t="n">
-        <v>6804716</v>
+        <v>6804712</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5854,10 +5854,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131046716</v>
+        <v>131046967</v>
       </c>
       <c r="B50" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5865,21 +5865,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5889,10 +5889,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395401</v>
+        <v>395410</v>
       </c>
       <c r="R50" t="n">
-        <v>6804761</v>
+        <v>6804765</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5961,10 +5961,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131046982</v>
+        <v>131046716</v>
       </c>
       <c r="B51" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5972,21 +5972,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395507</v>
+        <v>395401</v>
       </c>
       <c r="R51" t="n">
-        <v>6804695</v>
+        <v>6804761</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6068,7 +6068,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131046967</v>
+        <v>131046982</v>
       </c>
       <c r="B52" t="n">
         <v>79243</v>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395410</v>
+        <v>395507</v>
       </c>
       <c r="R52" t="n">
-        <v>6804765</v>
+        <v>6804695</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6175,7 +6175,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131046959</v>
+        <v>131046960</v>
       </c>
       <c r="B53" t="n">
         <v>79243</v>
@@ -6210,10 +6210,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>395420</v>
+        <v>395414</v>
       </c>
       <c r="R53" t="n">
-        <v>6804656</v>
+        <v>6804670</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6282,7 +6282,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131046960</v>
+        <v>131046959</v>
       </c>
       <c r="B54" t="n">
         <v>79243</v>
@@ -6317,10 +6317,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>395414</v>
+        <v>395420</v>
       </c>
       <c r="R54" t="n">
-        <v>6804670</v>
+        <v>6804656</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6710,7 +6710,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131046924</v>
+        <v>131046969</v>
       </c>
       <c r="B58" t="n">
         <v>79243</v>
@@ -6745,10 +6745,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395373</v>
+        <v>395464</v>
       </c>
       <c r="R58" t="n">
-        <v>6804784</v>
+        <v>6804807</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6817,7 +6817,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131046969</v>
+        <v>131046924</v>
       </c>
       <c r="B59" t="n">
         <v>79243</v>
@@ -6852,10 +6852,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>395464</v>
+        <v>395373</v>
       </c>
       <c r="R59" t="n">
-        <v>6804807</v>
+        <v>6804784</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7143,7 +7143,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131046904</v>
+        <v>131046939</v>
       </c>
       <c r="B62" t="n">
         <v>79243</v>
@@ -7178,10 +7178,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>395385</v>
+        <v>395446</v>
       </c>
       <c r="R62" t="n">
-        <v>6804578</v>
+        <v>6804659</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7250,7 +7250,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131046983</v>
+        <v>131046904</v>
       </c>
       <c r="B63" t="n">
         <v>79243</v>
@@ -7285,10 +7285,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395515</v>
+        <v>395385</v>
       </c>
       <c r="R63" t="n">
-        <v>6804694</v>
+        <v>6804578</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7320,7 +7320,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7330,7 +7330,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7357,7 +7357,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131046939</v>
+        <v>131046983</v>
       </c>
       <c r="B64" t="n">
         <v>79243</v>
@@ -7392,10 +7392,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395446</v>
+        <v>395515</v>
       </c>
       <c r="R64" t="n">
-        <v>6804659</v>
+        <v>6804694</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7464,10 +7464,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131046723</v>
+        <v>131046961</v>
       </c>
       <c r="B65" t="n">
-        <v>79275</v>
+        <v>79243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7475,21 +7475,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7499,10 +7499,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>395447</v>
+        <v>395403</v>
       </c>
       <c r="R65" t="n">
-        <v>6804620</v>
+        <v>6804693</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7571,10 +7571,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131046961</v>
+        <v>131046723</v>
       </c>
       <c r="B66" t="n">
-        <v>79243</v>
+        <v>79275</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7582,21 +7582,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7606,10 +7606,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>395403</v>
+        <v>395447</v>
       </c>
       <c r="R66" t="n">
-        <v>6804693</v>
+        <v>6804620</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7892,10 +7892,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131047026</v>
+        <v>131046917</v>
       </c>
       <c r="B69" t="n">
-        <v>78909</v>
+        <v>79243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7903,21 +7903,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7927,10 +7927,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395386</v>
+        <v>395365</v>
       </c>
       <c r="R69" t="n">
-        <v>6804628</v>
+        <v>6804704</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -7999,7 +7999,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131046917</v>
+        <v>131046921</v>
       </c>
       <c r="B70" t="n">
         <v>79243</v>
@@ -8034,10 +8034,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>395365</v>
+        <v>395357</v>
       </c>
       <c r="R70" t="n">
-        <v>6804704</v>
+        <v>6804752</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8106,10 +8106,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131046921</v>
+        <v>131047026</v>
       </c>
       <c r="B71" t="n">
-        <v>79243</v>
+        <v>78909</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8117,21 +8117,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8141,10 +8141,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395357</v>
+        <v>395386</v>
       </c>
       <c r="R71" t="n">
-        <v>6804752</v>
+        <v>6804628</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8330,7 +8330,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131046930</v>
+        <v>131046916</v>
       </c>
       <c r="B73" t="n">
         <v>79243</v>
@@ -8365,10 +8365,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>395446</v>
+        <v>395367</v>
       </c>
       <c r="R73" t="n">
-        <v>6804802</v>
+        <v>6804698</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8400,7 +8400,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8410,7 +8410,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8544,7 +8544,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131046916</v>
+        <v>131046930</v>
       </c>
       <c r="B75" t="n">
         <v>79243</v>
@@ -8579,10 +8579,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395367</v>
+        <v>395446</v>
       </c>
       <c r="R75" t="n">
-        <v>6804698</v>
+        <v>6804802</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8614,7 +8614,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8758,7 +8758,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131046913</v>
+        <v>131046958</v>
       </c>
       <c r="B77" t="n">
         <v>79243</v>
@@ -8793,10 +8793,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>395387</v>
+        <v>395430</v>
       </c>
       <c r="R77" t="n">
-        <v>6804675</v>
+        <v>6804615</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -8865,7 +8865,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131046958</v>
+        <v>131046911</v>
       </c>
       <c r="B78" t="n">
         <v>79243</v>
@@ -8900,10 +8900,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>395430</v>
+        <v>395395</v>
       </c>
       <c r="R78" t="n">
-        <v>6804615</v>
+        <v>6804651</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -8972,7 +8972,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131046911</v>
+        <v>131046913</v>
       </c>
       <c r="B79" t="n">
         <v>79243</v>
@@ -9007,10 +9007,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>395395</v>
+        <v>395387</v>
       </c>
       <c r="R79" t="n">
-        <v>6804651</v>
+        <v>6804675</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9186,7 +9186,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131046962</v>
+        <v>131047001</v>
       </c>
       <c r="B81" t="n">
         <v>79243</v>
@@ -9221,10 +9221,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395389</v>
+        <v>395505</v>
       </c>
       <c r="R81" t="n">
-        <v>6804711</v>
+        <v>6804590</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9293,7 +9293,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131047001</v>
+        <v>131046976</v>
       </c>
       <c r="B82" t="n">
         <v>79243</v>
@@ -9328,10 +9328,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>395505</v>
+        <v>395525</v>
       </c>
       <c r="R82" t="n">
-        <v>6804590</v>
+        <v>6804757</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9363,7 +9363,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -9373,7 +9373,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9400,7 +9400,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131046929</v>
+        <v>131046931</v>
       </c>
       <c r="B83" t="n">
         <v>79243</v>
@@ -9435,10 +9435,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>395420</v>
+        <v>395443</v>
       </c>
       <c r="R83" t="n">
-        <v>6804798</v>
+        <v>6804778</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9470,7 +9470,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9480,7 +9480,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9507,7 +9507,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131046976</v>
+        <v>131046929</v>
       </c>
       <c r="B84" t="n">
         <v>79243</v>
@@ -9542,10 +9542,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>395525</v>
+        <v>395420</v>
       </c>
       <c r="R84" t="n">
-        <v>6804757</v>
+        <v>6804798</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -9587,7 +9587,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9614,7 +9614,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131046931</v>
+        <v>131046962</v>
       </c>
       <c r="B85" t="n">
         <v>79243</v>
@@ -9649,10 +9649,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>395443</v>
+        <v>395389</v>
       </c>
       <c r="R85" t="n">
-        <v>6804778</v>
+        <v>6804711</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9838,10 +9838,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131046779</v>
+        <v>131046978</v>
       </c>
       <c r="B87" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9849,39 +9849,34 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P87" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>395369</v>
+        <v>395521</v>
       </c>
       <c r="R87" t="n">
-        <v>6804718</v>
+        <v>6804726</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9913,7 +9908,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -9923,12 +9918,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>11:13</t>
-        </is>
-      </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -9955,10 +9945,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131046978</v>
+        <v>131046793</v>
       </c>
       <c r="B88" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9966,34 +9956,39 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P88" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>395521</v>
+        <v>395448</v>
       </c>
       <c r="R88" t="n">
-        <v>6804726</v>
+        <v>6804583</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10025,7 +10020,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10035,7 +10030,12 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:38</t>
+        </is>
+      </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10062,7 +10062,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131046793</v>
+        <v>131046779</v>
       </c>
       <c r="B89" t="n">
         <v>57884</v>
@@ -10093,7 +10093,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -10102,10 +10102,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>395448</v>
+        <v>395369</v>
       </c>
       <c r="R89" t="n">
-        <v>6804583</v>
+        <v>6804718</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10147,12 +10147,12 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>Färska ringhack (gran)</t>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10179,10 +10179,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131046791</v>
+        <v>131046804</v>
       </c>
       <c r="B90" t="n">
-        <v>57884</v>
+        <v>79000</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10190,39 +10190,34 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>100109</v>
+        <v>6446</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P90" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>395362</v>
+        <v>395367</v>
       </c>
       <c r="R90" t="n">
-        <v>6804701</v>
+        <v>6804754</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10254,7 +10249,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -10264,12 +10259,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>11:10</t>
-        </is>
-      </c>
-      <c r="AC90" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10296,7 +10286,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131046778</v>
+        <v>131046791</v>
       </c>
       <c r="B91" t="n">
         <v>57884</v>
@@ -10327,7 +10317,7 @@
       <c r="I91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -10336,10 +10326,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>395366</v>
+        <v>395362</v>
       </c>
       <c r="R91" t="n">
-        <v>6804690</v>
+        <v>6804701</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10371,7 +10361,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10381,12 +10371,12 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10413,10 +10403,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046804</v>
+        <v>131046778</v>
       </c>
       <c r="B92" t="n">
-        <v>79000</v>
+        <v>57884</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10424,34 +10414,39 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6446</v>
+        <v>100109</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P92" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395367</v>
+        <v>395366</v>
       </c>
       <c r="R92" t="n">
-        <v>6804754</v>
+        <v>6804690</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10483,7 +10478,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10493,7 +10488,12 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>11:09</t>
+        </is>
+      </c>
+      <c r="AC92" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10520,10 +10520,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046718</v>
+        <v>131046990</v>
       </c>
       <c r="B93" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10531,21 +10531,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10555,10 +10555,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395471</v>
+        <v>395474</v>
       </c>
       <c r="R93" t="n">
-        <v>6804595</v>
+        <v>6804600</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10590,7 +10590,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10627,10 +10627,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046990</v>
+        <v>131046718</v>
       </c>
       <c r="B94" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10638,21 +10638,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -10662,10 +10662,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395474</v>
+        <v>395471</v>
       </c>
       <c r="R94" t="n">
-        <v>6804600</v>
+        <v>6804595</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10697,7 +10697,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10707,7 +10707,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10841,32 +10841,32 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131046715</v>
+        <v>131046794</v>
       </c>
       <c r="B96" t="n">
-        <v>83223</v>
+        <v>57076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6440</v>
+        <v>102613</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10876,10 +10876,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>395445</v>
+        <v>395383</v>
       </c>
       <c r="R96" t="n">
-        <v>6804803</v>
+        <v>6804574</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10948,10 +10948,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131046912</v>
+        <v>131046797</v>
       </c>
       <c r="B97" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10959,21 +10959,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -10983,10 +10983,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395382</v>
+        <v>395367</v>
       </c>
       <c r="R97" t="n">
-        <v>6804661</v>
+        <v>6804754</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11018,7 +11018,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11055,7 +11055,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131046906</v>
+        <v>131046912</v>
       </c>
       <c r="B98" t="n">
         <v>79243</v>
@@ -11090,10 +11090,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395395</v>
+        <v>395382</v>
       </c>
       <c r="R98" t="n">
-        <v>6804604</v>
+        <v>6804661</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11269,7 +11269,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131046975</v>
+        <v>131046906</v>
       </c>
       <c r="B100" t="n">
         <v>79243</v>
@@ -11304,10 +11304,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395535</v>
+        <v>395395</v>
       </c>
       <c r="R100" t="n">
-        <v>6804771</v>
+        <v>6804604</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11376,10 +11376,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131046985</v>
+        <v>131046715</v>
       </c>
       <c r="B101" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11387,21 +11387,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11411,10 +11411,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395531</v>
+        <v>395445</v>
       </c>
       <c r="R101" t="n">
-        <v>6804664</v>
+        <v>6804803</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11483,32 +11483,32 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131046794</v>
+        <v>131046975</v>
       </c>
       <c r="B102" t="n">
-        <v>57076</v>
+        <v>79243</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>102613</v>
+        <v>6425</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395383</v>
+        <v>395535</v>
       </c>
       <c r="R102" t="n">
-        <v>6804574</v>
+        <v>6804771</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11590,10 +11590,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>131046797</v>
+        <v>131046985</v>
       </c>
       <c r="B103" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11601,21 +11601,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11625,10 +11625,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>395367</v>
+        <v>395531</v>
       </c>
       <c r="R103" t="n">
-        <v>6804754</v>
+        <v>6804664</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11660,7 +11660,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD103" t="b">

--- a/artfynd/A 58063-2025 artfynd.xlsx
+++ b/artfynd/A 58063-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046971</v>
+        <v>131046989</v>
       </c>
       <c r="B2" t="n">
         <v>79243</v>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395487</v>
+        <v>395484</v>
       </c>
       <c r="R2" t="n">
-        <v>6804812</v>
+        <v>6804617</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046989</v>
+        <v>131046977</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395484</v>
+        <v>395528</v>
       </c>
       <c r="R3" t="n">
-        <v>6804617</v>
+        <v>6804736</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,7 +894,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046977</v>
+        <v>131046942</v>
       </c>
       <c r="B4" t="n">
         <v>79243</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395528</v>
+        <v>395445</v>
       </c>
       <c r="R4" t="n">
-        <v>6804736</v>
+        <v>6804607</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1001,7 +1001,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046915</v>
+        <v>131046971</v>
       </c>
       <c r="B5" t="n">
         <v>79243</v>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395373</v>
+        <v>395487</v>
       </c>
       <c r="R5" t="n">
-        <v>6804690</v>
+        <v>6804812</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046942</v>
+        <v>131046915</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395445</v>
+        <v>395373</v>
       </c>
       <c r="R6" t="n">
-        <v>6804607</v>
+        <v>6804690</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1215,7 +1215,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046940</v>
+        <v>131046927</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395441</v>
+        <v>395404</v>
       </c>
       <c r="R7" t="n">
-        <v>6804637</v>
+        <v>6804786</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1322,7 +1322,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046910</v>
+        <v>131046940</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1357,10 +1357,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395389</v>
+        <v>395441</v>
       </c>
       <c r="R8" t="n">
-        <v>6804638</v>
+        <v>6804637</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1429,7 +1429,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046908</v>
+        <v>131046965</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1464,10 +1464,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395394</v>
+        <v>395396</v>
       </c>
       <c r="R9" t="n">
-        <v>6804623</v>
+        <v>6804747</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1536,7 +1536,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046938</v>
+        <v>131046910</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1571,10 +1571,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395437</v>
+        <v>395389</v>
       </c>
       <c r="R10" t="n">
-        <v>6804676</v>
+        <v>6804638</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1643,7 +1643,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046927</v>
+        <v>131046908</v>
       </c>
       <c r="B11" t="n">
         <v>79243</v>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395404</v>
+        <v>395394</v>
       </c>
       <c r="R11" t="n">
-        <v>6804786</v>
+        <v>6804623</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1862,7 +1862,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046965</v>
+        <v>131046938</v>
       </c>
       <c r="B13" t="n">
         <v>79243</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395396</v>
+        <v>395437</v>
       </c>
       <c r="R13" t="n">
-        <v>6804747</v>
+        <v>6804676</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2089,10 +2089,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046907</v>
+        <v>131046800</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>81228</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2100,21 +2100,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395411</v>
+        <v>395387</v>
       </c>
       <c r="R15" t="n">
-        <v>6804605</v>
+        <v>6804626</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2196,7 +2196,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131046968</v>
+        <v>131047000</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395412</v>
+        <v>395494</v>
       </c>
       <c r="R16" t="n">
-        <v>6804755</v>
+        <v>6804583</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2303,7 +2303,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131047002</v>
+        <v>131046986</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2338,10 +2338,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395503</v>
+        <v>395520</v>
       </c>
       <c r="R17" t="n">
-        <v>6804603</v>
+        <v>6804657</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2410,7 +2410,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046986</v>
+        <v>131046907</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395520</v>
+        <v>395411</v>
       </c>
       <c r="R18" t="n">
-        <v>6804657</v>
+        <v>6804605</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2517,7 +2517,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131047000</v>
+        <v>131046968</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395494</v>
+        <v>395412</v>
       </c>
       <c r="R19" t="n">
-        <v>6804583</v>
+        <v>6804755</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2624,10 +2624,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131046800</v>
+        <v>131047002</v>
       </c>
       <c r="B20" t="n">
-        <v>81228</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2635,21 +2635,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2659,10 +2659,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395387</v>
+        <v>395503</v>
       </c>
       <c r="R20" t="n">
-        <v>6804626</v>
+        <v>6804603</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2731,7 +2731,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131046972</v>
+        <v>131046963</v>
       </c>
       <c r="B21" t="n">
         <v>79243</v>
@@ -2766,10 +2766,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395524</v>
+        <v>395386</v>
       </c>
       <c r="R21" t="n">
-        <v>6804798</v>
+        <v>6804723</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2838,10 +2838,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131046792</v>
+        <v>131046972</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2849,39 +2849,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395357</v>
+        <v>395524</v>
       </c>
       <c r="R22" t="n">
-        <v>6804769</v>
+        <v>6804798</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2913,7 +2908,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2923,12 +2918,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:22</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2955,10 +2945,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131047020</v>
+        <v>131047027</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>78909</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2966,39 +2956,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>353</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395541</v>
+        <v>395391</v>
       </c>
       <c r="R23" t="n">
-        <v>6804800</v>
+        <v>6804697</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3030,7 +3015,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3040,19 +3025,14 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:04</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="b">
         <v>0</v>
@@ -3072,10 +3052,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131046714</v>
+        <v>131047020</v>
       </c>
       <c r="B24" t="n">
-        <v>83223</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3083,34 +3063,39 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395419</v>
+        <v>395541</v>
       </c>
       <c r="R24" t="n">
-        <v>6804801</v>
+        <v>6804800</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3142,7 +3127,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3152,14 +3137,19 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24" t="b">
         <v>0</v>
@@ -3179,10 +3169,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131046963</v>
+        <v>131046792</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3190,34 +3180,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395386</v>
+        <v>395357</v>
       </c>
       <c r="R25" t="n">
-        <v>6804723</v>
+        <v>6804769</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3249,7 +3244,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3259,7 +3254,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:22</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3286,10 +3286,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131047027</v>
+        <v>131046922</v>
       </c>
       <c r="B26" t="n">
-        <v>78909</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3297,21 +3297,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3321,10 +3321,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395391</v>
+        <v>395365</v>
       </c>
       <c r="R26" t="n">
-        <v>6804697</v>
+        <v>6804755</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3393,10 +3393,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131046922</v>
+        <v>131046714</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3404,21 +3404,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3428,10 +3428,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>395365</v>
+        <v>395419</v>
       </c>
       <c r="R27" t="n">
-        <v>6804755</v>
+        <v>6804801</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3500,10 +3500,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131046964</v>
+        <v>131046801</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>81228</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3511,21 +3511,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3535,10 +3535,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>395381</v>
+        <v>395526</v>
       </c>
       <c r="R28" t="n">
-        <v>6804728</v>
+        <v>6804768</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3607,7 +3607,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131046945</v>
+        <v>131046937</v>
       </c>
       <c r="B29" t="n">
         <v>79243</v>
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>395448</v>
+        <v>395433</v>
       </c>
       <c r="R29" t="n">
-        <v>6804579</v>
+        <v>6804692</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3714,10 +3714,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046801</v>
+        <v>131046991</v>
       </c>
       <c r="B30" t="n">
-        <v>81228</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3725,21 +3725,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3749,10 +3749,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395526</v>
+        <v>395479</v>
       </c>
       <c r="R30" t="n">
-        <v>6804768</v>
+        <v>6804588</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3821,7 +3821,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046937</v>
+        <v>131046945</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395433</v>
+        <v>395448</v>
       </c>
       <c r="R31" t="n">
-        <v>6804692</v>
+        <v>6804579</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3928,7 +3928,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046914</v>
+        <v>131046964</v>
       </c>
       <c r="B32" t="n">
         <v>79243</v>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395382</v>
+        <v>395381</v>
       </c>
       <c r="R32" t="n">
-        <v>6804689</v>
+        <v>6804728</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4035,7 +4035,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131046991</v>
+        <v>131046914</v>
       </c>
       <c r="B33" t="n">
         <v>79243</v>
@@ -4070,10 +4070,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>395479</v>
+        <v>395382</v>
       </c>
       <c r="R33" t="n">
-        <v>6804588</v>
+        <v>6804689</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4570,7 +4570,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131046970</v>
+        <v>131046966</v>
       </c>
       <c r="B38" t="n">
         <v>79243</v>
@@ -4605,10 +4605,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>395474</v>
+        <v>395401</v>
       </c>
       <c r="R38" t="n">
-        <v>6804807</v>
+        <v>6804761</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4677,7 +4677,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131046966</v>
+        <v>131046970</v>
       </c>
       <c r="B39" t="n">
         <v>79243</v>
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>395401</v>
+        <v>395474</v>
       </c>
       <c r="R39" t="n">
-        <v>6804761</v>
+        <v>6804807</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4784,7 +4784,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131046919</v>
+        <v>131046935</v>
       </c>
       <c r="B40" t="n">
         <v>79243</v>
@@ -4819,10 +4819,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395363</v>
+        <v>395438</v>
       </c>
       <c r="R40" t="n">
-        <v>6804723</v>
+        <v>6804735</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4998,7 +4998,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131046941</v>
+        <v>131046919</v>
       </c>
       <c r="B42" t="n">
         <v>79243</v>
@@ -5033,10 +5033,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395442</v>
+        <v>395363</v>
       </c>
       <c r="R42" t="n">
-        <v>6804622</v>
+        <v>6804723</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5105,7 +5105,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131046979</v>
+        <v>131046932</v>
       </c>
       <c r="B43" t="n">
         <v>79243</v>
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>395499</v>
+        <v>395455</v>
       </c>
       <c r="R43" t="n">
-        <v>6804721</v>
+        <v>6804767</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5212,7 +5212,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131046918</v>
+        <v>131046936</v>
       </c>
       <c r="B44" t="n">
         <v>79243</v>
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>395369</v>
+        <v>395431</v>
       </c>
       <c r="R44" t="n">
-        <v>6804718</v>
+        <v>6804712</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5319,7 +5319,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131046980</v>
+        <v>131046979</v>
       </c>
       <c r="B45" t="n">
         <v>79243</v>
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395494</v>
+        <v>395499</v>
       </c>
       <c r="R45" t="n">
-        <v>6804716</v>
+        <v>6804721</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5426,7 +5426,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046988</v>
+        <v>131046941</v>
       </c>
       <c r="B46" t="n">
         <v>79243</v>
@@ -5461,10 +5461,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395491</v>
+        <v>395442</v>
       </c>
       <c r="R46" t="n">
-        <v>6804630</v>
+        <v>6804622</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5533,7 +5533,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131046935</v>
+        <v>131046988</v>
       </c>
       <c r="B47" t="n">
         <v>79243</v>
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>395438</v>
+        <v>395491</v>
       </c>
       <c r="R47" t="n">
-        <v>6804735</v>
+        <v>6804630</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5640,7 +5640,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131046932</v>
+        <v>131046918</v>
       </c>
       <c r="B48" t="n">
         <v>79243</v>
@@ -5675,10 +5675,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>395455</v>
+        <v>395369</v>
       </c>
       <c r="R48" t="n">
-        <v>6804767</v>
+        <v>6804718</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5747,7 +5747,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131046936</v>
+        <v>131046980</v>
       </c>
       <c r="B49" t="n">
         <v>79243</v>
@@ -5782,10 +5782,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>395431</v>
+        <v>395494</v>
       </c>
       <c r="R49" t="n">
-        <v>6804712</v>
+        <v>6804716</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5854,7 +5854,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131046967</v>
+        <v>131046982</v>
       </c>
       <c r="B50" t="n">
         <v>79243</v>
@@ -5889,10 +5889,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395410</v>
+        <v>395507</v>
       </c>
       <c r="R50" t="n">
-        <v>6804765</v>
+        <v>6804695</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5961,10 +5961,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131046716</v>
+        <v>131046967</v>
       </c>
       <c r="B51" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5972,21 +5972,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395401</v>
+        <v>395410</v>
       </c>
       <c r="R51" t="n">
-        <v>6804761</v>
+        <v>6804765</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131046982</v>
+        <v>131046959</v>
       </c>
       <c r="B52" t="n">
         <v>79243</v>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395507</v>
+        <v>395420</v>
       </c>
       <c r="R52" t="n">
-        <v>6804695</v>
+        <v>6804656</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6282,10 +6282,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131046959</v>
+        <v>131046716</v>
       </c>
       <c r="B54" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6293,21 +6293,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6317,10 +6317,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>395420</v>
+        <v>395401</v>
       </c>
       <c r="R54" t="n">
-        <v>6804656</v>
+        <v>6804761</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6389,10 +6389,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131046722</v>
+        <v>131046944</v>
       </c>
       <c r="B55" t="n">
-        <v>79275</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6400,21 +6400,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6424,10 +6424,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>395391</v>
+        <v>395449</v>
       </c>
       <c r="R55" t="n">
-        <v>6804603</v>
+        <v>6804589</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6496,7 +6496,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131046925</v>
+        <v>131046924</v>
       </c>
       <c r="B56" t="n">
         <v>79243</v>
@@ -6531,10 +6531,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>395380</v>
+        <v>395373</v>
       </c>
       <c r="R56" t="n">
-        <v>6804774</v>
+        <v>6804784</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6603,7 +6603,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046944</v>
+        <v>131046969</v>
       </c>
       <c r="B57" t="n">
         <v>79243</v>
@@ -6638,10 +6638,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395449</v>
+        <v>395464</v>
       </c>
       <c r="R57" t="n">
-        <v>6804589</v>
+        <v>6804807</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6710,7 +6710,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131046969</v>
+        <v>131046926</v>
       </c>
       <c r="B58" t="n">
         <v>79243</v>
@@ -6745,10 +6745,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395464</v>
+        <v>395395</v>
       </c>
       <c r="R58" t="n">
-        <v>6804807</v>
+        <v>6804786</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6817,7 +6817,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131046924</v>
+        <v>131046925</v>
       </c>
       <c r="B59" t="n">
         <v>79243</v>
@@ -6852,10 +6852,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>395373</v>
+        <v>395380</v>
       </c>
       <c r="R59" t="n">
-        <v>6804784</v>
+        <v>6804774</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6924,10 +6924,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131046926</v>
+        <v>131046722</v>
       </c>
       <c r="B60" t="n">
-        <v>79243</v>
+        <v>79275</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6935,21 +6935,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6959,10 +6959,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>395395</v>
+        <v>395391</v>
       </c>
       <c r="R60" t="n">
-        <v>6804786</v>
+        <v>6804603</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7031,10 +7031,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131046760</v>
+        <v>131046904</v>
       </c>
       <c r="B61" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7042,39 +7042,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>395448</v>
+        <v>395385</v>
       </c>
       <c r="R61" t="n">
-        <v>6804572</v>
+        <v>6804578</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7106,7 +7101,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7116,7 +7111,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7143,7 +7138,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131046939</v>
+        <v>131046983</v>
       </c>
       <c r="B62" t="n">
         <v>79243</v>
@@ -7178,10 +7173,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>395446</v>
+        <v>395515</v>
       </c>
       <c r="R62" t="n">
-        <v>6804659</v>
+        <v>6804694</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7213,7 +7208,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7223,7 +7218,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7250,7 +7245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131046904</v>
+        <v>131046939</v>
       </c>
       <c r="B63" t="n">
         <v>79243</v>
@@ -7285,10 +7280,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395385</v>
+        <v>395446</v>
       </c>
       <c r="R63" t="n">
-        <v>6804578</v>
+        <v>6804659</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7320,7 +7315,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7330,7 +7325,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7357,10 +7352,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131046983</v>
+        <v>131046760</v>
       </c>
       <c r="B64" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7368,34 +7363,39 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395515</v>
+        <v>395448</v>
       </c>
       <c r="R64" t="n">
-        <v>6804694</v>
+        <v>6804572</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7785,10 +7785,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131046717</v>
+        <v>131046917</v>
       </c>
       <c r="B68" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7796,21 +7796,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7820,10 +7820,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>395464</v>
+        <v>395365</v>
       </c>
       <c r="R68" t="n">
-        <v>6804807</v>
+        <v>6804704</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7892,7 +7892,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131046917</v>
+        <v>131046921</v>
       </c>
       <c r="B69" t="n">
         <v>79243</v>
@@ -7927,10 +7927,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395365</v>
+        <v>395357</v>
       </c>
       <c r="R69" t="n">
-        <v>6804704</v>
+        <v>6804752</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -7999,10 +7999,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131046921</v>
+        <v>131047026</v>
       </c>
       <c r="B70" t="n">
-        <v>79243</v>
+        <v>78909</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8010,21 +8010,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8034,10 +8034,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>395357</v>
+        <v>395386</v>
       </c>
       <c r="R70" t="n">
-        <v>6804752</v>
+        <v>6804628</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8106,10 +8106,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131047026</v>
+        <v>131046717</v>
       </c>
       <c r="B71" t="n">
-        <v>78909</v>
+        <v>83223</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8117,21 +8117,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>353</v>
+        <v>6440</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8141,10 +8141,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395386</v>
+        <v>395464</v>
       </c>
       <c r="R71" t="n">
-        <v>6804628</v>
+        <v>6804807</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8213,10 +8213,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131047012</v>
+        <v>131046930</v>
       </c>
       <c r="B72" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8224,29 +8224,24 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P72" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
@@ -8256,7 +8251,7 @@
         <v>395446</v>
       </c>
       <c r="R72" t="n">
-        <v>6804659</v>
+        <v>6804802</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8288,7 +8283,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8298,19 +8293,14 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="AC72" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD72" t="b">
         <v>0</v>
       </c>
       <c r="AE72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG72" t="b">
         <v>0</v>
@@ -8330,7 +8320,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131046916</v>
+        <v>131046923</v>
       </c>
       <c r="B73" t="n">
         <v>79243</v>
@@ -8365,10 +8355,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>395367</v>
+        <v>395364</v>
       </c>
       <c r="R73" t="n">
-        <v>6804698</v>
+        <v>6804764</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8400,7 +8390,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8410,7 +8400,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8437,7 +8427,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131046923</v>
+        <v>131046916</v>
       </c>
       <c r="B74" t="n">
         <v>79243</v>
@@ -8472,10 +8462,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395364</v>
+        <v>395367</v>
       </c>
       <c r="R74" t="n">
-        <v>6804764</v>
+        <v>6804698</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8507,7 +8497,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8517,7 +8507,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8544,7 +8534,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131046930</v>
+        <v>131046933</v>
       </c>
       <c r="B75" t="n">
         <v>79243</v>
@@ -8579,10 +8569,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395446</v>
+        <v>395458</v>
       </c>
       <c r="R75" t="n">
-        <v>6804802</v>
+        <v>6804762</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8614,7 +8604,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8624,7 +8614,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8651,10 +8641,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131046933</v>
+        <v>131047012</v>
       </c>
       <c r="B76" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8662,34 +8652,39 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>395458</v>
+        <v>395446</v>
       </c>
       <c r="R76" t="n">
-        <v>6804762</v>
+        <v>6804659</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8721,7 +8716,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -8731,14 +8726,19 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
       <c r="AE76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG76" t="b">
         <v>0</v>
@@ -8758,7 +8758,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131046958</v>
+        <v>131046913</v>
       </c>
       <c r="B77" t="n">
         <v>79243</v>
@@ -8793,10 +8793,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>395430</v>
+        <v>395387</v>
       </c>
       <c r="R77" t="n">
-        <v>6804615</v>
+        <v>6804675</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -8865,7 +8865,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131046911</v>
+        <v>131046958</v>
       </c>
       <c r="B78" t="n">
         <v>79243</v>
@@ -8900,10 +8900,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>395395</v>
+        <v>395430</v>
       </c>
       <c r="R78" t="n">
-        <v>6804651</v>
+        <v>6804615</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -8972,7 +8972,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131046913</v>
+        <v>131046911</v>
       </c>
       <c r="B79" t="n">
         <v>79243</v>
@@ -9007,10 +9007,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>395387</v>
+        <v>395395</v>
       </c>
       <c r="R79" t="n">
-        <v>6804675</v>
+        <v>6804651</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9186,7 +9186,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131047001</v>
+        <v>131046962</v>
       </c>
       <c r="B81" t="n">
         <v>79243</v>
@@ -9221,10 +9221,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395505</v>
+        <v>395389</v>
       </c>
       <c r="R81" t="n">
-        <v>6804590</v>
+        <v>6804711</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9293,7 +9293,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131046976</v>
+        <v>131047001</v>
       </c>
       <c r="B82" t="n">
         <v>79243</v>
@@ -9328,10 +9328,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>395525</v>
+        <v>395505</v>
       </c>
       <c r="R82" t="n">
-        <v>6804757</v>
+        <v>6804590</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9363,7 +9363,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -9373,7 +9373,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9400,7 +9400,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131046931</v>
+        <v>131046929</v>
       </c>
       <c r="B83" t="n">
         <v>79243</v>
@@ -9435,10 +9435,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>395443</v>
+        <v>395420</v>
       </c>
       <c r="R83" t="n">
-        <v>6804778</v>
+        <v>6804798</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9470,7 +9470,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9480,7 +9480,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9507,7 +9507,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131046929</v>
+        <v>131046976</v>
       </c>
       <c r="B84" t="n">
         <v>79243</v>
@@ -9542,10 +9542,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>395420</v>
+        <v>395525</v>
       </c>
       <c r="R84" t="n">
-        <v>6804798</v>
+        <v>6804757</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -9587,7 +9587,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9614,7 +9614,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131046962</v>
+        <v>131046931</v>
       </c>
       <c r="B85" t="n">
         <v>79243</v>
@@ -9649,10 +9649,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>395389</v>
+        <v>395443</v>
       </c>
       <c r="R85" t="n">
-        <v>6804711</v>
+        <v>6804778</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10179,10 +10179,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131046804</v>
+        <v>131046990</v>
       </c>
       <c r="B90" t="n">
-        <v>79000</v>
+        <v>79243</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10190,21 +10190,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10214,10 +10214,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>395367</v>
+        <v>395474</v>
       </c>
       <c r="R90" t="n">
-        <v>6804754</v>
+        <v>6804600</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -10259,7 +10259,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10286,10 +10286,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131046791</v>
+        <v>131046984</v>
       </c>
       <c r="B91" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10297,39 +10297,34 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P91" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>395362</v>
+        <v>395531</v>
       </c>
       <c r="R91" t="n">
-        <v>6804701</v>
+        <v>6804688</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10361,7 +10356,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10371,12 +10366,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>11:10</t>
-        </is>
-      </c>
-      <c r="AC91" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10403,10 +10393,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046778</v>
+        <v>131046804</v>
       </c>
       <c r="B92" t="n">
-        <v>57884</v>
+        <v>79000</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10414,39 +10404,34 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>100109</v>
+        <v>6446</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P92" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395366</v>
+        <v>395367</v>
       </c>
       <c r="R92" t="n">
-        <v>6804690</v>
+        <v>6804754</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10478,7 +10463,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10488,12 +10473,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>11:09</t>
-        </is>
-      </c>
-      <c r="AC92" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10520,10 +10500,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046990</v>
+        <v>131046718</v>
       </c>
       <c r="B93" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10531,21 +10511,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10555,10 +10535,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395474</v>
+        <v>395471</v>
       </c>
       <c r="R93" t="n">
-        <v>6804600</v>
+        <v>6804595</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10590,7 +10570,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10600,7 +10580,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10627,10 +10607,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046718</v>
+        <v>131046791</v>
       </c>
       <c r="B94" t="n">
-        <v>83223</v>
+        <v>57884</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10638,34 +10618,39 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P94" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395471</v>
+        <v>395362</v>
       </c>
       <c r="R94" t="n">
-        <v>6804595</v>
+        <v>6804701</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10697,7 +10682,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10707,7 +10692,12 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="AC94" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10734,10 +10724,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131046984</v>
+        <v>131046778</v>
       </c>
       <c r="B95" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10745,34 +10735,39 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P95" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>395531</v>
+        <v>395366</v>
       </c>
       <c r="R95" t="n">
-        <v>6804688</v>
+        <v>6804690</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10804,7 +10799,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -10814,7 +10809,12 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:09</t>
+        </is>
+      </c>
+      <c r="AC95" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10841,32 +10841,32 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131046794</v>
+        <v>131046912</v>
       </c>
       <c r="B96" t="n">
-        <v>57076</v>
+        <v>79243</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>102613</v>
+        <v>6425</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10876,10 +10876,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>395383</v>
+        <v>395382</v>
       </c>
       <c r="R96" t="n">
-        <v>6804574</v>
+        <v>6804661</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10948,10 +10948,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131046797</v>
+        <v>131046906</v>
       </c>
       <c r="B97" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10959,21 +10959,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -10983,10 +10983,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395367</v>
+        <v>395395</v>
       </c>
       <c r="R97" t="n">
-        <v>6804754</v>
+        <v>6804604</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11018,7 +11018,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11055,7 +11055,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131046912</v>
+        <v>131046928</v>
       </c>
       <c r="B98" t="n">
         <v>79243</v>
@@ -11090,10 +11090,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395382</v>
+        <v>395417</v>
       </c>
       <c r="R98" t="n">
-        <v>6804661</v>
+        <v>6804797</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11162,7 +11162,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131046928</v>
+        <v>131046975</v>
       </c>
       <c r="B99" t="n">
         <v>79243</v>
@@ -11197,10 +11197,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395417</v>
+        <v>395535</v>
       </c>
       <c r="R99" t="n">
-        <v>6804797</v>
+        <v>6804771</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11232,7 +11232,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11242,7 +11242,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11269,7 +11269,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131046906</v>
+        <v>131046985</v>
       </c>
       <c r="B100" t="n">
         <v>79243</v>
@@ -11304,10 +11304,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395395</v>
+        <v>395531</v>
       </c>
       <c r="R100" t="n">
-        <v>6804604</v>
+        <v>6804664</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11483,32 +11483,32 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131046975</v>
+        <v>131046794</v>
       </c>
       <c r="B102" t="n">
-        <v>79243</v>
+        <v>57076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6425</v>
+        <v>102613</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395535</v>
+        <v>395383</v>
       </c>
       <c r="R102" t="n">
-        <v>6804771</v>
+        <v>6804574</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11590,10 +11590,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>131046985</v>
+        <v>131046797</v>
       </c>
       <c r="B103" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11601,21 +11601,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11625,10 +11625,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>395531</v>
+        <v>395367</v>
       </c>
       <c r="R103" t="n">
-        <v>6804664</v>
+        <v>6804754</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11660,7 +11660,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD103" t="b">

--- a/artfynd/A 58063-2025 artfynd.xlsx
+++ b/artfynd/A 58063-2025 artfynd.xlsx
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046977</v>
+        <v>131046971</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395528</v>
+        <v>395487</v>
       </c>
       <c r="R3" t="n">
-        <v>6804736</v>
+        <v>6804812</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,7 +894,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046942</v>
+        <v>131046915</v>
       </c>
       <c r="B4" t="n">
         <v>79243</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395445</v>
+        <v>395373</v>
       </c>
       <c r="R4" t="n">
-        <v>6804607</v>
+        <v>6804690</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1001,7 +1001,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046971</v>
+        <v>131046977</v>
       </c>
       <c r="B5" t="n">
         <v>79243</v>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395487</v>
+        <v>395528</v>
       </c>
       <c r="R5" t="n">
-        <v>6804812</v>
+        <v>6804736</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046915</v>
+        <v>131046942</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395373</v>
+        <v>395445</v>
       </c>
       <c r="R6" t="n">
-        <v>6804690</v>
+        <v>6804607</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1750,10 +1750,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046758</v>
+        <v>131046938</v>
       </c>
       <c r="B12" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1761,39 +1761,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395526</v>
+        <v>395437</v>
       </c>
       <c r="R12" t="n">
-        <v>6804768</v>
+        <v>6804676</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1825,7 +1820,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1835,7 +1830,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1862,10 +1857,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046938</v>
+        <v>131046758</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1873,34 +1868,39 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395437</v>
+        <v>395526</v>
       </c>
       <c r="R13" t="n">
-        <v>6804676</v>
+        <v>6804768</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2089,10 +2089,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046800</v>
+        <v>131047000</v>
       </c>
       <c r="B15" t="n">
-        <v>81228</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2100,21 +2100,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395387</v>
+        <v>395494</v>
       </c>
       <c r="R15" t="n">
-        <v>6804626</v>
+        <v>6804583</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2196,7 +2196,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131047000</v>
+        <v>131046986</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395494</v>
+        <v>395520</v>
       </c>
       <c r="R16" t="n">
-        <v>6804583</v>
+        <v>6804657</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2303,7 +2303,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131046986</v>
+        <v>131046907</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2338,10 +2338,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395520</v>
+        <v>395411</v>
       </c>
       <c r="R17" t="n">
-        <v>6804657</v>
+        <v>6804605</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2410,7 +2410,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046907</v>
+        <v>131047002</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395411</v>
+        <v>395503</v>
       </c>
       <c r="R18" t="n">
-        <v>6804605</v>
+        <v>6804603</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2624,10 +2624,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131047002</v>
+        <v>131046800</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>81228</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2635,21 +2635,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2659,10 +2659,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395503</v>
+        <v>395387</v>
       </c>
       <c r="R20" t="n">
-        <v>6804603</v>
+        <v>6804626</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2731,10 +2731,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131046963</v>
+        <v>131047027</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>78909</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2742,21 +2742,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2766,10 +2766,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395386</v>
+        <v>395391</v>
       </c>
       <c r="R21" t="n">
-        <v>6804723</v>
+        <v>6804697</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2838,10 +2838,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131046972</v>
+        <v>131046714</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2849,21 +2849,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395524</v>
+        <v>395419</v>
       </c>
       <c r="R22" t="n">
-        <v>6804798</v>
+        <v>6804801</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2945,10 +2945,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131047027</v>
+        <v>131046972</v>
       </c>
       <c r="B23" t="n">
-        <v>78909</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2956,21 +2956,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2980,10 +2980,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395391</v>
+        <v>395524</v>
       </c>
       <c r="R23" t="n">
-        <v>6804697</v>
+        <v>6804798</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3052,7 +3052,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131047020</v>
+        <v>131046792</v>
       </c>
       <c r="B24" t="n">
         <v>57884</v>
@@ -3092,10 +3092,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395541</v>
+        <v>395357</v>
       </c>
       <c r="R24" t="n">
-        <v>6804800</v>
+        <v>6804769</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3137,19 +3137,19 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="b">
         <v>0</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131046792</v>
+        <v>131047020</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -3209,10 +3209,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395357</v>
+        <v>395541</v>
       </c>
       <c r="R25" t="n">
-        <v>6804769</v>
+        <v>6804800</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3254,19 +3254,19 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Färska ringhack (gran)</t>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25" t="b">
         <v>0</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131046922</v>
+        <v>131046963</v>
       </c>
       <c r="B26" t="n">
         <v>79243</v>
@@ -3321,10 +3321,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395365</v>
+        <v>395386</v>
       </c>
       <c r="R26" t="n">
-        <v>6804755</v>
+        <v>6804723</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3393,10 +3393,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131046714</v>
+        <v>131046922</v>
       </c>
       <c r="B27" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3404,21 +3404,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3428,10 +3428,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>395419</v>
+        <v>395365</v>
       </c>
       <c r="R27" t="n">
-        <v>6804801</v>
+        <v>6804755</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4142,10 +4142,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131046987</v>
+        <v>131046725</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>79275</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4153,21 +4153,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>395501</v>
+        <v>395392</v>
       </c>
       <c r="R34" t="n">
-        <v>6804647</v>
+        <v>6804595</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4249,10 +4249,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131046725</v>
+        <v>131046987</v>
       </c>
       <c r="B35" t="n">
-        <v>79275</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4260,21 +4260,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4284,10 +4284,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>395392</v>
+        <v>395501</v>
       </c>
       <c r="R35" t="n">
-        <v>6804595</v>
+        <v>6804647</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5854,7 +5854,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131046982</v>
+        <v>131046967</v>
       </c>
       <c r="B50" t="n">
         <v>79243</v>
@@ -5889,10 +5889,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395507</v>
+        <v>395410</v>
       </c>
       <c r="R50" t="n">
-        <v>6804695</v>
+        <v>6804765</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5961,7 +5961,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131046967</v>
+        <v>131046959</v>
       </c>
       <c r="B51" t="n">
         <v>79243</v>
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395410</v>
+        <v>395420</v>
       </c>
       <c r="R51" t="n">
-        <v>6804765</v>
+        <v>6804656</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6068,7 +6068,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131046959</v>
+        <v>131046960</v>
       </c>
       <c r="B52" t="n">
         <v>79243</v>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395420</v>
+        <v>395414</v>
       </c>
       <c r="R52" t="n">
-        <v>6804656</v>
+        <v>6804670</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6175,7 +6175,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131046960</v>
+        <v>131046982</v>
       </c>
       <c r="B53" t="n">
         <v>79243</v>
@@ -6210,10 +6210,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>395414</v>
+        <v>395507</v>
       </c>
       <c r="R53" t="n">
-        <v>6804670</v>
+        <v>6804695</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6389,10 +6389,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131046944</v>
+        <v>131046722</v>
       </c>
       <c r="B55" t="n">
-        <v>79243</v>
+        <v>79275</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6400,21 +6400,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6424,10 +6424,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>395449</v>
+        <v>395391</v>
       </c>
       <c r="R55" t="n">
-        <v>6804589</v>
+        <v>6804603</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6496,7 +6496,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131046924</v>
+        <v>131046944</v>
       </c>
       <c r="B56" t="n">
         <v>79243</v>
@@ -6531,10 +6531,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>395373</v>
+        <v>395449</v>
       </c>
       <c r="R56" t="n">
-        <v>6804784</v>
+        <v>6804589</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6603,7 +6603,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046969</v>
+        <v>131046924</v>
       </c>
       <c r="B57" t="n">
         <v>79243</v>
@@ -6638,10 +6638,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395464</v>
+        <v>395373</v>
       </c>
       <c r="R57" t="n">
-        <v>6804807</v>
+        <v>6804784</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6710,7 +6710,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131046926</v>
+        <v>131046969</v>
       </c>
       <c r="B58" t="n">
         <v>79243</v>
@@ -6745,10 +6745,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395395</v>
+        <v>395464</v>
       </c>
       <c r="R58" t="n">
-        <v>6804786</v>
+        <v>6804807</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6817,7 +6817,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131046925</v>
+        <v>131046926</v>
       </c>
       <c r="B59" t="n">
         <v>79243</v>
@@ -6852,10 +6852,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>395380</v>
+        <v>395395</v>
       </c>
       <c r="R59" t="n">
-        <v>6804774</v>
+        <v>6804786</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6924,10 +6924,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131046722</v>
+        <v>131046925</v>
       </c>
       <c r="B60" t="n">
-        <v>79275</v>
+        <v>79243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6935,21 +6935,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6959,10 +6959,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>395391</v>
+        <v>395380</v>
       </c>
       <c r="R60" t="n">
-        <v>6804603</v>
+        <v>6804774</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7138,10 +7138,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131046983</v>
+        <v>131046760</v>
       </c>
       <c r="B62" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7149,34 +7149,39 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>395515</v>
+        <v>395448</v>
       </c>
       <c r="R62" t="n">
-        <v>6804694</v>
+        <v>6804572</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7208,7 +7213,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7218,7 +7223,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7245,7 +7250,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131046939</v>
+        <v>131046983</v>
       </c>
       <c r="B63" t="n">
         <v>79243</v>
@@ -7280,10 +7285,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395446</v>
+        <v>395515</v>
       </c>
       <c r="R63" t="n">
-        <v>6804659</v>
+        <v>6804694</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7315,7 +7320,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7325,7 +7330,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7352,10 +7357,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131046760</v>
+        <v>131046939</v>
       </c>
       <c r="B64" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7363,39 +7368,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395448</v>
+        <v>395446</v>
       </c>
       <c r="R64" t="n">
-        <v>6804572</v>
+        <v>6804659</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7464,10 +7464,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131046961</v>
+        <v>131046723</v>
       </c>
       <c r="B65" t="n">
-        <v>79243</v>
+        <v>79275</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7475,21 +7475,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7499,10 +7499,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>395403</v>
+        <v>395447</v>
       </c>
       <c r="R65" t="n">
-        <v>6804693</v>
+        <v>6804620</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7571,10 +7571,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131046723</v>
+        <v>131046961</v>
       </c>
       <c r="B66" t="n">
-        <v>79275</v>
+        <v>79243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7582,21 +7582,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7606,10 +7606,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>395447</v>
+        <v>395403</v>
       </c>
       <c r="R66" t="n">
-        <v>6804620</v>
+        <v>6804693</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7785,10 +7785,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131046917</v>
+        <v>131046717</v>
       </c>
       <c r="B68" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7796,21 +7796,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7820,10 +7820,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>395365</v>
+        <v>395464</v>
       </c>
       <c r="R68" t="n">
-        <v>6804704</v>
+        <v>6804807</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7892,10 +7892,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131046921</v>
+        <v>131047026</v>
       </c>
       <c r="B69" t="n">
-        <v>79243</v>
+        <v>78909</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7903,21 +7903,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7927,10 +7927,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395357</v>
+        <v>395386</v>
       </c>
       <c r="R69" t="n">
-        <v>6804752</v>
+        <v>6804628</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -7999,10 +7999,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131047026</v>
+        <v>131046917</v>
       </c>
       <c r="B70" t="n">
-        <v>78909</v>
+        <v>79243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8010,21 +8010,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8034,10 +8034,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>395386</v>
+        <v>395365</v>
       </c>
       <c r="R70" t="n">
-        <v>6804628</v>
+        <v>6804704</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8106,10 +8106,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131046717</v>
+        <v>131046921</v>
       </c>
       <c r="B71" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8117,21 +8117,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8141,10 +8141,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395464</v>
+        <v>395357</v>
       </c>
       <c r="R71" t="n">
-        <v>6804807</v>
+        <v>6804752</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8213,7 +8213,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131046930</v>
+        <v>131046923</v>
       </c>
       <c r="B72" t="n">
         <v>79243</v>
@@ -8248,10 +8248,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>395446</v>
+        <v>395364</v>
       </c>
       <c r="R72" t="n">
-        <v>6804802</v>
+        <v>6804764</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8293,7 +8293,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8320,7 +8320,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131046923</v>
+        <v>131046916</v>
       </c>
       <c r="B73" t="n">
         <v>79243</v>
@@ -8355,10 +8355,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>395364</v>
+        <v>395367</v>
       </c>
       <c r="R73" t="n">
-        <v>6804764</v>
+        <v>6804698</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8390,7 +8390,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8400,7 +8400,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8427,7 +8427,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131046916</v>
+        <v>131046933</v>
       </c>
       <c r="B74" t="n">
         <v>79243</v>
@@ -8462,10 +8462,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395367</v>
+        <v>395458</v>
       </c>
       <c r="R74" t="n">
-        <v>6804698</v>
+        <v>6804762</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8497,7 +8497,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8534,7 +8534,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131046933</v>
+        <v>131046930</v>
       </c>
       <c r="B75" t="n">
         <v>79243</v>
@@ -8569,10 +8569,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395458</v>
+        <v>395446</v>
       </c>
       <c r="R75" t="n">
-        <v>6804762</v>
+        <v>6804802</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8604,7 +8604,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8614,7 +8614,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9079,10 +9079,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131046905</v>
+        <v>131046781</v>
       </c>
       <c r="B80" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9090,34 +9090,39 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P80" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>395392</v>
+        <v>395473</v>
       </c>
       <c r="R80" t="n">
-        <v>6804583</v>
+        <v>6804805</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9149,7 +9154,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -9159,7 +9164,12 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9186,7 +9196,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131046962</v>
+        <v>131046905</v>
       </c>
       <c r="B81" t="n">
         <v>79243</v>
@@ -9221,10 +9231,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395389</v>
+        <v>395392</v>
       </c>
       <c r="R81" t="n">
-        <v>6804711</v>
+        <v>6804583</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9256,7 +9266,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -9266,7 +9276,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9721,10 +9731,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131046781</v>
+        <v>131046962</v>
       </c>
       <c r="B86" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9732,39 +9742,34 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P86" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>395473</v>
+        <v>395389</v>
       </c>
       <c r="R86" t="n">
-        <v>6804805</v>
+        <v>6804711</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9796,7 +9801,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -9806,12 +9811,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>11:58</t>
-        </is>
-      </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9945,7 +9945,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131046793</v>
+        <v>131046779</v>
       </c>
       <c r="B88" t="n">
         <v>57884</v>
@@ -9976,7 +9976,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -9985,10 +9985,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>395448</v>
+        <v>395369</v>
       </c>
       <c r="R88" t="n">
-        <v>6804583</v>
+        <v>6804718</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10020,7 +10020,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10030,12 +10030,12 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
-          <t>Färska ringhack (gran)</t>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10062,7 +10062,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131046779</v>
+        <v>131046793</v>
       </c>
       <c r="B89" t="n">
         <v>57884</v>
@@ -10093,7 +10093,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -10102,10 +10102,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>395369</v>
+        <v>395448</v>
       </c>
       <c r="R89" t="n">
-        <v>6804718</v>
+        <v>6804583</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10147,12 +10147,12 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10393,10 +10393,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046804</v>
+        <v>131046778</v>
       </c>
       <c r="B92" t="n">
-        <v>79000</v>
+        <v>57884</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10404,34 +10404,39 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6446</v>
+        <v>100109</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P92" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395367</v>
+        <v>395366</v>
       </c>
       <c r="R92" t="n">
-        <v>6804754</v>
+        <v>6804690</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10463,7 +10468,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10473,7 +10478,12 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>11:09</t>
+        </is>
+      </c>
+      <c r="AC92" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10500,10 +10510,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046718</v>
+        <v>131046791</v>
       </c>
       <c r="B93" t="n">
-        <v>83223</v>
+        <v>57884</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10511,34 +10521,39 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P93" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395471</v>
+        <v>395362</v>
       </c>
       <c r="R93" t="n">
-        <v>6804595</v>
+        <v>6804701</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10570,7 +10585,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10580,7 +10595,12 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="AC93" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10607,10 +10627,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046791</v>
+        <v>131046804</v>
       </c>
       <c r="B94" t="n">
-        <v>57884</v>
+        <v>79000</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10618,39 +10638,34 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>100109</v>
+        <v>6446</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P94" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395362</v>
+        <v>395367</v>
       </c>
       <c r="R94" t="n">
-        <v>6804701</v>
+        <v>6804754</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10682,7 +10697,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10692,12 +10707,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>11:10</t>
-        </is>
-      </c>
-      <c r="AC94" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10724,10 +10734,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131046778</v>
+        <v>131046718</v>
       </c>
       <c r="B95" t="n">
-        <v>57884</v>
+        <v>83223</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10735,39 +10745,34 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P95" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>395366</v>
+        <v>395471</v>
       </c>
       <c r="R95" t="n">
-        <v>6804690</v>
+        <v>6804595</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10799,7 +10804,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -10809,12 +10814,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>11:09</t>
-        </is>
-      </c>
-      <c r="AC95" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10841,10 +10841,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131046912</v>
+        <v>131046715</v>
       </c>
       <c r="B96" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10852,21 +10852,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10876,10 +10876,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>395382</v>
+        <v>395445</v>
       </c>
       <c r="R96" t="n">
-        <v>6804661</v>
+        <v>6804803</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10948,7 +10948,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131046906</v>
+        <v>131046928</v>
       </c>
       <c r="B97" t="n">
         <v>79243</v>
@@ -10983,10 +10983,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395395</v>
+        <v>395417</v>
       </c>
       <c r="R97" t="n">
-        <v>6804604</v>
+        <v>6804797</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11018,7 +11018,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11055,32 +11055,32 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131046928</v>
+        <v>131046794</v>
       </c>
       <c r="B98" t="n">
-        <v>79243</v>
+        <v>57076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6425</v>
+        <v>102613</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11090,10 +11090,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395417</v>
+        <v>395383</v>
       </c>
       <c r="R98" t="n">
-        <v>6804797</v>
+        <v>6804574</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11162,7 +11162,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131046975</v>
+        <v>131046912</v>
       </c>
       <c r="B99" t="n">
         <v>79243</v>
@@ -11197,10 +11197,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395535</v>
+        <v>395382</v>
       </c>
       <c r="R99" t="n">
-        <v>6804771</v>
+        <v>6804661</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11232,7 +11232,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11242,7 +11242,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11269,7 +11269,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131046985</v>
+        <v>131046906</v>
       </c>
       <c r="B100" t="n">
         <v>79243</v>
@@ -11304,10 +11304,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395531</v>
+        <v>395395</v>
       </c>
       <c r="R100" t="n">
-        <v>6804664</v>
+        <v>6804604</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11376,10 +11376,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131046715</v>
+        <v>131046975</v>
       </c>
       <c r="B101" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11387,21 +11387,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11411,10 +11411,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395445</v>
+        <v>395535</v>
       </c>
       <c r="R101" t="n">
-        <v>6804803</v>
+        <v>6804771</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11483,32 +11483,32 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131046794</v>
+        <v>131046985</v>
       </c>
       <c r="B102" t="n">
-        <v>57076</v>
+        <v>79243</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>102613</v>
+        <v>6425</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395383</v>
+        <v>395531</v>
       </c>
       <c r="R102" t="n">
-        <v>6804574</v>
+        <v>6804664</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD102" t="b">

--- a/artfynd/A 58063-2025 artfynd.xlsx
+++ b/artfynd/A 58063-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046989</v>
+        <v>131046977</v>
       </c>
       <c r="B2" t="n">
         <v>79243</v>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395484</v>
+        <v>395528</v>
       </c>
       <c r="R2" t="n">
-        <v>6804617</v>
+        <v>6804736</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -1001,7 +1001,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046977</v>
+        <v>131046942</v>
       </c>
       <c r="B5" t="n">
         <v>79243</v>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395528</v>
+        <v>395445</v>
       </c>
       <c r="R5" t="n">
-        <v>6804736</v>
+        <v>6804607</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046942</v>
+        <v>131046989</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395445</v>
+        <v>395484</v>
       </c>
       <c r="R6" t="n">
-        <v>6804607</v>
+        <v>6804617</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1215,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046927</v>
+        <v>131046767</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1226,34 +1226,42 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395404</v>
+        <v>395395</v>
       </c>
       <c r="R7" t="n">
-        <v>6804786</v>
+        <v>6804584</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1285,7 +1293,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1295,7 +1303,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1322,10 +1335,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046940</v>
+        <v>131046758</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1333,34 +1346,39 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395441</v>
+        <v>395526</v>
       </c>
       <c r="R8" t="n">
-        <v>6804637</v>
+        <v>6804768</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1392,7 +1410,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1402,7 +1420,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1857,10 +1875,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046758</v>
+        <v>131046940</v>
       </c>
       <c r="B13" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1868,39 +1886,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395526</v>
+        <v>395441</v>
       </c>
       <c r="R13" t="n">
-        <v>6804768</v>
+        <v>6804637</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1932,7 +1945,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1942,7 +1955,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1969,10 +1982,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046767</v>
+        <v>131046927</v>
       </c>
       <c r="B14" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1980,42 +1993,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395395</v>
+        <v>395404</v>
       </c>
       <c r="R14" t="n">
-        <v>6804584</v>
+        <v>6804786</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2047,7 +2052,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2057,12 +2062,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>10:44</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2303,7 +2303,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131046907</v>
+        <v>131047002</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2338,10 +2338,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395411</v>
+        <v>395503</v>
       </c>
       <c r="R17" t="n">
-        <v>6804605</v>
+        <v>6804603</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2410,7 +2410,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131047002</v>
+        <v>131046968</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395503</v>
+        <v>395412</v>
       </c>
       <c r="R18" t="n">
-        <v>6804603</v>
+        <v>6804755</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2517,10 +2517,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131046968</v>
+        <v>131046800</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>81228</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2528,21 +2528,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395412</v>
+        <v>395387</v>
       </c>
       <c r="R19" t="n">
-        <v>6804755</v>
+        <v>6804626</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2624,10 +2624,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131046800</v>
+        <v>131046907</v>
       </c>
       <c r="B20" t="n">
-        <v>81228</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2635,21 +2635,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2659,10 +2659,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395387</v>
+        <v>395411</v>
       </c>
       <c r="R20" t="n">
-        <v>6804626</v>
+        <v>6804605</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2731,10 +2731,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131047027</v>
+        <v>131046792</v>
       </c>
       <c r="B21" t="n">
-        <v>78909</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2742,34 +2742,39 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>353</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395391</v>
+        <v>395357</v>
       </c>
       <c r="R21" t="n">
-        <v>6804697</v>
+        <v>6804769</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2801,7 +2806,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2811,7 +2816,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:22</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2838,10 +2848,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131046714</v>
+        <v>131047020</v>
       </c>
       <c r="B22" t="n">
-        <v>83223</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2849,34 +2859,39 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395419</v>
+        <v>395541</v>
       </c>
       <c r="R22" t="n">
-        <v>6804801</v>
+        <v>6804800</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2908,7 +2923,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2918,14 +2933,19 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22" t="b">
         <v>0</v>
@@ -2945,7 +2965,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131046972</v>
+        <v>131046963</v>
       </c>
       <c r="B23" t="n">
         <v>79243</v>
@@ -2980,10 +3000,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395524</v>
+        <v>395386</v>
       </c>
       <c r="R23" t="n">
-        <v>6804798</v>
+        <v>6804723</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3015,7 +3035,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3025,7 +3045,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3052,10 +3072,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131046792</v>
+        <v>131046972</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3063,39 +3083,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395357</v>
+        <v>395524</v>
       </c>
       <c r="R24" t="n">
-        <v>6804769</v>
+        <v>6804798</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3127,7 +3142,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3137,12 +3152,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:22</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3169,10 +3179,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131047020</v>
+        <v>131047027</v>
       </c>
       <c r="B25" t="n">
-        <v>57884</v>
+        <v>78909</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3180,39 +3190,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>353</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395541</v>
+        <v>395391</v>
       </c>
       <c r="R25" t="n">
-        <v>6804800</v>
+        <v>6804697</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3244,7 +3249,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3254,19 +3259,14 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:04</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="b">
         <v>0</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131046963</v>
+        <v>131046922</v>
       </c>
       <c r="B26" t="n">
         <v>79243</v>
@@ -3321,10 +3321,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395386</v>
+        <v>395365</v>
       </c>
       <c r="R26" t="n">
-        <v>6804723</v>
+        <v>6804755</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3393,10 +3393,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131046922</v>
+        <v>131046714</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3404,21 +3404,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3428,10 +3428,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>395365</v>
+        <v>395419</v>
       </c>
       <c r="R27" t="n">
-        <v>6804755</v>
+        <v>6804801</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3500,10 +3500,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131046801</v>
+        <v>131046937</v>
       </c>
       <c r="B28" t="n">
-        <v>81228</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3511,21 +3511,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3535,10 +3535,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>395526</v>
+        <v>395433</v>
       </c>
       <c r="R28" t="n">
-        <v>6804768</v>
+        <v>6804692</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3607,7 +3607,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131046937</v>
+        <v>131046991</v>
       </c>
       <c r="B29" t="n">
         <v>79243</v>
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>395433</v>
+        <v>395479</v>
       </c>
       <c r="R29" t="n">
-        <v>6804692</v>
+        <v>6804588</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3714,7 +3714,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046991</v>
+        <v>131046945</v>
       </c>
       <c r="B30" t="n">
         <v>79243</v>
@@ -3749,10 +3749,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395479</v>
+        <v>395448</v>
       </c>
       <c r="R30" t="n">
-        <v>6804588</v>
+        <v>6804579</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3821,7 +3821,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046945</v>
+        <v>131046964</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395448</v>
+        <v>395381</v>
       </c>
       <c r="R31" t="n">
-        <v>6804579</v>
+        <v>6804728</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3928,7 +3928,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046964</v>
+        <v>131046914</v>
       </c>
       <c r="B32" t="n">
         <v>79243</v>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395381</v>
+        <v>395382</v>
       </c>
       <c r="R32" t="n">
-        <v>6804728</v>
+        <v>6804689</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4035,10 +4035,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131046914</v>
+        <v>131046801</v>
       </c>
       <c r="B33" t="n">
-        <v>79243</v>
+        <v>81228</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4046,21 +4046,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4070,10 +4070,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>395382</v>
+        <v>395526</v>
       </c>
       <c r="R33" t="n">
-        <v>6804689</v>
+        <v>6804768</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4142,10 +4142,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131046725</v>
+        <v>131046987</v>
       </c>
       <c r="B34" t="n">
-        <v>79275</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4153,21 +4153,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>395392</v>
+        <v>395501</v>
       </c>
       <c r="R34" t="n">
-        <v>6804595</v>
+        <v>6804647</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4249,10 +4249,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131046987</v>
+        <v>131046725</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>79275</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4260,21 +4260,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4284,10 +4284,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>395501</v>
+        <v>395392</v>
       </c>
       <c r="R35" t="n">
-        <v>6804647</v>
+        <v>6804595</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4356,7 +4356,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131046934</v>
+        <v>131046981</v>
       </c>
       <c r="B36" t="n">
         <v>79243</v>
@@ -4391,10 +4391,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>395456</v>
+        <v>395501</v>
       </c>
       <c r="R36" t="n">
-        <v>6804752</v>
+        <v>6804703</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4463,7 +4463,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131046981</v>
+        <v>131046934</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -4498,10 +4498,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>395501</v>
+        <v>395456</v>
       </c>
       <c r="R37" t="n">
-        <v>6804703</v>
+        <v>6804752</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4570,7 +4570,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131046966</v>
+        <v>131046970</v>
       </c>
       <c r="B38" t="n">
         <v>79243</v>
@@ -4605,10 +4605,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>395401</v>
+        <v>395474</v>
       </c>
       <c r="R38" t="n">
-        <v>6804761</v>
+        <v>6804807</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4677,7 +4677,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131046970</v>
+        <v>131046966</v>
       </c>
       <c r="B39" t="n">
         <v>79243</v>
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>395474</v>
+        <v>395401</v>
       </c>
       <c r="R39" t="n">
-        <v>6804807</v>
+        <v>6804761</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5319,7 +5319,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131046979</v>
+        <v>131046941</v>
       </c>
       <c r="B45" t="n">
         <v>79243</v>
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395499</v>
+        <v>395442</v>
       </c>
       <c r="R45" t="n">
-        <v>6804721</v>
+        <v>6804622</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5426,7 +5426,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046941</v>
+        <v>131046988</v>
       </c>
       <c r="B46" t="n">
         <v>79243</v>
@@ -5461,10 +5461,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395442</v>
+        <v>395491</v>
       </c>
       <c r="R46" t="n">
-        <v>6804622</v>
+        <v>6804630</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5533,7 +5533,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131046988</v>
+        <v>131046918</v>
       </c>
       <c r="B47" t="n">
         <v>79243</v>
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>395491</v>
+        <v>395369</v>
       </c>
       <c r="R47" t="n">
-        <v>6804630</v>
+        <v>6804718</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5640,7 +5640,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131046918</v>
+        <v>131046980</v>
       </c>
       <c r="B48" t="n">
         <v>79243</v>
@@ -5675,10 +5675,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>395369</v>
+        <v>395494</v>
       </c>
       <c r="R48" t="n">
-        <v>6804718</v>
+        <v>6804716</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5747,7 +5747,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131046980</v>
+        <v>131046979</v>
       </c>
       <c r="B49" t="n">
         <v>79243</v>
@@ -5782,10 +5782,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>395494</v>
+        <v>395499</v>
       </c>
       <c r="R49" t="n">
-        <v>6804716</v>
+        <v>6804721</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5854,7 +5854,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131046967</v>
+        <v>131046960</v>
       </c>
       <c r="B50" t="n">
         <v>79243</v>
@@ -5889,10 +5889,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395410</v>
+        <v>395414</v>
       </c>
       <c r="R50" t="n">
-        <v>6804765</v>
+        <v>6804670</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5961,10 +5961,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131046959</v>
+        <v>131046716</v>
       </c>
       <c r="B51" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5972,21 +5972,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395420</v>
+        <v>395401</v>
       </c>
       <c r="R51" t="n">
-        <v>6804656</v>
+        <v>6804761</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6068,7 +6068,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131046960</v>
+        <v>131046959</v>
       </c>
       <c r="B52" t="n">
         <v>79243</v>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395414</v>
+        <v>395420</v>
       </c>
       <c r="R52" t="n">
-        <v>6804670</v>
+        <v>6804656</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6282,10 +6282,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131046716</v>
+        <v>131046967</v>
       </c>
       <c r="B54" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6293,21 +6293,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6317,10 +6317,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>395401</v>
+        <v>395410</v>
       </c>
       <c r="R54" t="n">
-        <v>6804761</v>
+        <v>6804765</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6389,10 +6389,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131046722</v>
+        <v>131046944</v>
       </c>
       <c r="B55" t="n">
-        <v>79275</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6400,21 +6400,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6424,10 +6424,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>395391</v>
+        <v>395449</v>
       </c>
       <c r="R55" t="n">
-        <v>6804603</v>
+        <v>6804589</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6496,7 +6496,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131046944</v>
+        <v>131046924</v>
       </c>
       <c r="B56" t="n">
         <v>79243</v>
@@ -6531,10 +6531,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>395449</v>
+        <v>395373</v>
       </c>
       <c r="R56" t="n">
-        <v>6804589</v>
+        <v>6804784</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6603,7 +6603,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046924</v>
+        <v>131046969</v>
       </c>
       <c r="B57" t="n">
         <v>79243</v>
@@ -6638,10 +6638,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395373</v>
+        <v>395464</v>
       </c>
       <c r="R57" t="n">
-        <v>6804784</v>
+        <v>6804807</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6710,7 +6710,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131046969</v>
+        <v>131046925</v>
       </c>
       <c r="B58" t="n">
         <v>79243</v>
@@ -6745,10 +6745,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395464</v>
+        <v>395380</v>
       </c>
       <c r="R58" t="n">
-        <v>6804807</v>
+        <v>6804774</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6817,10 +6817,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131046926</v>
+        <v>131046722</v>
       </c>
       <c r="B59" t="n">
-        <v>79243</v>
+        <v>79275</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6828,21 +6828,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6852,10 +6852,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>395395</v>
+        <v>395391</v>
       </c>
       <c r="R59" t="n">
-        <v>6804786</v>
+        <v>6804603</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6924,7 +6924,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131046925</v>
+        <v>131046926</v>
       </c>
       <c r="B60" t="n">
         <v>79243</v>
@@ -6959,10 +6959,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>395380</v>
+        <v>395395</v>
       </c>
       <c r="R60" t="n">
-        <v>6804774</v>
+        <v>6804786</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7138,10 +7138,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131046760</v>
+        <v>131046983</v>
       </c>
       <c r="B62" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7149,39 +7149,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P62" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>395448</v>
+        <v>395515</v>
       </c>
       <c r="R62" t="n">
-        <v>6804572</v>
+        <v>6804694</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7213,7 +7208,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7223,7 +7218,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7250,7 +7245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131046983</v>
+        <v>131046939</v>
       </c>
       <c r="B63" t="n">
         <v>79243</v>
@@ -7285,10 +7280,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395515</v>
+        <v>395446</v>
       </c>
       <c r="R63" t="n">
-        <v>6804694</v>
+        <v>6804659</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7320,7 +7315,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7330,7 +7325,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7357,10 +7352,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131046939</v>
+        <v>131046760</v>
       </c>
       <c r="B64" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7368,34 +7363,39 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395446</v>
+        <v>395448</v>
       </c>
       <c r="R64" t="n">
-        <v>6804659</v>
+        <v>6804572</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7464,10 +7464,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131046723</v>
+        <v>131046961</v>
       </c>
       <c r="B65" t="n">
-        <v>79275</v>
+        <v>79243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7475,21 +7475,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7499,10 +7499,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>395447</v>
+        <v>395403</v>
       </c>
       <c r="R65" t="n">
-        <v>6804620</v>
+        <v>6804693</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7571,10 +7571,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131046961</v>
+        <v>131046723</v>
       </c>
       <c r="B66" t="n">
-        <v>79243</v>
+        <v>79275</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7582,21 +7582,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7606,10 +7606,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>395403</v>
+        <v>395447</v>
       </c>
       <c r="R66" t="n">
-        <v>6804693</v>
+        <v>6804620</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7785,10 +7785,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131046717</v>
+        <v>131046917</v>
       </c>
       <c r="B68" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7796,21 +7796,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7820,10 +7820,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>395464</v>
+        <v>395365</v>
       </c>
       <c r="R68" t="n">
-        <v>6804807</v>
+        <v>6804704</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7892,10 +7892,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131047026</v>
+        <v>131046921</v>
       </c>
       <c r="B69" t="n">
-        <v>78909</v>
+        <v>79243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7903,21 +7903,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7927,10 +7927,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395386</v>
+        <v>395357</v>
       </c>
       <c r="R69" t="n">
-        <v>6804628</v>
+        <v>6804752</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -7999,10 +7999,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131046917</v>
+        <v>131047026</v>
       </c>
       <c r="B70" t="n">
-        <v>79243</v>
+        <v>78909</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8010,21 +8010,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8034,10 +8034,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>395365</v>
+        <v>395386</v>
       </c>
       <c r="R70" t="n">
-        <v>6804704</v>
+        <v>6804628</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8106,10 +8106,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131046921</v>
+        <v>131046717</v>
       </c>
       <c r="B71" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8117,21 +8117,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8141,10 +8141,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395357</v>
+        <v>395464</v>
       </c>
       <c r="R71" t="n">
-        <v>6804752</v>
+        <v>6804807</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8213,7 +8213,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131046923</v>
+        <v>131046930</v>
       </c>
       <c r="B72" t="n">
         <v>79243</v>
@@ -8248,10 +8248,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>395364</v>
+        <v>395446</v>
       </c>
       <c r="R72" t="n">
-        <v>6804764</v>
+        <v>6804802</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8293,7 +8293,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8320,7 +8320,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131046916</v>
+        <v>131046923</v>
       </c>
       <c r="B73" t="n">
         <v>79243</v>
@@ -8355,10 +8355,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>395367</v>
+        <v>395364</v>
       </c>
       <c r="R73" t="n">
-        <v>6804698</v>
+        <v>6804764</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8390,7 +8390,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8400,7 +8400,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8534,7 +8534,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131046930</v>
+        <v>131046916</v>
       </c>
       <c r="B75" t="n">
         <v>79243</v>
@@ -8569,10 +8569,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395446</v>
+        <v>395367</v>
       </c>
       <c r="R75" t="n">
-        <v>6804802</v>
+        <v>6804698</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8604,7 +8604,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8614,7 +8614,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9079,10 +9079,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131046781</v>
+        <v>131046962</v>
       </c>
       <c r="B80" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9090,39 +9090,34 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P80" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>395473</v>
+        <v>395389</v>
       </c>
       <c r="R80" t="n">
-        <v>6804805</v>
+        <v>6804711</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9154,7 +9149,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -9164,12 +9159,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>11:58</t>
-        </is>
-      </c>
-      <c r="AC80" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9196,7 +9186,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131046905</v>
+        <v>131046976</v>
       </c>
       <c r="B81" t="n">
         <v>79243</v>
@@ -9231,10 +9221,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395392</v>
+        <v>395525</v>
       </c>
       <c r="R81" t="n">
-        <v>6804583</v>
+        <v>6804757</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9266,7 +9256,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -9276,7 +9266,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9303,7 +9293,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131047001</v>
+        <v>131046931</v>
       </c>
       <c r="B82" t="n">
         <v>79243</v>
@@ -9338,10 +9328,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>395505</v>
+        <v>395443</v>
       </c>
       <c r="R82" t="n">
-        <v>6804590</v>
+        <v>6804778</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9373,7 +9363,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -9383,7 +9373,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9517,7 +9507,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131046976</v>
+        <v>131047001</v>
       </c>
       <c r="B84" t="n">
         <v>79243</v>
@@ -9552,10 +9542,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>395525</v>
+        <v>395505</v>
       </c>
       <c r="R84" t="n">
-        <v>6804757</v>
+        <v>6804590</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9587,7 +9577,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -9597,7 +9587,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9624,7 +9614,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131046931</v>
+        <v>131046905</v>
       </c>
       <c r="B85" t="n">
         <v>79243</v>
@@ -9659,10 +9649,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>395443</v>
+        <v>395392</v>
       </c>
       <c r="R85" t="n">
-        <v>6804778</v>
+        <v>6804583</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9694,7 +9684,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -9704,7 +9694,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9731,10 +9721,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131046962</v>
+        <v>131046781</v>
       </c>
       <c r="B86" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9742,34 +9732,39 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>395389</v>
+        <v>395473</v>
       </c>
       <c r="R86" t="n">
-        <v>6804711</v>
+        <v>6804805</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9801,7 +9796,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -9811,7 +9806,12 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9945,7 +9945,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131046779</v>
+        <v>131046793</v>
       </c>
       <c r="B88" t="n">
         <v>57884</v>
@@ -9976,7 +9976,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -9985,10 +9985,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>395369</v>
+        <v>395448</v>
       </c>
       <c r="R88" t="n">
-        <v>6804718</v>
+        <v>6804583</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10020,7 +10020,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10030,12 +10030,12 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10062,7 +10062,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131046793</v>
+        <v>131046779</v>
       </c>
       <c r="B89" t="n">
         <v>57884</v>
@@ -10093,7 +10093,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -10102,10 +10102,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>395448</v>
+        <v>395369</v>
       </c>
       <c r="R89" t="n">
-        <v>6804583</v>
+        <v>6804718</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10147,12 +10147,12 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>Färska ringhack (gran)</t>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10179,10 +10179,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131046990</v>
+        <v>131046791</v>
       </c>
       <c r="B90" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10190,34 +10190,39 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>395474</v>
+        <v>395362</v>
       </c>
       <c r="R90" t="n">
-        <v>6804600</v>
+        <v>6804701</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10249,7 +10254,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -10259,7 +10264,12 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10286,10 +10296,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131046984</v>
+        <v>131046778</v>
       </c>
       <c r="B91" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10297,34 +10307,39 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P91" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>395531</v>
+        <v>395366</v>
       </c>
       <c r="R91" t="n">
-        <v>6804688</v>
+        <v>6804690</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10356,7 +10371,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10366,7 +10381,12 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:09</t>
+        </is>
+      </c>
+      <c r="AC91" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10393,10 +10413,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046778</v>
+        <v>131046984</v>
       </c>
       <c r="B92" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10404,39 +10424,34 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P92" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395366</v>
+        <v>395531</v>
       </c>
       <c r="R92" t="n">
-        <v>6804690</v>
+        <v>6804688</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10468,7 +10483,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10478,12 +10493,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>11:09</t>
-        </is>
-      </c>
-      <c r="AC92" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10510,10 +10520,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046791</v>
+        <v>131046990</v>
       </c>
       <c r="B93" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10521,39 +10531,34 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P93" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395362</v>
+        <v>395474</v>
       </c>
       <c r="R93" t="n">
-        <v>6804701</v>
+        <v>6804600</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10585,7 +10590,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10595,12 +10600,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>11:10</t>
-        </is>
-      </c>
-      <c r="AC93" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10841,10 +10841,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131046715</v>
+        <v>131046912</v>
       </c>
       <c r="B96" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10852,21 +10852,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10876,10 +10876,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>395445</v>
+        <v>395382</v>
       </c>
       <c r="R96" t="n">
-        <v>6804803</v>
+        <v>6804661</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10948,7 +10948,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131046928</v>
+        <v>131046906</v>
       </c>
       <c r="B97" t="n">
         <v>79243</v>
@@ -10983,10 +10983,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395417</v>
+        <v>395395</v>
       </c>
       <c r="R97" t="n">
-        <v>6804797</v>
+        <v>6804604</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11018,7 +11018,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11055,32 +11055,32 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131046794</v>
+        <v>131046928</v>
       </c>
       <c r="B98" t="n">
-        <v>57076</v>
+        <v>79243</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>102613</v>
+        <v>6425</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11090,10 +11090,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395383</v>
+        <v>395417</v>
       </c>
       <c r="R98" t="n">
-        <v>6804574</v>
+        <v>6804797</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11162,7 +11162,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131046912</v>
+        <v>131046985</v>
       </c>
       <c r="B99" t="n">
         <v>79243</v>
@@ -11197,10 +11197,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395382</v>
+        <v>395531</v>
       </c>
       <c r="R99" t="n">
-        <v>6804661</v>
+        <v>6804664</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11232,7 +11232,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11242,7 +11242,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11269,7 +11269,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131046906</v>
+        <v>131046975</v>
       </c>
       <c r="B100" t="n">
         <v>79243</v>
@@ -11304,10 +11304,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395395</v>
+        <v>395535</v>
       </c>
       <c r="R100" t="n">
-        <v>6804604</v>
+        <v>6804771</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11376,32 +11376,32 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131046975</v>
+        <v>131046794</v>
       </c>
       <c r="B101" t="n">
-        <v>79243</v>
+        <v>57076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6425</v>
+        <v>102613</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11411,10 +11411,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395535</v>
+        <v>395383</v>
       </c>
       <c r="R101" t="n">
-        <v>6804771</v>
+        <v>6804574</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11483,10 +11483,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131046985</v>
+        <v>131046797</v>
       </c>
       <c r="B102" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11494,21 +11494,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395531</v>
+        <v>395367</v>
       </c>
       <c r="R102" t="n">
-        <v>6804664</v>
+        <v>6804754</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11590,10 +11590,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>131046797</v>
+        <v>131046715</v>
       </c>
       <c r="B103" t="n">
-        <v>79001</v>
+        <v>83223</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11601,21 +11601,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>228912</v>
+        <v>6440</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11625,10 +11625,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>395367</v>
+        <v>395445</v>
       </c>
       <c r="R103" t="n">
-        <v>6804754</v>
+        <v>6804803</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11660,7 +11660,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD103" t="b">

--- a/artfynd/A 58063-2025 artfynd.xlsx
+++ b/artfynd/A 58063-2025 artfynd.xlsx
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046971</v>
+        <v>131046942</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395487</v>
+        <v>395445</v>
       </c>
       <c r="R3" t="n">
-        <v>6804812</v>
+        <v>6804607</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,7 +894,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046915</v>
+        <v>131046989</v>
       </c>
       <c r="B4" t="n">
         <v>79243</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395373</v>
+        <v>395484</v>
       </c>
       <c r="R4" t="n">
-        <v>6804690</v>
+        <v>6804617</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1001,7 +1001,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046942</v>
+        <v>131046971</v>
       </c>
       <c r="B5" t="n">
         <v>79243</v>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395445</v>
+        <v>395487</v>
       </c>
       <c r="R5" t="n">
-        <v>6804607</v>
+        <v>6804812</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046989</v>
+        <v>131046915</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395484</v>
+        <v>395373</v>
       </c>
       <c r="R6" t="n">
-        <v>6804617</v>
+        <v>6804690</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1215,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046767</v>
+        <v>131046927</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1226,42 +1226,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395395</v>
+        <v>395404</v>
       </c>
       <c r="R7" t="n">
-        <v>6804584</v>
+        <v>6804786</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1293,7 +1285,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1303,12 +1295,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:44</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1335,10 +1322,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046758</v>
+        <v>131046965</v>
       </c>
       <c r="B8" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1346,39 +1333,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395526</v>
+        <v>395396</v>
       </c>
       <c r="R8" t="n">
-        <v>6804768</v>
+        <v>6804747</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1410,7 +1392,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1420,7 +1402,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1447,7 +1429,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046965</v>
+        <v>131046940</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1482,10 +1464,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395396</v>
+        <v>395441</v>
       </c>
       <c r="R9" t="n">
-        <v>6804747</v>
+        <v>6804637</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1517,7 +1499,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1527,7 +1509,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1875,10 +1857,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046940</v>
+        <v>131046758</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1886,34 +1868,39 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395441</v>
+        <v>395526</v>
       </c>
       <c r="R13" t="n">
-        <v>6804637</v>
+        <v>6804768</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1945,7 +1932,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1955,7 +1942,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1982,10 +1969,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046927</v>
+        <v>131046767</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1993,34 +1980,42 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395404</v>
+        <v>395395</v>
       </c>
       <c r="R14" t="n">
-        <v>6804786</v>
+        <v>6804584</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2052,7 +2047,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2062,7 +2057,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2089,7 +2089,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131047000</v>
+        <v>131046907</v>
       </c>
       <c r="B15" t="n">
         <v>79243</v>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395494</v>
+        <v>395411</v>
       </c>
       <c r="R15" t="n">
-        <v>6804583</v>
+        <v>6804605</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2196,10 +2196,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131046986</v>
+        <v>131046800</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>81228</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2207,21 +2207,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395520</v>
+        <v>395387</v>
       </c>
       <c r="R16" t="n">
-        <v>6804657</v>
+        <v>6804626</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2303,7 +2303,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131047002</v>
+        <v>131047000</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2338,10 +2338,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395503</v>
+        <v>395494</v>
       </c>
       <c r="R17" t="n">
-        <v>6804603</v>
+        <v>6804583</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2410,7 +2410,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046968</v>
+        <v>131046986</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395412</v>
+        <v>395520</v>
       </c>
       <c r="R18" t="n">
-        <v>6804755</v>
+        <v>6804657</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2517,10 +2517,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131046800</v>
+        <v>131047002</v>
       </c>
       <c r="B19" t="n">
-        <v>81228</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2528,21 +2528,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395387</v>
+        <v>395503</v>
       </c>
       <c r="R19" t="n">
-        <v>6804626</v>
+        <v>6804603</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2624,7 +2624,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131046907</v>
+        <v>131046968</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2659,10 +2659,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395411</v>
+        <v>395412</v>
       </c>
       <c r="R20" t="n">
-        <v>6804605</v>
+        <v>6804755</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2965,7 +2965,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131046963</v>
+        <v>131046922</v>
       </c>
       <c r="B23" t="n">
         <v>79243</v>
@@ -3000,10 +3000,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395386</v>
+        <v>395365</v>
       </c>
       <c r="R23" t="n">
-        <v>6804723</v>
+        <v>6804755</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3072,10 +3072,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131046972</v>
+        <v>131047027</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>78909</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3083,21 +3083,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395524</v>
+        <v>395391</v>
       </c>
       <c r="R24" t="n">
-        <v>6804798</v>
+        <v>6804697</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3179,10 +3179,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131047027</v>
+        <v>131046714</v>
       </c>
       <c r="B25" t="n">
-        <v>78909</v>
+        <v>83223</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3190,21 +3190,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>353</v>
+        <v>6440</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395391</v>
+        <v>395419</v>
       </c>
       <c r="R25" t="n">
-        <v>6804697</v>
+        <v>6804801</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3286,7 +3286,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131046922</v>
+        <v>131046963</v>
       </c>
       <c r="B26" t="n">
         <v>79243</v>
@@ -3321,10 +3321,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395365</v>
+        <v>395386</v>
       </c>
       <c r="R26" t="n">
-        <v>6804755</v>
+        <v>6804723</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3393,10 +3393,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131046714</v>
+        <v>131046972</v>
       </c>
       <c r="B27" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3404,21 +3404,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3428,10 +3428,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>395419</v>
+        <v>395524</v>
       </c>
       <c r="R27" t="n">
-        <v>6804801</v>
+        <v>6804798</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3500,10 +3500,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131046937</v>
+        <v>131046801</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>81228</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3511,21 +3511,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3535,10 +3535,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>395433</v>
+        <v>395526</v>
       </c>
       <c r="R28" t="n">
-        <v>6804692</v>
+        <v>6804768</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3607,7 +3607,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131046991</v>
+        <v>131046937</v>
       </c>
       <c r="B29" t="n">
         <v>79243</v>
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>395479</v>
+        <v>395433</v>
       </c>
       <c r="R29" t="n">
-        <v>6804588</v>
+        <v>6804692</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3821,7 +3821,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046964</v>
+        <v>131046991</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395381</v>
+        <v>395479</v>
       </c>
       <c r="R31" t="n">
-        <v>6804728</v>
+        <v>6804588</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3928,7 +3928,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046914</v>
+        <v>131046964</v>
       </c>
       <c r="B32" t="n">
         <v>79243</v>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395382</v>
+        <v>395381</v>
       </c>
       <c r="R32" t="n">
-        <v>6804689</v>
+        <v>6804728</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4035,10 +4035,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131046801</v>
+        <v>131046914</v>
       </c>
       <c r="B33" t="n">
-        <v>81228</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4046,21 +4046,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4070,10 +4070,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>395526</v>
+        <v>395382</v>
       </c>
       <c r="R33" t="n">
-        <v>6804768</v>
+        <v>6804689</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4142,10 +4142,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131046987</v>
+        <v>131046725</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>79275</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4153,21 +4153,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>395501</v>
+        <v>395392</v>
       </c>
       <c r="R34" t="n">
-        <v>6804647</v>
+        <v>6804595</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4249,10 +4249,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131046725</v>
+        <v>131046987</v>
       </c>
       <c r="B35" t="n">
-        <v>79275</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4260,21 +4260,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4284,10 +4284,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>395392</v>
+        <v>395501</v>
       </c>
       <c r="R35" t="n">
-        <v>6804595</v>
+        <v>6804647</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4356,7 +4356,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131046981</v>
+        <v>131046970</v>
       </c>
       <c r="B36" t="n">
         <v>79243</v>
@@ -4391,10 +4391,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>395501</v>
+        <v>395474</v>
       </c>
       <c r="R36" t="n">
-        <v>6804703</v>
+        <v>6804807</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4570,7 +4570,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131046970</v>
+        <v>131046981</v>
       </c>
       <c r="B38" t="n">
         <v>79243</v>
@@ -4605,10 +4605,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>395474</v>
+        <v>395501</v>
       </c>
       <c r="R38" t="n">
-        <v>6804807</v>
+        <v>6804703</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4784,7 +4784,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131046935</v>
+        <v>131046919</v>
       </c>
       <c r="B40" t="n">
         <v>79243</v>
@@ -4819,10 +4819,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395438</v>
+        <v>395363</v>
       </c>
       <c r="R40" t="n">
-        <v>6804735</v>
+        <v>6804723</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4891,7 +4891,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131046920</v>
+        <v>131046936</v>
       </c>
       <c r="B41" t="n">
         <v>79243</v>
@@ -4926,10 +4926,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>395369</v>
+        <v>395431</v>
       </c>
       <c r="R41" t="n">
-        <v>6804738</v>
+        <v>6804712</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4998,7 +4998,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131046919</v>
+        <v>131046988</v>
       </c>
       <c r="B42" t="n">
         <v>79243</v>
@@ -5033,10 +5033,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395363</v>
+        <v>395491</v>
       </c>
       <c r="R42" t="n">
-        <v>6804723</v>
+        <v>6804630</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5105,7 +5105,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131046932</v>
+        <v>131046935</v>
       </c>
       <c r="B43" t="n">
         <v>79243</v>
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>395455</v>
+        <v>395438</v>
       </c>
       <c r="R43" t="n">
-        <v>6804767</v>
+        <v>6804735</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5212,7 +5212,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131046936</v>
+        <v>131046920</v>
       </c>
       <c r="B44" t="n">
         <v>79243</v>
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>395431</v>
+        <v>395369</v>
       </c>
       <c r="R44" t="n">
-        <v>6804712</v>
+        <v>6804738</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5319,7 +5319,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131046941</v>
+        <v>131046932</v>
       </c>
       <c r="B45" t="n">
         <v>79243</v>
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395442</v>
+        <v>395455</v>
       </c>
       <c r="R45" t="n">
-        <v>6804622</v>
+        <v>6804767</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5426,7 +5426,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046988</v>
+        <v>131046979</v>
       </c>
       <c r="B46" t="n">
         <v>79243</v>
@@ -5461,10 +5461,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395491</v>
+        <v>395499</v>
       </c>
       <c r="R46" t="n">
-        <v>6804630</v>
+        <v>6804721</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5533,7 +5533,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131046918</v>
+        <v>131046941</v>
       </c>
       <c r="B47" t="n">
         <v>79243</v>
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>395369</v>
+        <v>395442</v>
       </c>
       <c r="R47" t="n">
-        <v>6804718</v>
+        <v>6804622</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5640,7 +5640,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131046980</v>
+        <v>131046918</v>
       </c>
       <c r="B48" t="n">
         <v>79243</v>
@@ -5675,10 +5675,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>395494</v>
+        <v>395369</v>
       </c>
       <c r="R48" t="n">
-        <v>6804716</v>
+        <v>6804718</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5747,7 +5747,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131046979</v>
+        <v>131046980</v>
       </c>
       <c r="B49" t="n">
         <v>79243</v>
@@ -5782,10 +5782,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>395499</v>
+        <v>395494</v>
       </c>
       <c r="R49" t="n">
-        <v>6804721</v>
+        <v>6804716</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5854,7 +5854,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131046960</v>
+        <v>131046982</v>
       </c>
       <c r="B50" t="n">
         <v>79243</v>
@@ -5889,10 +5889,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395414</v>
+        <v>395507</v>
       </c>
       <c r="R50" t="n">
-        <v>6804670</v>
+        <v>6804695</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5961,10 +5961,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131046716</v>
+        <v>131046959</v>
       </c>
       <c r="B51" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5972,21 +5972,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395401</v>
+        <v>395420</v>
       </c>
       <c r="R51" t="n">
-        <v>6804761</v>
+        <v>6804656</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6068,10 +6068,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131046959</v>
+        <v>131046716</v>
       </c>
       <c r="B52" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6079,21 +6079,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395420</v>
+        <v>395401</v>
       </c>
       <c r="R52" t="n">
-        <v>6804656</v>
+        <v>6804761</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6175,7 +6175,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131046982</v>
+        <v>131046960</v>
       </c>
       <c r="B53" t="n">
         <v>79243</v>
@@ -6210,10 +6210,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>395507</v>
+        <v>395414</v>
       </c>
       <c r="R53" t="n">
-        <v>6804695</v>
+        <v>6804670</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6389,10 +6389,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131046944</v>
+        <v>131046722</v>
       </c>
       <c r="B55" t="n">
-        <v>79243</v>
+        <v>79275</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6400,21 +6400,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6424,10 +6424,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>395449</v>
+        <v>395391</v>
       </c>
       <c r="R55" t="n">
-        <v>6804589</v>
+        <v>6804603</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6496,7 +6496,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131046924</v>
+        <v>131046944</v>
       </c>
       <c r="B56" t="n">
         <v>79243</v>
@@ -6531,10 +6531,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>395373</v>
+        <v>395449</v>
       </c>
       <c r="R56" t="n">
-        <v>6804784</v>
+        <v>6804589</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6603,7 +6603,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046969</v>
+        <v>131046924</v>
       </c>
       <c r="B57" t="n">
         <v>79243</v>
@@ -6638,10 +6638,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395464</v>
+        <v>395373</v>
       </c>
       <c r="R57" t="n">
-        <v>6804807</v>
+        <v>6804784</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6710,7 +6710,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131046925</v>
+        <v>131046969</v>
       </c>
       <c r="B58" t="n">
         <v>79243</v>
@@ -6745,10 +6745,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395380</v>
+        <v>395464</v>
       </c>
       <c r="R58" t="n">
-        <v>6804774</v>
+        <v>6804807</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6817,10 +6817,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131046722</v>
+        <v>131046926</v>
       </c>
       <c r="B59" t="n">
-        <v>79275</v>
+        <v>79243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6828,21 +6828,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6852,10 +6852,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>395391</v>
+        <v>395395</v>
       </c>
       <c r="R59" t="n">
-        <v>6804603</v>
+        <v>6804786</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6924,7 +6924,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131046926</v>
+        <v>131046925</v>
       </c>
       <c r="B60" t="n">
         <v>79243</v>
@@ -6959,10 +6959,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>395395</v>
+        <v>395380</v>
       </c>
       <c r="R60" t="n">
-        <v>6804786</v>
+        <v>6804774</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7031,10 +7031,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131046904</v>
+        <v>131046760</v>
       </c>
       <c r="B61" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7042,34 +7042,39 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>395385</v>
+        <v>395448</v>
       </c>
       <c r="R61" t="n">
-        <v>6804578</v>
+        <v>6804572</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7101,7 +7106,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7111,7 +7116,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7138,7 +7143,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131046983</v>
+        <v>131046904</v>
       </c>
       <c r="B62" t="n">
         <v>79243</v>
@@ -7173,10 +7178,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>395515</v>
+        <v>395385</v>
       </c>
       <c r="R62" t="n">
-        <v>6804694</v>
+        <v>6804578</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7208,7 +7213,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7218,7 +7223,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7245,7 +7250,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131046939</v>
+        <v>131046983</v>
       </c>
       <c r="B63" t="n">
         <v>79243</v>
@@ -7280,10 +7285,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395446</v>
+        <v>395515</v>
       </c>
       <c r="R63" t="n">
-        <v>6804659</v>
+        <v>6804694</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7315,7 +7320,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7325,7 +7330,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7352,10 +7357,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131046760</v>
+        <v>131046939</v>
       </c>
       <c r="B64" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7363,39 +7368,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395448</v>
+        <v>395446</v>
       </c>
       <c r="R64" t="n">
-        <v>6804572</v>
+        <v>6804659</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7785,10 +7785,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131046917</v>
+        <v>131047026</v>
       </c>
       <c r="B68" t="n">
-        <v>79243</v>
+        <v>78909</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7796,21 +7796,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7820,10 +7820,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>395365</v>
+        <v>395386</v>
       </c>
       <c r="R68" t="n">
-        <v>6804704</v>
+        <v>6804628</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7892,7 +7892,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131046921</v>
+        <v>131046917</v>
       </c>
       <c r="B69" t="n">
         <v>79243</v>
@@ -7927,10 +7927,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395357</v>
+        <v>395365</v>
       </c>
       <c r="R69" t="n">
-        <v>6804752</v>
+        <v>6804704</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -7999,10 +7999,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131047026</v>
+        <v>131046717</v>
       </c>
       <c r="B70" t="n">
-        <v>78909</v>
+        <v>83223</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8010,21 +8010,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>353</v>
+        <v>6440</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8034,10 +8034,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>395386</v>
+        <v>395464</v>
       </c>
       <c r="R70" t="n">
-        <v>6804628</v>
+        <v>6804807</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8106,10 +8106,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131046717</v>
+        <v>131046921</v>
       </c>
       <c r="B71" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8117,21 +8117,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8141,10 +8141,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395464</v>
+        <v>395357</v>
       </c>
       <c r="R71" t="n">
-        <v>6804807</v>
+        <v>6804752</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8427,7 +8427,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131046933</v>
+        <v>131046916</v>
       </c>
       <c r="B74" t="n">
         <v>79243</v>
@@ -8462,10 +8462,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395458</v>
+        <v>395367</v>
       </c>
       <c r="R74" t="n">
-        <v>6804762</v>
+        <v>6804698</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8497,7 +8497,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8534,7 +8534,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131046916</v>
+        <v>131046933</v>
       </c>
       <c r="B75" t="n">
         <v>79243</v>
@@ -8569,10 +8569,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395367</v>
+        <v>395458</v>
       </c>
       <c r="R75" t="n">
-        <v>6804698</v>
+        <v>6804762</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8604,7 +8604,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8614,7 +8614,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9079,7 +9079,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131046962</v>
+        <v>131046905</v>
       </c>
       <c r="B80" t="n">
         <v>79243</v>
@@ -9114,10 +9114,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>395389</v>
+        <v>395392</v>
       </c>
       <c r="R80" t="n">
-        <v>6804711</v>
+        <v>6804583</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9149,7 +9149,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -9159,7 +9159,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9186,7 +9186,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131046976</v>
+        <v>131046962</v>
       </c>
       <c r="B81" t="n">
         <v>79243</v>
@@ -9221,10 +9221,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395525</v>
+        <v>395389</v>
       </c>
       <c r="R81" t="n">
-        <v>6804757</v>
+        <v>6804711</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9293,10 +9293,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131046931</v>
+        <v>131046781</v>
       </c>
       <c r="B82" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9304,34 +9304,39 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P82" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>395443</v>
+        <v>395473</v>
       </c>
       <c r="R82" t="n">
-        <v>6804778</v>
+        <v>6804805</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9363,7 +9368,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -9373,7 +9378,12 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9400,7 +9410,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131046929</v>
+        <v>131047001</v>
       </c>
       <c r="B83" t="n">
         <v>79243</v>
@@ -9435,10 +9445,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>395420</v>
+        <v>395505</v>
       </c>
       <c r="R83" t="n">
-        <v>6804798</v>
+        <v>6804590</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9470,7 +9480,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9480,7 +9490,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9507,7 +9517,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131047001</v>
+        <v>131046929</v>
       </c>
       <c r="B84" t="n">
         <v>79243</v>
@@ -9542,10 +9552,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>395505</v>
+        <v>395420</v>
       </c>
       <c r="R84" t="n">
-        <v>6804590</v>
+        <v>6804798</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9577,7 +9587,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -9587,7 +9597,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9614,7 +9624,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131046905</v>
+        <v>131046976</v>
       </c>
       <c r="B85" t="n">
         <v>79243</v>
@@ -9649,10 +9659,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>395392</v>
+        <v>395525</v>
       </c>
       <c r="R85" t="n">
-        <v>6804583</v>
+        <v>6804757</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9684,7 +9694,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -9694,7 +9704,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9721,10 +9731,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131046781</v>
+        <v>131046931</v>
       </c>
       <c r="B86" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9732,39 +9742,34 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P86" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>395473</v>
+        <v>395443</v>
       </c>
       <c r="R86" t="n">
-        <v>6804805</v>
+        <v>6804778</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9796,7 +9801,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -9806,12 +9811,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>11:58</t>
-        </is>
-      </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10413,7 +10413,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046984</v>
+        <v>131046990</v>
       </c>
       <c r="B92" t="n">
         <v>79243</v>
@@ -10448,10 +10448,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395531</v>
+        <v>395474</v>
       </c>
       <c r="R92" t="n">
-        <v>6804688</v>
+        <v>6804600</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10493,7 +10493,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10520,7 +10520,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046990</v>
+        <v>131046984</v>
       </c>
       <c r="B93" t="n">
         <v>79243</v>
@@ -10555,10 +10555,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395474</v>
+        <v>395531</v>
       </c>
       <c r="R93" t="n">
-        <v>6804600</v>
+        <v>6804688</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10590,7 +10590,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10627,10 +10627,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046804</v>
+        <v>131046718</v>
       </c>
       <c r="B94" t="n">
-        <v>79000</v>
+        <v>83223</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10638,21 +10638,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6446</v>
+        <v>6440</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -10662,10 +10662,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395367</v>
+        <v>395471</v>
       </c>
       <c r="R94" t="n">
-        <v>6804754</v>
+        <v>6804595</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10697,7 +10697,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10707,7 +10707,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10734,10 +10734,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131046718</v>
+        <v>131046804</v>
       </c>
       <c r="B95" t="n">
-        <v>83223</v>
+        <v>79000</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10745,21 +10745,21 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6440</v>
+        <v>6446</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -10769,10 +10769,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>395471</v>
+        <v>395367</v>
       </c>
       <c r="R95" t="n">
-        <v>6804595</v>
+        <v>6804754</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10804,7 +10804,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -10814,7 +10814,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10841,10 +10841,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131046912</v>
+        <v>131046715</v>
       </c>
       <c r="B96" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10852,21 +10852,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10876,10 +10876,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>395382</v>
+        <v>395445</v>
       </c>
       <c r="R96" t="n">
-        <v>6804661</v>
+        <v>6804803</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10948,7 +10948,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131046906</v>
+        <v>131046912</v>
       </c>
       <c r="B97" t="n">
         <v>79243</v>
@@ -10983,10 +10983,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395395</v>
+        <v>395382</v>
       </c>
       <c r="R97" t="n">
-        <v>6804604</v>
+        <v>6804661</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11018,7 +11018,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11269,10 +11269,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131046975</v>
+        <v>131046797</v>
       </c>
       <c r="B100" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11280,21 +11280,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11304,10 +11304,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395535</v>
+        <v>395367</v>
       </c>
       <c r="R100" t="n">
-        <v>6804771</v>
+        <v>6804754</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11376,32 +11376,32 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131046794</v>
+        <v>131046906</v>
       </c>
       <c r="B101" t="n">
-        <v>57076</v>
+        <v>79243</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>102613</v>
+        <v>6425</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11411,10 +11411,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395383</v>
+        <v>395395</v>
       </c>
       <c r="R101" t="n">
-        <v>6804574</v>
+        <v>6804604</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11483,10 +11483,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131046797</v>
+        <v>131046975</v>
       </c>
       <c r="B102" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11494,21 +11494,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395367</v>
+        <v>395535</v>
       </c>
       <c r="R102" t="n">
-        <v>6804754</v>
+        <v>6804771</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11590,32 +11590,32 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>131046715</v>
+        <v>131046794</v>
       </c>
       <c r="B103" t="n">
-        <v>83223</v>
+        <v>57076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6440</v>
+        <v>102613</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11625,10 +11625,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>395445</v>
+        <v>395383</v>
       </c>
       <c r="R103" t="n">
-        <v>6804803</v>
+        <v>6804574</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11660,7 +11660,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD103" t="b">

--- a/artfynd/A 58063-2025 artfynd.xlsx
+++ b/artfynd/A 58063-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046977</v>
+        <v>131046989</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395528</v>
+        <v>395484</v>
       </c>
       <c r="R2" t="n">
-        <v>6804736</v>
+        <v>6804617</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046942</v>
+        <v>131046915</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395445</v>
+        <v>395373</v>
       </c>
       <c r="R3" t="n">
-        <v>6804607</v>
+        <v>6804690</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046989</v>
+        <v>131046942</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395484</v>
+        <v>395445</v>
       </c>
       <c r="R4" t="n">
-        <v>6804617</v>
+        <v>6804607</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1004,7 +1004,7 @@
         <v>131046971</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1108,10 +1108,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046915</v>
+        <v>131046977</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395373</v>
+        <v>395528</v>
       </c>
       <c r="R6" t="n">
-        <v>6804690</v>
+        <v>6804736</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1215,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046927</v>
+        <v>131046965</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395404</v>
+        <v>395396</v>
       </c>
       <c r="R7" t="n">
-        <v>6804786</v>
+        <v>6804747</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1322,10 +1322,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046965</v>
+        <v>131046927</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1357,10 +1357,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395396</v>
+        <v>395404</v>
       </c>
       <c r="R8" t="n">
-        <v>6804747</v>
+        <v>6804786</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1429,10 +1429,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046940</v>
+        <v>131046910</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1464,10 +1464,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395441</v>
+        <v>395389</v>
       </c>
       <c r="R9" t="n">
-        <v>6804637</v>
+        <v>6804638</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1536,10 +1536,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046910</v>
+        <v>131046940</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1571,10 +1571,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395389</v>
+        <v>395441</v>
       </c>
       <c r="R10" t="n">
-        <v>6804638</v>
+        <v>6804637</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1646,7 +1646,7 @@
         <v>131046908</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>131046938</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046907</v>
+        <v>131047000</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395411</v>
+        <v>395494</v>
       </c>
       <c r="R15" t="n">
-        <v>6804605</v>
+        <v>6804583</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2196,10 +2196,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131046800</v>
+        <v>131046986</v>
       </c>
       <c r="B16" t="n">
-        <v>81228</v>
+        <v>79244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2207,21 +2207,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395387</v>
+        <v>395520</v>
       </c>
       <c r="R16" t="n">
-        <v>6804626</v>
+        <v>6804657</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2303,10 +2303,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131047000</v>
+        <v>131047002</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2338,10 +2338,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395494</v>
+        <v>395503</v>
       </c>
       <c r="R17" t="n">
-        <v>6804583</v>
+        <v>6804603</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2410,10 +2410,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046986</v>
+        <v>131046968</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395520</v>
+        <v>395412</v>
       </c>
       <c r="R18" t="n">
-        <v>6804657</v>
+        <v>6804755</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2517,10 +2517,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131047002</v>
+        <v>131046800</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>81229</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2528,21 +2528,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395503</v>
+        <v>395387</v>
       </c>
       <c r="R19" t="n">
-        <v>6804603</v>
+        <v>6804626</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2624,10 +2624,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131046968</v>
+        <v>131046907</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2659,10 +2659,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395412</v>
+        <v>395411</v>
       </c>
       <c r="R20" t="n">
-        <v>6804755</v>
+        <v>6804605</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2731,10 +2731,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131046792</v>
+        <v>131047027</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>78910</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2742,39 +2742,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>353</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395357</v>
+        <v>395391</v>
       </c>
       <c r="R21" t="n">
-        <v>6804769</v>
+        <v>6804697</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2806,7 +2801,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2816,12 +2811,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:22</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2848,10 +2838,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131047020</v>
+        <v>131046714</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>83224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2859,39 +2849,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395541</v>
+        <v>395419</v>
       </c>
       <c r="R22" t="n">
-        <v>6804800</v>
+        <v>6804801</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2923,7 +2908,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2933,19 +2918,14 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:04</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="b">
         <v>0</v>
@@ -2965,10 +2945,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131046922</v>
+        <v>131046963</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3000,10 +2980,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395365</v>
+        <v>395386</v>
       </c>
       <c r="R23" t="n">
-        <v>6804755</v>
+        <v>6804723</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3035,7 +3015,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3045,7 +3025,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3072,10 +3052,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131047027</v>
+        <v>131046972</v>
       </c>
       <c r="B24" t="n">
-        <v>78909</v>
+        <v>79244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3083,21 +3063,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3107,10 +3087,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395391</v>
+        <v>395524</v>
       </c>
       <c r="R24" t="n">
-        <v>6804697</v>
+        <v>6804798</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3142,7 +3122,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3152,7 +3132,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3179,10 +3159,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131046714</v>
+        <v>131046922</v>
       </c>
       <c r="B25" t="n">
-        <v>83223</v>
+        <v>79244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3190,21 +3170,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3214,10 +3194,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395419</v>
+        <v>395365</v>
       </c>
       <c r="R25" t="n">
-        <v>6804801</v>
+        <v>6804755</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3249,7 +3229,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3259,7 +3239,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3286,10 +3266,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131046963</v>
+        <v>131046792</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3297,34 +3277,39 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395386</v>
+        <v>395357</v>
       </c>
       <c r="R26" t="n">
-        <v>6804723</v>
+        <v>6804769</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3356,7 +3341,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3366,7 +3351,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:22</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3393,10 +3383,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131046972</v>
+        <v>131047020</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3404,34 +3394,39 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>395524</v>
+        <v>395541</v>
       </c>
       <c r="R27" t="n">
-        <v>6804798</v>
+        <v>6804800</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3463,7 +3458,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3473,14 +3468,19 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27" t="b">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>131046801</v>
       </c>
       <c r="B28" t="n">
-        <v>81228</v>
+        <v>81229</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3607,10 +3607,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131046937</v>
+        <v>131046964</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>395433</v>
+        <v>395381</v>
       </c>
       <c r="R29" t="n">
-        <v>6804692</v>
+        <v>6804728</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3714,10 +3714,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046945</v>
+        <v>131046937</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3749,10 +3749,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395448</v>
+        <v>395433</v>
       </c>
       <c r="R30" t="n">
-        <v>6804579</v>
+        <v>6804692</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3824,7 +3824,7 @@
         <v>131046991</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3928,10 +3928,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046964</v>
+        <v>131046945</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395381</v>
+        <v>395448</v>
       </c>
       <c r="R32" t="n">
-        <v>6804728</v>
+        <v>6804579</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4038,7 +4038,7 @@
         <v>131046914</v>
       </c>
       <c r="B33" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>131046725</v>
       </c>
       <c r="B34" t="n">
-        <v>79275</v>
+        <v>79276</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>131046987</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>131046970</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>131046934</v>
       </c>
       <c r="B37" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>131046981</v>
       </c>
       <c r="B38" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>131046966</v>
       </c>
       <c r="B39" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4784,10 +4784,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131046919</v>
+        <v>131046935</v>
       </c>
       <c r="B40" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4819,10 +4819,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395363</v>
+        <v>395438</v>
       </c>
       <c r="R40" t="n">
-        <v>6804723</v>
+        <v>6804735</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4891,10 +4891,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131046936</v>
+        <v>131046932</v>
       </c>
       <c r="B41" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4926,10 +4926,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>395431</v>
+        <v>395455</v>
       </c>
       <c r="R41" t="n">
-        <v>6804712</v>
+        <v>6804767</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4998,10 +4998,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131046988</v>
+        <v>131046979</v>
       </c>
       <c r="B42" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5033,10 +5033,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395491</v>
+        <v>395499</v>
       </c>
       <c r="R42" t="n">
-        <v>6804630</v>
+        <v>6804721</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5105,10 +5105,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131046935</v>
+        <v>131046980</v>
       </c>
       <c r="B43" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>395438</v>
+        <v>395494</v>
       </c>
       <c r="R43" t="n">
-        <v>6804735</v>
+        <v>6804716</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5215,7 +5215,7 @@
         <v>131046920</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5319,10 +5319,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131046932</v>
+        <v>131046919</v>
       </c>
       <c r="B45" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395455</v>
+        <v>395363</v>
       </c>
       <c r="R45" t="n">
-        <v>6804767</v>
+        <v>6804723</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5426,10 +5426,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046979</v>
+        <v>131046936</v>
       </c>
       <c r="B46" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5461,10 +5461,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395499</v>
+        <v>395431</v>
       </c>
       <c r="R46" t="n">
-        <v>6804721</v>
+        <v>6804712</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5533,10 +5533,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131046941</v>
+        <v>131046988</v>
       </c>
       <c r="B47" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>395442</v>
+        <v>395491</v>
       </c>
       <c r="R47" t="n">
-        <v>6804622</v>
+        <v>6804630</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5640,10 +5640,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131046918</v>
+        <v>131046941</v>
       </c>
       <c r="B48" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5675,10 +5675,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>395369</v>
+        <v>395442</v>
       </c>
       <c r="R48" t="n">
-        <v>6804718</v>
+        <v>6804622</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5747,10 +5747,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131046980</v>
+        <v>131046918</v>
       </c>
       <c r="B49" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5782,10 +5782,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>395494</v>
+        <v>395369</v>
       </c>
       <c r="R49" t="n">
-        <v>6804716</v>
+        <v>6804718</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5857,7 +5857,7 @@
         <v>131046982</v>
       </c>
       <c r="B50" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5961,10 +5961,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131046959</v>
+        <v>131046960</v>
       </c>
       <c r="B51" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395420</v>
+        <v>395414</v>
       </c>
       <c r="R51" t="n">
-        <v>6804656</v>
+        <v>6804670</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6068,10 +6068,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131046716</v>
+        <v>131046967</v>
       </c>
       <c r="B52" t="n">
-        <v>83223</v>
+        <v>79244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6079,21 +6079,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395401</v>
+        <v>395410</v>
       </c>
       <c r="R52" t="n">
-        <v>6804761</v>
+        <v>6804765</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6175,10 +6175,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131046960</v>
+        <v>131046959</v>
       </c>
       <c r="B53" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6210,10 +6210,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>395414</v>
+        <v>395420</v>
       </c>
       <c r="R53" t="n">
-        <v>6804670</v>
+        <v>6804656</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6282,10 +6282,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131046967</v>
+        <v>131046716</v>
       </c>
       <c r="B54" t="n">
-        <v>79243</v>
+        <v>83224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6293,21 +6293,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6317,10 +6317,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>395410</v>
+        <v>395401</v>
       </c>
       <c r="R54" t="n">
-        <v>6804765</v>
+        <v>6804761</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6392,7 +6392,7 @@
         <v>131046722</v>
       </c>
       <c r="B55" t="n">
-        <v>79275</v>
+        <v>79276</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>131046944</v>
       </c>
       <c r="B56" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>131046924</v>
       </c>
       <c r="B57" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>131046969</v>
       </c>
       <c r="B58" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>131046926</v>
       </c>
       <c r="B59" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>131046925</v>
       </c>
       <c r="B60" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7031,10 +7031,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131046760</v>
+        <v>131046904</v>
       </c>
       <c r="B61" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7042,39 +7042,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>395448</v>
+        <v>395385</v>
       </c>
       <c r="R61" t="n">
-        <v>6804572</v>
+        <v>6804578</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7106,7 +7101,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7116,7 +7111,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7143,10 +7138,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131046904</v>
+        <v>131046983</v>
       </c>
       <c r="B62" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7178,10 +7173,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>395385</v>
+        <v>395515</v>
       </c>
       <c r="R62" t="n">
-        <v>6804578</v>
+        <v>6804694</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7213,7 +7208,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7223,7 +7218,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7250,10 +7245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131046983</v>
+        <v>131046939</v>
       </c>
       <c r="B63" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7285,10 +7280,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395515</v>
+        <v>395446</v>
       </c>
       <c r="R63" t="n">
-        <v>6804694</v>
+        <v>6804659</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7320,7 +7315,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7330,7 +7325,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7357,10 +7352,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131046939</v>
+        <v>131046760</v>
       </c>
       <c r="B64" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7368,34 +7363,39 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395446</v>
+        <v>395448</v>
       </c>
       <c r="R64" t="n">
-        <v>6804659</v>
+        <v>6804572</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7464,10 +7464,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131046961</v>
+        <v>131046723</v>
       </c>
       <c r="B65" t="n">
-        <v>79243</v>
+        <v>79276</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7475,21 +7475,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7499,10 +7499,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>395403</v>
+        <v>395447</v>
       </c>
       <c r="R65" t="n">
-        <v>6804693</v>
+        <v>6804620</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7571,10 +7571,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131046723</v>
+        <v>131046961</v>
       </c>
       <c r="B66" t="n">
-        <v>79275</v>
+        <v>79244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7582,21 +7582,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7606,10 +7606,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>395447</v>
+        <v>395403</v>
       </c>
       <c r="R66" t="n">
-        <v>6804620</v>
+        <v>6804693</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7681,7 +7681,7 @@
         <v>131046943</v>
       </c>
       <c r="B67" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>131047026</v>
       </c>
       <c r="B68" t="n">
-        <v>78909</v>
+        <v>78910</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>131046917</v>
       </c>
       <c r="B69" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>131046717</v>
       </c>
       <c r="B70" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>131046921</v>
       </c>
       <c r="B71" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>131046930</v>
       </c>
       <c r="B72" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>131046923</v>
       </c>
       <c r="B73" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8427,10 +8427,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131046916</v>
+        <v>131046933</v>
       </c>
       <c r="B74" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8462,10 +8462,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395367</v>
+        <v>395458</v>
       </c>
       <c r="R74" t="n">
-        <v>6804698</v>
+        <v>6804762</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8497,7 +8497,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8534,10 +8534,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131046933</v>
+        <v>131047012</v>
       </c>
       <c r="B75" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8545,34 +8545,39 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395458</v>
+        <v>395446</v>
       </c>
       <c r="R75" t="n">
-        <v>6804762</v>
+        <v>6804659</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8604,7 +8609,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8614,14 +8619,19 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD75" t="b">
         <v>0</v>
       </c>
       <c r="AE75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG75" t="b">
         <v>0</v>
@@ -8641,10 +8651,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131047012</v>
+        <v>131046916</v>
       </c>
       <c r="B76" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8652,39 +8662,34 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>395446</v>
+        <v>395367</v>
       </c>
       <c r="R76" t="n">
-        <v>6804659</v>
+        <v>6804698</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8716,7 +8721,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -8726,19 +8731,14 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
       <c r="AE76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG76" t="b">
         <v>0</v>
@@ -8758,10 +8758,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131046913</v>
+        <v>131046911</v>
       </c>
       <c r="B77" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8793,10 +8793,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>395387</v>
+        <v>395395</v>
       </c>
       <c r="R77" t="n">
-        <v>6804675</v>
+        <v>6804651</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -8865,10 +8865,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131046958</v>
+        <v>131046913</v>
       </c>
       <c r="B78" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8900,10 +8900,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>395430</v>
+        <v>395387</v>
       </c>
       <c r="R78" t="n">
-        <v>6804615</v>
+        <v>6804675</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -8972,10 +8972,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131046911</v>
+        <v>131046958</v>
       </c>
       <c r="B79" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -9007,10 +9007,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>395395</v>
+        <v>395430</v>
       </c>
       <c r="R79" t="n">
-        <v>6804651</v>
+        <v>6804615</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9079,10 +9079,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131046905</v>
+        <v>131046962</v>
       </c>
       <c r="B80" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9114,10 +9114,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>395392</v>
+        <v>395389</v>
       </c>
       <c r="R80" t="n">
-        <v>6804583</v>
+        <v>6804711</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9149,7 +9149,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -9159,7 +9159,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9186,10 +9186,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131046962</v>
+        <v>131047001</v>
       </c>
       <c r="B81" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9221,10 +9221,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395389</v>
+        <v>395505</v>
       </c>
       <c r="R81" t="n">
-        <v>6804711</v>
+        <v>6804590</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9293,10 +9293,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131046781</v>
+        <v>131046976</v>
       </c>
       <c r="B82" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9304,39 +9304,34 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P82" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>395473</v>
+        <v>395525</v>
       </c>
       <c r="R82" t="n">
-        <v>6804805</v>
+        <v>6804757</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9368,7 +9363,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -9378,12 +9373,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>11:58</t>
-        </is>
-      </c>
-      <c r="AC82" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9410,10 +9400,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131047001</v>
+        <v>131046931</v>
       </c>
       <c r="B83" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9445,10 +9435,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>395505</v>
+        <v>395443</v>
       </c>
       <c r="R83" t="n">
-        <v>6804590</v>
+        <v>6804778</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9480,7 +9470,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9490,7 +9480,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9517,10 +9507,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131046929</v>
+        <v>131046905</v>
       </c>
       <c r="B84" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9552,10 +9542,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>395420</v>
+        <v>395392</v>
       </c>
       <c r="R84" t="n">
-        <v>6804798</v>
+        <v>6804583</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9587,7 +9577,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -9597,7 +9587,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9624,10 +9614,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131046976</v>
+        <v>131046929</v>
       </c>
       <c r="B85" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9659,10 +9649,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>395525</v>
+        <v>395420</v>
       </c>
       <c r="R85" t="n">
-        <v>6804757</v>
+        <v>6804798</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9694,7 +9684,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -9704,7 +9694,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9731,10 +9721,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131046931</v>
+        <v>131046781</v>
       </c>
       <c r="B86" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9742,34 +9732,39 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>395443</v>
+        <v>395473</v>
       </c>
       <c r="R86" t="n">
-        <v>6804778</v>
+        <v>6804805</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9801,7 +9796,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -9811,7 +9806,12 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9841,7 +9841,7 @@
         <v>131046978</v>
       </c>
       <c r="B87" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>131046990</v>
       </c>
       <c r="B92" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10520,10 +10520,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046984</v>
+        <v>131046804</v>
       </c>
       <c r="B93" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10531,21 +10531,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10555,10 +10555,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395531</v>
+        <v>395367</v>
       </c>
       <c r="R93" t="n">
-        <v>6804688</v>
+        <v>6804754</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10590,7 +10590,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10627,10 +10627,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046718</v>
+        <v>131046984</v>
       </c>
       <c r="B94" t="n">
-        <v>83223</v>
+        <v>79244</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10638,21 +10638,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -10662,10 +10662,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395471</v>
+        <v>395531</v>
       </c>
       <c r="R94" t="n">
-        <v>6804595</v>
+        <v>6804688</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10697,7 +10697,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10707,7 +10707,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10734,10 +10734,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131046804</v>
+        <v>131046718</v>
       </c>
       <c r="B95" t="n">
-        <v>79000</v>
+        <v>83224</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10745,21 +10745,21 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6446</v>
+        <v>6440</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -10769,10 +10769,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>395367</v>
+        <v>395471</v>
       </c>
       <c r="R95" t="n">
-        <v>6804754</v>
+        <v>6804595</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10804,7 +10804,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -10814,7 +10814,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10844,7 +10844,7 @@
         <v>131046715</v>
       </c>
       <c r="B96" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10948,10 +10948,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131046912</v>
+        <v>131046906</v>
       </c>
       <c r="B97" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10983,10 +10983,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395382</v>
+        <v>395395</v>
       </c>
       <c r="R97" t="n">
-        <v>6804661</v>
+        <v>6804604</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11018,7 +11018,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11058,7 +11058,7 @@
         <v>131046928</v>
       </c>
       <c r="B98" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -11162,32 +11162,32 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131046985</v>
+        <v>131046794</v>
       </c>
       <c r="B99" t="n">
-        <v>79243</v>
+        <v>57076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6425</v>
+        <v>102613</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11197,10 +11197,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395531</v>
+        <v>395383</v>
       </c>
       <c r="R99" t="n">
-        <v>6804664</v>
+        <v>6804574</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11232,7 +11232,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11242,7 +11242,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11272,7 +11272,7 @@
         <v>131046797</v>
       </c>
       <c r="B100" t="n">
-        <v>79001</v>
+        <v>79002</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11376,10 +11376,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131046906</v>
+        <v>131046985</v>
       </c>
       <c r="B101" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11411,10 +11411,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395395</v>
+        <v>395531</v>
       </c>
       <c r="R101" t="n">
-        <v>6804604</v>
+        <v>6804664</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11483,10 +11483,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131046975</v>
+        <v>131046912</v>
       </c>
       <c r="B102" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395535</v>
+        <v>395382</v>
       </c>
       <c r="R102" t="n">
-        <v>6804771</v>
+        <v>6804661</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11590,32 +11590,32 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>131046794</v>
+        <v>131046975</v>
       </c>
       <c r="B103" t="n">
-        <v>57076</v>
+        <v>79244</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>102613</v>
+        <v>6425</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11625,10 +11625,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>395383</v>
+        <v>395535</v>
       </c>
       <c r="R103" t="n">
-        <v>6804574</v>
+        <v>6804771</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11660,7 +11660,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD103" t="b">

--- a/artfynd/A 58063-2025 artfynd.xlsx
+++ b/artfynd/A 58063-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046989</v>
+        <v>131046977</v>
       </c>
       <c r="B2" t="n">
         <v>79244</v>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395484</v>
+        <v>395528</v>
       </c>
       <c r="R2" t="n">
-        <v>6804617</v>
+        <v>6804736</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046915</v>
+        <v>131046989</v>
       </c>
       <c r="B3" t="n">
         <v>79244</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395373</v>
+        <v>395484</v>
       </c>
       <c r="R3" t="n">
-        <v>6804690</v>
+        <v>6804617</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046977</v>
+        <v>131046915</v>
       </c>
       <c r="B6" t="n">
         <v>79244</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395528</v>
+        <v>395373</v>
       </c>
       <c r="R6" t="n">
-        <v>6804736</v>
+        <v>6804690</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1215,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046965</v>
+        <v>131046758</v>
       </c>
       <c r="B7" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1226,34 +1226,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395396</v>
+        <v>395526</v>
       </c>
       <c r="R7" t="n">
-        <v>6804747</v>
+        <v>6804768</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1285,7 +1290,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1295,7 +1300,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1322,10 +1327,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046927</v>
+        <v>131046767</v>
       </c>
       <c r="B8" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1333,34 +1338,42 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395404</v>
+        <v>395395</v>
       </c>
       <c r="R8" t="n">
-        <v>6804786</v>
+        <v>6804584</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1392,7 +1405,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1402,7 +1415,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1429,7 +1447,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046910</v>
+        <v>131046940</v>
       </c>
       <c r="B9" t="n">
         <v>79244</v>
@@ -1464,10 +1482,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395389</v>
+        <v>395441</v>
       </c>
       <c r="R9" t="n">
-        <v>6804638</v>
+        <v>6804637</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1499,7 +1517,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1509,7 +1527,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1536,7 +1554,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046940</v>
+        <v>131046965</v>
       </c>
       <c r="B10" t="n">
         <v>79244</v>
@@ -1571,10 +1589,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395441</v>
+        <v>395396</v>
       </c>
       <c r="R10" t="n">
-        <v>6804637</v>
+        <v>6804747</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1606,7 +1624,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1616,7 +1634,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1750,7 +1768,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046938</v>
+        <v>131046927</v>
       </c>
       <c r="B12" t="n">
         <v>79244</v>
@@ -1785,10 +1803,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395437</v>
+        <v>395404</v>
       </c>
       <c r="R12" t="n">
-        <v>6804676</v>
+        <v>6804786</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1820,7 +1838,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1830,7 +1848,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1857,10 +1875,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046758</v>
+        <v>131046910</v>
       </c>
       <c r="B13" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1868,39 +1886,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395526</v>
+        <v>395389</v>
       </c>
       <c r="R13" t="n">
-        <v>6804768</v>
+        <v>6804638</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1932,7 +1945,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1942,7 +1955,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1969,10 +1982,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046767</v>
+        <v>131046938</v>
       </c>
       <c r="B14" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1980,42 +1993,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395395</v>
+        <v>395437</v>
       </c>
       <c r="R14" t="n">
-        <v>6804584</v>
+        <v>6804676</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2047,7 +2052,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2057,12 +2062,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>10:44</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2089,10 +2089,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131047000</v>
+        <v>131046800</v>
       </c>
       <c r="B15" t="n">
-        <v>79244</v>
+        <v>81229</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2100,21 +2100,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395494</v>
+        <v>395387</v>
       </c>
       <c r="R15" t="n">
-        <v>6804583</v>
+        <v>6804626</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2196,7 +2196,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131046986</v>
+        <v>131046907</v>
       </c>
       <c r="B16" t="n">
         <v>79244</v>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395520</v>
+        <v>395411</v>
       </c>
       <c r="R16" t="n">
-        <v>6804657</v>
+        <v>6804605</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2303,7 +2303,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131047002</v>
+        <v>131047000</v>
       </c>
       <c r="B17" t="n">
         <v>79244</v>
@@ -2338,10 +2338,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395503</v>
+        <v>395494</v>
       </c>
       <c r="R17" t="n">
-        <v>6804603</v>
+        <v>6804583</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2410,7 +2410,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046968</v>
+        <v>131046986</v>
       </c>
       <c r="B18" t="n">
         <v>79244</v>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395412</v>
+        <v>395520</v>
       </c>
       <c r="R18" t="n">
-        <v>6804755</v>
+        <v>6804657</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2517,10 +2517,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131046800</v>
+        <v>131047002</v>
       </c>
       <c r="B19" t="n">
-        <v>81229</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2528,21 +2528,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395387</v>
+        <v>395503</v>
       </c>
       <c r="R19" t="n">
-        <v>6804626</v>
+        <v>6804603</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2624,7 +2624,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131046907</v>
+        <v>131046968</v>
       </c>
       <c r="B20" t="n">
         <v>79244</v>
@@ -2659,10 +2659,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395411</v>
+        <v>395412</v>
       </c>
       <c r="R20" t="n">
-        <v>6804605</v>
+        <v>6804755</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3500,10 +3500,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131046801</v>
+        <v>131046945</v>
       </c>
       <c r="B28" t="n">
-        <v>81229</v>
+        <v>79244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3511,21 +3511,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3535,10 +3535,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>395526</v>
+        <v>395448</v>
       </c>
       <c r="R28" t="n">
-        <v>6804768</v>
+        <v>6804579</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3714,10 +3714,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046937</v>
+        <v>131046801</v>
       </c>
       <c r="B30" t="n">
-        <v>79244</v>
+        <v>81229</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3725,21 +3725,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3749,10 +3749,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395433</v>
+        <v>395526</v>
       </c>
       <c r="R30" t="n">
-        <v>6804692</v>
+        <v>6804768</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3821,7 +3821,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046991</v>
+        <v>131046937</v>
       </c>
       <c r="B31" t="n">
         <v>79244</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395479</v>
+        <v>395433</v>
       </c>
       <c r="R31" t="n">
-        <v>6804588</v>
+        <v>6804692</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3928,7 +3928,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046945</v>
+        <v>131046991</v>
       </c>
       <c r="B32" t="n">
         <v>79244</v>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395448</v>
+        <v>395479</v>
       </c>
       <c r="R32" t="n">
-        <v>6804579</v>
+        <v>6804588</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4784,7 +4784,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131046935</v>
+        <v>131046941</v>
       </c>
       <c r="B40" t="n">
         <v>79244</v>
@@ -4819,10 +4819,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395438</v>
+        <v>395442</v>
       </c>
       <c r="R40" t="n">
-        <v>6804735</v>
+        <v>6804622</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4891,7 +4891,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131046932</v>
+        <v>131046935</v>
       </c>
       <c r="B41" t="n">
         <v>79244</v>
@@ -4926,10 +4926,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>395455</v>
+        <v>395438</v>
       </c>
       <c r="R41" t="n">
-        <v>6804767</v>
+        <v>6804735</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4998,7 +4998,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131046979</v>
+        <v>131046980</v>
       </c>
       <c r="B42" t="n">
         <v>79244</v>
@@ -5033,10 +5033,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395499</v>
+        <v>395494</v>
       </c>
       <c r="R42" t="n">
-        <v>6804721</v>
+        <v>6804716</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5105,7 +5105,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131046980</v>
+        <v>131046979</v>
       </c>
       <c r="B43" t="n">
         <v>79244</v>
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>395494</v>
+        <v>395499</v>
       </c>
       <c r="R43" t="n">
-        <v>6804716</v>
+        <v>6804721</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5212,7 +5212,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131046920</v>
+        <v>131046918</v>
       </c>
       <c r="B44" t="n">
         <v>79244</v>
@@ -5250,7 +5250,7 @@
         <v>395369</v>
       </c>
       <c r="R44" t="n">
-        <v>6804738</v>
+        <v>6804718</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5319,7 +5319,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131046919</v>
+        <v>131046920</v>
       </c>
       <c r="B45" t="n">
         <v>79244</v>
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395363</v>
+        <v>395369</v>
       </c>
       <c r="R45" t="n">
-        <v>6804723</v>
+        <v>6804738</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5426,7 +5426,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046936</v>
+        <v>131046919</v>
       </c>
       <c r="B46" t="n">
         <v>79244</v>
@@ -5461,10 +5461,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395431</v>
+        <v>395363</v>
       </c>
       <c r="R46" t="n">
-        <v>6804712</v>
+        <v>6804723</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5533,7 +5533,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131046988</v>
+        <v>131046932</v>
       </c>
       <c r="B47" t="n">
         <v>79244</v>
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>395491</v>
+        <v>395455</v>
       </c>
       <c r="R47" t="n">
-        <v>6804630</v>
+        <v>6804767</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5640,7 +5640,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131046941</v>
+        <v>131046936</v>
       </c>
       <c r="B48" t="n">
         <v>79244</v>
@@ -5675,10 +5675,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>395442</v>
+        <v>395431</v>
       </c>
       <c r="R48" t="n">
-        <v>6804622</v>
+        <v>6804712</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5747,7 +5747,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131046918</v>
+        <v>131046988</v>
       </c>
       <c r="B49" t="n">
         <v>79244</v>
@@ -5782,10 +5782,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>395369</v>
+        <v>395491</v>
       </c>
       <c r="R49" t="n">
-        <v>6804718</v>
+        <v>6804630</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5854,7 +5854,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131046982</v>
+        <v>131046967</v>
       </c>
       <c r="B50" t="n">
         <v>79244</v>
@@ -5889,10 +5889,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395507</v>
+        <v>395410</v>
       </c>
       <c r="R50" t="n">
-        <v>6804695</v>
+        <v>6804765</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5961,7 +5961,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131046960</v>
+        <v>131046959</v>
       </c>
       <c r="B51" t="n">
         <v>79244</v>
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395414</v>
+        <v>395420</v>
       </c>
       <c r="R51" t="n">
-        <v>6804670</v>
+        <v>6804656</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6068,10 +6068,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131046967</v>
+        <v>131046716</v>
       </c>
       <c r="B52" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6079,21 +6079,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395410</v>
+        <v>395401</v>
       </c>
       <c r="R52" t="n">
-        <v>6804765</v>
+        <v>6804761</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131046959</v>
+        <v>131046960</v>
       </c>
       <c r="B53" t="n">
         <v>79244</v>
@@ -6210,10 +6210,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>395420</v>
+        <v>395414</v>
       </c>
       <c r="R53" t="n">
-        <v>6804656</v>
+        <v>6804670</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6282,10 +6282,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131046716</v>
+        <v>131046982</v>
       </c>
       <c r="B54" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6293,21 +6293,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6317,10 +6317,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>395401</v>
+        <v>395507</v>
       </c>
       <c r="R54" t="n">
-        <v>6804761</v>
+        <v>6804695</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6496,7 +6496,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131046944</v>
+        <v>131046969</v>
       </c>
       <c r="B56" t="n">
         <v>79244</v>
@@ -6531,10 +6531,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>395449</v>
+        <v>395464</v>
       </c>
       <c r="R56" t="n">
-        <v>6804589</v>
+        <v>6804807</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6603,7 +6603,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046924</v>
+        <v>131046944</v>
       </c>
       <c r="B57" t="n">
         <v>79244</v>
@@ -6638,10 +6638,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395373</v>
+        <v>395449</v>
       </c>
       <c r="R57" t="n">
-        <v>6804784</v>
+        <v>6804589</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6710,7 +6710,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131046969</v>
+        <v>131046924</v>
       </c>
       <c r="B58" t="n">
         <v>79244</v>
@@ -6745,10 +6745,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395464</v>
+        <v>395373</v>
       </c>
       <c r="R58" t="n">
-        <v>6804807</v>
+        <v>6804784</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7999,10 +7999,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131046717</v>
+        <v>131046921</v>
       </c>
       <c r="B70" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8010,21 +8010,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8034,10 +8034,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>395464</v>
+        <v>395357</v>
       </c>
       <c r="R70" t="n">
-        <v>6804807</v>
+        <v>6804752</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8106,10 +8106,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131046921</v>
+        <v>131046717</v>
       </c>
       <c r="B71" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8117,21 +8117,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8141,10 +8141,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395357</v>
+        <v>395464</v>
       </c>
       <c r="R71" t="n">
-        <v>6804752</v>
+        <v>6804807</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8213,7 +8213,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131046930</v>
+        <v>131046923</v>
       </c>
       <c r="B72" t="n">
         <v>79244</v>
@@ -8248,10 +8248,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>395446</v>
+        <v>395364</v>
       </c>
       <c r="R72" t="n">
-        <v>6804802</v>
+        <v>6804764</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8293,7 +8293,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8320,7 +8320,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131046923</v>
+        <v>131046933</v>
       </c>
       <c r="B73" t="n">
         <v>79244</v>
@@ -8355,10 +8355,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>395364</v>
+        <v>395458</v>
       </c>
       <c r="R73" t="n">
-        <v>6804764</v>
+        <v>6804762</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8390,7 +8390,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8400,7 +8400,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8427,7 +8427,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131046933</v>
+        <v>131046930</v>
       </c>
       <c r="B74" t="n">
         <v>79244</v>
@@ -8462,10 +8462,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395458</v>
+        <v>395446</v>
       </c>
       <c r="R74" t="n">
-        <v>6804762</v>
+        <v>6804802</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8497,7 +8497,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8534,10 +8534,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131047012</v>
+        <v>131046916</v>
       </c>
       <c r="B75" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8545,39 +8545,34 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395446</v>
+        <v>395367</v>
       </c>
       <c r="R75" t="n">
-        <v>6804659</v>
+        <v>6804698</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8609,7 +8604,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8619,19 +8614,14 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="AC75" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD75" t="b">
         <v>0</v>
       </c>
       <c r="AE75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG75" t="b">
         <v>0</v>
@@ -8651,10 +8641,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131046916</v>
+        <v>131047012</v>
       </c>
       <c r="B76" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8662,34 +8652,39 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>395367</v>
+        <v>395446</v>
       </c>
       <c r="R76" t="n">
-        <v>6804698</v>
+        <v>6804659</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8721,7 +8716,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -8731,14 +8726,19 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
       <c r="AE76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG76" t="b">
         <v>0</v>
@@ -8758,7 +8758,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131046911</v>
+        <v>131046913</v>
       </c>
       <c r="B77" t="n">
         <v>79244</v>
@@ -8793,10 +8793,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>395395</v>
+        <v>395387</v>
       </c>
       <c r="R77" t="n">
-        <v>6804651</v>
+        <v>6804675</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -8865,7 +8865,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131046913</v>
+        <v>131046911</v>
       </c>
       <c r="B78" t="n">
         <v>79244</v>
@@ -8900,10 +8900,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>395387</v>
+        <v>395395</v>
       </c>
       <c r="R78" t="n">
-        <v>6804675</v>
+        <v>6804651</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9186,7 +9186,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131047001</v>
+        <v>131046929</v>
       </c>
       <c r="B81" t="n">
         <v>79244</v>
@@ -9221,10 +9221,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395505</v>
+        <v>395420</v>
       </c>
       <c r="R81" t="n">
-        <v>6804590</v>
+        <v>6804798</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9293,7 +9293,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131046976</v>
+        <v>131046931</v>
       </c>
       <c r="B82" t="n">
         <v>79244</v>
@@ -9328,10 +9328,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>395525</v>
+        <v>395443</v>
       </c>
       <c r="R82" t="n">
-        <v>6804757</v>
+        <v>6804778</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9363,7 +9363,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -9373,7 +9373,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9400,7 +9400,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131046931</v>
+        <v>131047001</v>
       </c>
       <c r="B83" t="n">
         <v>79244</v>
@@ -9435,10 +9435,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>395443</v>
+        <v>395505</v>
       </c>
       <c r="R83" t="n">
-        <v>6804778</v>
+        <v>6804590</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9470,7 +9470,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9480,7 +9480,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9507,7 +9507,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131046905</v>
+        <v>131046976</v>
       </c>
       <c r="B84" t="n">
         <v>79244</v>
@@ -9542,10 +9542,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>395392</v>
+        <v>395525</v>
       </c>
       <c r="R84" t="n">
-        <v>6804583</v>
+        <v>6804757</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -9587,7 +9587,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9614,7 +9614,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131046929</v>
+        <v>131046905</v>
       </c>
       <c r="B85" t="n">
         <v>79244</v>
@@ -9649,10 +9649,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>395420</v>
+        <v>395392</v>
       </c>
       <c r="R85" t="n">
-        <v>6804798</v>
+        <v>6804583</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10179,10 +10179,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131046791</v>
+        <v>131046990</v>
       </c>
       <c r="B90" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10190,39 +10190,34 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P90" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>395362</v>
+        <v>395474</v>
       </c>
       <c r="R90" t="n">
-        <v>6804701</v>
+        <v>6804600</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10254,7 +10249,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -10264,12 +10259,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>11:10</t>
-        </is>
-      </c>
-      <c r="AC90" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10296,10 +10286,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131046778</v>
+        <v>131046984</v>
       </c>
       <c r="B91" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10307,39 +10297,34 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P91" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>395366</v>
+        <v>395531</v>
       </c>
       <c r="R91" t="n">
-        <v>6804690</v>
+        <v>6804688</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10371,7 +10356,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10381,12 +10366,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>11:09</t>
-        </is>
-      </c>
-      <c r="AC91" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10413,10 +10393,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046990</v>
+        <v>131046791</v>
       </c>
       <c r="B92" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10424,34 +10404,39 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P92" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395474</v>
+        <v>395362</v>
       </c>
       <c r="R92" t="n">
-        <v>6804600</v>
+        <v>6804701</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10483,7 +10468,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10493,7 +10478,12 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="AC92" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10520,10 +10510,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046804</v>
+        <v>131046778</v>
       </c>
       <c r="B93" t="n">
-        <v>79001</v>
+        <v>57884</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10531,34 +10521,39 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6446</v>
+        <v>100109</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P93" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395367</v>
+        <v>395366</v>
       </c>
       <c r="R93" t="n">
-        <v>6804754</v>
+        <v>6804690</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10590,7 +10585,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10600,7 +10595,12 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>11:09</t>
+        </is>
+      </c>
+      <c r="AC93" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10627,10 +10627,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046984</v>
+        <v>131046804</v>
       </c>
       <c r="B94" t="n">
-        <v>79244</v>
+        <v>79001</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10638,21 +10638,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -10662,10 +10662,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395531</v>
+        <v>395367</v>
       </c>
       <c r="R94" t="n">
-        <v>6804688</v>
+        <v>6804754</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10697,7 +10697,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10707,7 +10707,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10948,7 +10948,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131046906</v>
+        <v>131046985</v>
       </c>
       <c r="B97" t="n">
         <v>79244</v>
@@ -10983,10 +10983,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395395</v>
+        <v>395531</v>
       </c>
       <c r="R97" t="n">
-        <v>6804604</v>
+        <v>6804664</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11018,7 +11018,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11055,7 +11055,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131046928</v>
+        <v>131046912</v>
       </c>
       <c r="B98" t="n">
         <v>79244</v>
@@ -11090,10 +11090,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395417</v>
+        <v>395382</v>
       </c>
       <c r="R98" t="n">
-        <v>6804797</v>
+        <v>6804661</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11162,32 +11162,32 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131046794</v>
+        <v>131046906</v>
       </c>
       <c r="B99" t="n">
-        <v>57076</v>
+        <v>79244</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>102613</v>
+        <v>6425</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11197,10 +11197,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395383</v>
+        <v>395395</v>
       </c>
       <c r="R99" t="n">
-        <v>6804574</v>
+        <v>6804604</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11232,7 +11232,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11242,7 +11242,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11269,10 +11269,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131046797</v>
+        <v>131046928</v>
       </c>
       <c r="B100" t="n">
-        <v>79002</v>
+        <v>79244</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11280,21 +11280,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11304,10 +11304,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395367</v>
+        <v>395417</v>
       </c>
       <c r="R100" t="n">
-        <v>6804754</v>
+        <v>6804797</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11376,7 +11376,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131046985</v>
+        <v>131046975</v>
       </c>
       <c r="B101" t="n">
         <v>79244</v>
@@ -11411,10 +11411,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395531</v>
+        <v>395535</v>
       </c>
       <c r="R101" t="n">
-        <v>6804664</v>
+        <v>6804771</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11483,10 +11483,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131046912</v>
+        <v>131046797</v>
       </c>
       <c r="B102" t="n">
-        <v>79244</v>
+        <v>79002</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11494,21 +11494,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395382</v>
+        <v>395367</v>
       </c>
       <c r="R102" t="n">
-        <v>6804661</v>
+        <v>6804754</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11590,32 +11590,32 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>131046975</v>
+        <v>131046794</v>
       </c>
       <c r="B103" t="n">
-        <v>79244</v>
+        <v>57076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6425</v>
+        <v>102613</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11625,10 +11625,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>395535</v>
+        <v>395383</v>
       </c>
       <c r="R103" t="n">
-        <v>6804771</v>
+        <v>6804574</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11660,7 +11660,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD103" t="b">

--- a/artfynd/A 58063-2025 artfynd.xlsx
+++ b/artfynd/A 58063-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046977</v>
+        <v>131046942</v>
       </c>
       <c r="B2" t="n">
         <v>79244</v>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395528</v>
+        <v>395445</v>
       </c>
       <c r="R2" t="n">
-        <v>6804736</v>
+        <v>6804607</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046989</v>
+        <v>131046971</v>
       </c>
       <c r="B3" t="n">
         <v>79244</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395484</v>
+        <v>395487</v>
       </c>
       <c r="R3" t="n">
-        <v>6804617</v>
+        <v>6804812</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,7 +894,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046942</v>
+        <v>131046977</v>
       </c>
       <c r="B4" t="n">
         <v>79244</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395445</v>
+        <v>395528</v>
       </c>
       <c r="R4" t="n">
-        <v>6804607</v>
+        <v>6804736</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1001,7 +1001,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046971</v>
+        <v>131046989</v>
       </c>
       <c r="B5" t="n">
         <v>79244</v>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395487</v>
+        <v>395484</v>
       </c>
       <c r="R5" t="n">
-        <v>6804812</v>
+        <v>6804617</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1215,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046758</v>
+        <v>131046927</v>
       </c>
       <c r="B7" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1226,39 +1226,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395526</v>
+        <v>395404</v>
       </c>
       <c r="R7" t="n">
-        <v>6804768</v>
+        <v>6804786</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1290,7 +1285,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1300,7 +1295,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1327,10 +1322,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046767</v>
+        <v>131046940</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1338,42 +1333,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395395</v>
+        <v>395441</v>
       </c>
       <c r="R8" t="n">
-        <v>6804584</v>
+        <v>6804637</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1405,7 +1392,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1415,12 +1402,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:44</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1447,7 +1429,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046940</v>
+        <v>131046965</v>
       </c>
       <c r="B9" t="n">
         <v>79244</v>
@@ -1482,10 +1464,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395441</v>
+        <v>395396</v>
       </c>
       <c r="R9" t="n">
-        <v>6804637</v>
+        <v>6804747</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1517,7 +1499,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1527,7 +1509,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1554,7 +1536,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046965</v>
+        <v>131046910</v>
       </c>
       <c r="B10" t="n">
         <v>79244</v>
@@ -1589,10 +1571,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395396</v>
+        <v>395389</v>
       </c>
       <c r="R10" t="n">
-        <v>6804747</v>
+        <v>6804638</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1624,7 +1606,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1634,7 +1616,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1768,10 +1750,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046927</v>
+        <v>131046767</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1779,34 +1761,42 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395404</v>
+        <v>395395</v>
       </c>
       <c r="R12" t="n">
-        <v>6804786</v>
+        <v>6804584</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1838,7 +1828,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1848,7 +1838,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1875,7 +1870,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046910</v>
+        <v>131046938</v>
       </c>
       <c r="B13" t="n">
         <v>79244</v>
@@ -1910,10 +1905,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395389</v>
+        <v>395437</v>
       </c>
       <c r="R13" t="n">
-        <v>6804638</v>
+        <v>6804676</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1945,7 +1940,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1955,7 +1950,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1982,10 +1977,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046938</v>
+        <v>131046758</v>
       </c>
       <c r="B14" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1993,34 +1988,39 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395437</v>
+        <v>395526</v>
       </c>
       <c r="R14" t="n">
-        <v>6804676</v>
+        <v>6804768</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2089,10 +2089,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046800</v>
+        <v>131046907</v>
       </c>
       <c r="B15" t="n">
-        <v>81229</v>
+        <v>79244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2100,21 +2100,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395387</v>
+        <v>395411</v>
       </c>
       <c r="R15" t="n">
-        <v>6804626</v>
+        <v>6804605</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2196,10 +2196,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131046907</v>
+        <v>131046800</v>
       </c>
       <c r="B16" t="n">
-        <v>79244</v>
+        <v>81229</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2207,21 +2207,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395411</v>
+        <v>395387</v>
       </c>
       <c r="R16" t="n">
-        <v>6804605</v>
+        <v>6804626</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2731,10 +2731,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131047027</v>
+        <v>131046714</v>
       </c>
       <c r="B21" t="n">
-        <v>78910</v>
+        <v>83224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2742,21 +2742,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>353</v>
+        <v>6440</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2766,10 +2766,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395391</v>
+        <v>395419</v>
       </c>
       <c r="R21" t="n">
-        <v>6804697</v>
+        <v>6804801</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2838,10 +2838,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131046714</v>
+        <v>131046963</v>
       </c>
       <c r="B22" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2849,21 +2849,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395419</v>
+        <v>395386</v>
       </c>
       <c r="R22" t="n">
-        <v>6804801</v>
+        <v>6804723</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2945,7 +2945,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131046963</v>
+        <v>131046972</v>
       </c>
       <c r="B23" t="n">
         <v>79244</v>
@@ -2980,10 +2980,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395386</v>
+        <v>395524</v>
       </c>
       <c r="R23" t="n">
-        <v>6804723</v>
+        <v>6804798</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3052,7 +3052,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131046972</v>
+        <v>131046922</v>
       </c>
       <c r="B24" t="n">
         <v>79244</v>
@@ -3087,10 +3087,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395524</v>
+        <v>395365</v>
       </c>
       <c r="R24" t="n">
-        <v>6804798</v>
+        <v>6804755</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3159,10 +3159,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131046922</v>
+        <v>131046792</v>
       </c>
       <c r="B25" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3170,34 +3170,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395365</v>
+        <v>395357</v>
       </c>
       <c r="R25" t="n">
-        <v>6804755</v>
+        <v>6804769</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3229,7 +3234,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3239,7 +3244,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:22</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3266,7 +3276,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131046792</v>
+        <v>131047020</v>
       </c>
       <c r="B26" t="n">
         <v>57884</v>
@@ -3306,10 +3316,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395357</v>
+        <v>395541</v>
       </c>
       <c r="R26" t="n">
-        <v>6804769</v>
+        <v>6804800</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3341,7 +3351,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3351,19 +3361,19 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Färska ringhack (gran)</t>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26" t="b">
         <v>0</v>
@@ -3383,10 +3393,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131047020</v>
+        <v>131047027</v>
       </c>
       <c r="B27" t="n">
-        <v>57884</v>
+        <v>78910</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3394,39 +3404,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>353</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>395541</v>
+        <v>395391</v>
       </c>
       <c r="R27" t="n">
-        <v>6804800</v>
+        <v>6804697</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3458,7 +3463,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3468,19 +3473,14 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:04</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="b">
         <v>0</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131046945</v>
+        <v>131046937</v>
       </c>
       <c r="B28" t="n">
         <v>79244</v>
@@ -3535,10 +3535,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>395448</v>
+        <v>395433</v>
       </c>
       <c r="R28" t="n">
-        <v>6804579</v>
+        <v>6804692</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3607,7 +3607,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131046964</v>
+        <v>131046991</v>
       </c>
       <c r="B29" t="n">
         <v>79244</v>
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>395381</v>
+        <v>395479</v>
       </c>
       <c r="R29" t="n">
-        <v>6804728</v>
+        <v>6804588</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3714,10 +3714,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046801</v>
+        <v>131046945</v>
       </c>
       <c r="B30" t="n">
-        <v>81229</v>
+        <v>79244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3725,21 +3725,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3749,10 +3749,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395526</v>
+        <v>395448</v>
       </c>
       <c r="R30" t="n">
-        <v>6804768</v>
+        <v>6804579</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3821,7 +3821,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046937</v>
+        <v>131046964</v>
       </c>
       <c r="B31" t="n">
         <v>79244</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395433</v>
+        <v>395381</v>
       </c>
       <c r="R31" t="n">
-        <v>6804692</v>
+        <v>6804728</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3928,7 +3928,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046991</v>
+        <v>131046914</v>
       </c>
       <c r="B32" t="n">
         <v>79244</v>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395479</v>
+        <v>395382</v>
       </c>
       <c r="R32" t="n">
-        <v>6804588</v>
+        <v>6804689</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4035,10 +4035,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131046914</v>
+        <v>131046801</v>
       </c>
       <c r="B33" t="n">
-        <v>79244</v>
+        <v>81229</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4046,21 +4046,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4070,10 +4070,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>395382</v>
+        <v>395526</v>
       </c>
       <c r="R33" t="n">
-        <v>6804689</v>
+        <v>6804768</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4784,7 +4784,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131046941</v>
+        <v>131046935</v>
       </c>
       <c r="B40" t="n">
         <v>79244</v>
@@ -4819,10 +4819,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395442</v>
+        <v>395438</v>
       </c>
       <c r="R40" t="n">
-        <v>6804622</v>
+        <v>6804735</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4891,7 +4891,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131046935</v>
+        <v>131046979</v>
       </c>
       <c r="B41" t="n">
         <v>79244</v>
@@ -4926,10 +4926,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>395438</v>
+        <v>395499</v>
       </c>
       <c r="R41" t="n">
-        <v>6804735</v>
+        <v>6804721</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4998,7 +4998,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131046980</v>
+        <v>131046941</v>
       </c>
       <c r="B42" t="n">
         <v>79244</v>
@@ -5033,10 +5033,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395494</v>
+        <v>395442</v>
       </c>
       <c r="R42" t="n">
-        <v>6804716</v>
+        <v>6804622</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5105,7 +5105,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131046979</v>
+        <v>131046918</v>
       </c>
       <c r="B43" t="n">
         <v>79244</v>
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>395499</v>
+        <v>395369</v>
       </c>
       <c r="R43" t="n">
-        <v>6804721</v>
+        <v>6804718</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5212,7 +5212,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131046918</v>
+        <v>131046980</v>
       </c>
       <c r="B44" t="n">
         <v>79244</v>
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>395369</v>
+        <v>395494</v>
       </c>
       <c r="R44" t="n">
-        <v>6804718</v>
+        <v>6804716</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5854,7 +5854,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131046967</v>
+        <v>131046982</v>
       </c>
       <c r="B50" t="n">
         <v>79244</v>
@@ -5889,10 +5889,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395410</v>
+        <v>395507</v>
       </c>
       <c r="R50" t="n">
-        <v>6804765</v>
+        <v>6804695</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5961,7 +5961,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131046959</v>
+        <v>131046960</v>
       </c>
       <c r="B51" t="n">
         <v>79244</v>
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395420</v>
+        <v>395414</v>
       </c>
       <c r="R51" t="n">
-        <v>6804656</v>
+        <v>6804670</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6068,10 +6068,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131046716</v>
+        <v>131046967</v>
       </c>
       <c r="B52" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6079,21 +6079,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395401</v>
+        <v>395410</v>
       </c>
       <c r="R52" t="n">
-        <v>6804761</v>
+        <v>6804765</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131046960</v>
+        <v>131046959</v>
       </c>
       <c r="B53" t="n">
         <v>79244</v>
@@ -6210,10 +6210,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>395414</v>
+        <v>395420</v>
       </c>
       <c r="R53" t="n">
-        <v>6804670</v>
+        <v>6804656</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6282,10 +6282,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131046982</v>
+        <v>131046716</v>
       </c>
       <c r="B54" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6293,21 +6293,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6317,10 +6317,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>395507</v>
+        <v>395401</v>
       </c>
       <c r="R54" t="n">
-        <v>6804695</v>
+        <v>6804761</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6389,10 +6389,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131046722</v>
+        <v>131046944</v>
       </c>
       <c r="B55" t="n">
-        <v>79276</v>
+        <v>79244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6400,21 +6400,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6424,10 +6424,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>395391</v>
+        <v>395449</v>
       </c>
       <c r="R55" t="n">
-        <v>6804603</v>
+        <v>6804589</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6496,7 +6496,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131046969</v>
+        <v>131046924</v>
       </c>
       <c r="B56" t="n">
         <v>79244</v>
@@ -6531,10 +6531,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>395464</v>
+        <v>395373</v>
       </c>
       <c r="R56" t="n">
-        <v>6804807</v>
+        <v>6804784</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6603,7 +6603,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046944</v>
+        <v>131046969</v>
       </c>
       <c r="B57" t="n">
         <v>79244</v>
@@ -6638,10 +6638,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395449</v>
+        <v>395464</v>
       </c>
       <c r="R57" t="n">
-        <v>6804589</v>
+        <v>6804807</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6710,7 +6710,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131046924</v>
+        <v>131046926</v>
       </c>
       <c r="B58" t="n">
         <v>79244</v>
@@ -6745,10 +6745,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395373</v>
+        <v>395395</v>
       </c>
       <c r="R58" t="n">
-        <v>6804784</v>
+        <v>6804786</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6817,10 +6817,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131046926</v>
+        <v>131046722</v>
       </c>
       <c r="B59" t="n">
-        <v>79244</v>
+        <v>79276</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6828,21 +6828,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6852,10 +6852,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>395395</v>
+        <v>395391</v>
       </c>
       <c r="R59" t="n">
-        <v>6804786</v>
+        <v>6804603</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7031,10 +7031,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131046904</v>
+        <v>131046760</v>
       </c>
       <c r="B61" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7042,34 +7042,39 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>395385</v>
+        <v>395448</v>
       </c>
       <c r="R61" t="n">
-        <v>6804578</v>
+        <v>6804572</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7101,7 +7106,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7111,7 +7116,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7138,7 +7143,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131046983</v>
+        <v>131046904</v>
       </c>
       <c r="B62" t="n">
         <v>79244</v>
@@ -7173,10 +7178,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>395515</v>
+        <v>395385</v>
       </c>
       <c r="R62" t="n">
-        <v>6804694</v>
+        <v>6804578</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7208,7 +7213,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7218,7 +7223,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7245,7 +7250,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131046939</v>
+        <v>131046983</v>
       </c>
       <c r="B63" t="n">
         <v>79244</v>
@@ -7280,10 +7285,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395446</v>
+        <v>395515</v>
       </c>
       <c r="R63" t="n">
-        <v>6804659</v>
+        <v>6804694</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7315,7 +7320,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7325,7 +7330,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7352,10 +7357,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131046760</v>
+        <v>131046939</v>
       </c>
       <c r="B64" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7363,39 +7368,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395448</v>
+        <v>395446</v>
       </c>
       <c r="R64" t="n">
-        <v>6804572</v>
+        <v>6804659</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7785,10 +7785,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131047026</v>
+        <v>131046917</v>
       </c>
       <c r="B68" t="n">
-        <v>78910</v>
+        <v>79244</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7796,21 +7796,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7820,10 +7820,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>395386</v>
+        <v>395365</v>
       </c>
       <c r="R68" t="n">
-        <v>6804628</v>
+        <v>6804704</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7892,10 +7892,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131046917</v>
+        <v>131046717</v>
       </c>
       <c r="B69" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7903,21 +7903,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7927,10 +7927,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395365</v>
+        <v>395464</v>
       </c>
       <c r="R69" t="n">
-        <v>6804704</v>
+        <v>6804807</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8106,10 +8106,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131046717</v>
+        <v>131047026</v>
       </c>
       <c r="B71" t="n">
-        <v>83224</v>
+        <v>78910</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8117,21 +8117,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6440</v>
+        <v>353</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8141,10 +8141,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395464</v>
+        <v>395386</v>
       </c>
       <c r="R71" t="n">
-        <v>6804807</v>
+        <v>6804628</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8213,10 +8213,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131046923</v>
+        <v>131047012</v>
       </c>
       <c r="B72" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8224,34 +8224,39 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>395364</v>
+        <v>395446</v>
       </c>
       <c r="R72" t="n">
-        <v>6804764</v>
+        <v>6804659</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8283,7 +8288,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8293,14 +8298,19 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD72" t="b">
         <v>0</v>
       </c>
       <c r="AE72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG72" t="b">
         <v>0</v>
@@ -8320,7 +8330,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131046933</v>
+        <v>131046930</v>
       </c>
       <c r="B73" t="n">
         <v>79244</v>
@@ -8355,10 +8365,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>395458</v>
+        <v>395446</v>
       </c>
       <c r="R73" t="n">
-        <v>6804762</v>
+        <v>6804802</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8390,7 +8400,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8400,7 +8410,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8427,7 +8437,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131046930</v>
+        <v>131046923</v>
       </c>
       <c r="B74" t="n">
         <v>79244</v>
@@ -8462,10 +8472,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395446</v>
+        <v>395364</v>
       </c>
       <c r="R74" t="n">
-        <v>6804802</v>
+        <v>6804764</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8497,7 +8507,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8507,7 +8517,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8534,7 +8544,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131046916</v>
+        <v>131046933</v>
       </c>
       <c r="B75" t="n">
         <v>79244</v>
@@ -8569,10 +8579,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395367</v>
+        <v>395458</v>
       </c>
       <c r="R75" t="n">
-        <v>6804698</v>
+        <v>6804762</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8604,7 +8614,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8614,7 +8624,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8641,10 +8651,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131047012</v>
+        <v>131046916</v>
       </c>
       <c r="B76" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8652,39 +8662,34 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>395446</v>
+        <v>395367</v>
       </c>
       <c r="R76" t="n">
-        <v>6804659</v>
+        <v>6804698</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8716,7 +8721,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -8726,19 +8731,14 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
       <c r="AE76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG76" t="b">
         <v>0</v>
@@ -9186,7 +9186,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131046929</v>
+        <v>131047001</v>
       </c>
       <c r="B81" t="n">
         <v>79244</v>
@@ -9221,10 +9221,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395420</v>
+        <v>395505</v>
       </c>
       <c r="R81" t="n">
-        <v>6804798</v>
+        <v>6804590</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9293,7 +9293,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131046931</v>
+        <v>131046976</v>
       </c>
       <c r="B82" t="n">
         <v>79244</v>
@@ -9328,10 +9328,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>395443</v>
+        <v>395525</v>
       </c>
       <c r="R82" t="n">
-        <v>6804778</v>
+        <v>6804757</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9363,7 +9363,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -9373,7 +9373,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9400,7 +9400,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131047001</v>
+        <v>131046931</v>
       </c>
       <c r="B83" t="n">
         <v>79244</v>
@@ -9435,10 +9435,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>395505</v>
+        <v>395443</v>
       </c>
       <c r="R83" t="n">
-        <v>6804590</v>
+        <v>6804778</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9470,7 +9470,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9480,7 +9480,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9507,7 +9507,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131046976</v>
+        <v>131046905</v>
       </c>
       <c r="B84" t="n">
         <v>79244</v>
@@ -9542,10 +9542,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>395525</v>
+        <v>395392</v>
       </c>
       <c r="R84" t="n">
-        <v>6804757</v>
+        <v>6804583</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -9587,7 +9587,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9614,7 +9614,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131046905</v>
+        <v>131046929</v>
       </c>
       <c r="B85" t="n">
         <v>79244</v>
@@ -9649,10 +9649,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>395392</v>
+        <v>395420</v>
       </c>
       <c r="R85" t="n">
-        <v>6804583</v>
+        <v>6804798</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10179,10 +10179,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131046990</v>
+        <v>131046791</v>
       </c>
       <c r="B90" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10190,34 +10190,39 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>395474</v>
+        <v>395362</v>
       </c>
       <c r="R90" t="n">
-        <v>6804600</v>
+        <v>6804701</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10249,7 +10254,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -10259,7 +10264,12 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10286,10 +10296,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131046984</v>
+        <v>131046778</v>
       </c>
       <c r="B91" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10297,34 +10307,39 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P91" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>395531</v>
+        <v>395366</v>
       </c>
       <c r="R91" t="n">
-        <v>6804688</v>
+        <v>6804690</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10356,7 +10371,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10366,7 +10381,12 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:09</t>
+        </is>
+      </c>
+      <c r="AC91" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10393,10 +10413,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046791</v>
+        <v>131046990</v>
       </c>
       <c r="B92" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10404,39 +10424,34 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P92" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395362</v>
+        <v>395474</v>
       </c>
       <c r="R92" t="n">
-        <v>6804701</v>
+        <v>6804600</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10468,7 +10483,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10478,12 +10493,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>11:10</t>
-        </is>
-      </c>
-      <c r="AC92" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10510,10 +10520,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046778</v>
+        <v>131046804</v>
       </c>
       <c r="B93" t="n">
-        <v>57884</v>
+        <v>79001</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10521,39 +10531,34 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>100109</v>
+        <v>6446</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P93" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395366</v>
+        <v>395367</v>
       </c>
       <c r="R93" t="n">
-        <v>6804690</v>
+        <v>6804754</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10585,7 +10590,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10595,12 +10600,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>11:09</t>
-        </is>
-      </c>
-      <c r="AC93" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10627,10 +10627,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046804</v>
+        <v>131046984</v>
       </c>
       <c r="B94" t="n">
-        <v>79001</v>
+        <v>79244</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10638,21 +10638,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -10662,10 +10662,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395367</v>
+        <v>395531</v>
       </c>
       <c r="R94" t="n">
-        <v>6804754</v>
+        <v>6804688</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10697,7 +10697,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10707,7 +10707,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10841,10 +10841,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131046715</v>
+        <v>131046797</v>
       </c>
       <c r="B96" t="n">
-        <v>83224</v>
+        <v>79002</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10852,21 +10852,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6440</v>
+        <v>228912</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10876,10 +10876,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>395445</v>
+        <v>395367</v>
       </c>
       <c r="R96" t="n">
-        <v>6804803</v>
+        <v>6804754</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10948,7 +10948,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131046985</v>
+        <v>131046912</v>
       </c>
       <c r="B97" t="n">
         <v>79244</v>
@@ -10983,10 +10983,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395531</v>
+        <v>395382</v>
       </c>
       <c r="R97" t="n">
-        <v>6804664</v>
+        <v>6804661</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11018,7 +11018,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11055,7 +11055,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131046912</v>
+        <v>131046975</v>
       </c>
       <c r="B98" t="n">
         <v>79244</v>
@@ -11090,10 +11090,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395382</v>
+        <v>395535</v>
       </c>
       <c r="R98" t="n">
-        <v>6804661</v>
+        <v>6804771</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11162,7 +11162,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131046906</v>
+        <v>131046985</v>
       </c>
       <c r="B99" t="n">
         <v>79244</v>
@@ -11197,10 +11197,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395395</v>
+        <v>395531</v>
       </c>
       <c r="R99" t="n">
-        <v>6804604</v>
+        <v>6804664</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11232,7 +11232,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11242,7 +11242,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11269,10 +11269,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131046928</v>
+        <v>131046715</v>
       </c>
       <c r="B100" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11280,21 +11280,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11304,10 +11304,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395417</v>
+        <v>395445</v>
       </c>
       <c r="R100" t="n">
-        <v>6804797</v>
+        <v>6804803</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11376,7 +11376,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131046975</v>
+        <v>131046906</v>
       </c>
       <c r="B101" t="n">
         <v>79244</v>
@@ -11411,10 +11411,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395535</v>
+        <v>395395</v>
       </c>
       <c r="R101" t="n">
-        <v>6804771</v>
+        <v>6804604</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11483,10 +11483,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131046797</v>
+        <v>131046928</v>
       </c>
       <c r="B102" t="n">
-        <v>79002</v>
+        <v>79244</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11494,21 +11494,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395367</v>
+        <v>395417</v>
       </c>
       <c r="R102" t="n">
-        <v>6804754</v>
+        <v>6804797</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD102" t="b">

--- a/artfynd/A 58063-2025 artfynd.xlsx
+++ b/artfynd/A 58063-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046942</v>
+        <v>131046977</v>
       </c>
       <c r="B2" t="n">
         <v>79244</v>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395445</v>
+        <v>395528</v>
       </c>
       <c r="R2" t="n">
-        <v>6804607</v>
+        <v>6804736</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046971</v>
+        <v>131046989</v>
       </c>
       <c r="B3" t="n">
         <v>79244</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395487</v>
+        <v>395484</v>
       </c>
       <c r="R3" t="n">
-        <v>6804812</v>
+        <v>6804617</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,7 +894,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046977</v>
+        <v>131046915</v>
       </c>
       <c r="B4" t="n">
         <v>79244</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395528</v>
+        <v>395373</v>
       </c>
       <c r="R4" t="n">
-        <v>6804736</v>
+        <v>6804690</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1001,7 +1001,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046989</v>
+        <v>131046942</v>
       </c>
       <c r="B5" t="n">
         <v>79244</v>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395484</v>
+        <v>395445</v>
       </c>
       <c r="R5" t="n">
-        <v>6804617</v>
+        <v>6804607</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046915</v>
+        <v>131046971</v>
       </c>
       <c r="B6" t="n">
         <v>79244</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395373</v>
+        <v>395487</v>
       </c>
       <c r="R6" t="n">
-        <v>6804690</v>
+        <v>6804812</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1215,7 +1215,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046927</v>
+        <v>131046965</v>
       </c>
       <c r="B7" t="n">
         <v>79244</v>
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395404</v>
+        <v>395396</v>
       </c>
       <c r="R7" t="n">
-        <v>6804786</v>
+        <v>6804747</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1322,7 +1322,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046940</v>
+        <v>131046910</v>
       </c>
       <c r="B8" t="n">
         <v>79244</v>
@@ -1357,10 +1357,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395441</v>
+        <v>395389</v>
       </c>
       <c r="R8" t="n">
-        <v>6804637</v>
+        <v>6804638</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1429,10 +1429,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046965</v>
+        <v>131046758</v>
       </c>
       <c r="B9" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1440,34 +1440,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395396</v>
+        <v>395526</v>
       </c>
       <c r="R9" t="n">
-        <v>6804747</v>
+        <v>6804768</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1499,7 +1504,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1509,7 +1514,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1536,10 +1541,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046910</v>
+        <v>131046767</v>
       </c>
       <c r="B10" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1547,34 +1552,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395389</v>
+        <v>395395</v>
       </c>
       <c r="R10" t="n">
-        <v>6804638</v>
+        <v>6804584</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1606,7 +1619,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1616,7 +1629,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1643,7 +1661,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046908</v>
+        <v>131046927</v>
       </c>
       <c r="B11" t="n">
         <v>79244</v>
@@ -1678,10 +1696,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395394</v>
+        <v>395404</v>
       </c>
       <c r="R11" t="n">
-        <v>6804623</v>
+        <v>6804786</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1713,7 +1731,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1723,7 +1741,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1750,10 +1768,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046767</v>
+        <v>131046940</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1761,42 +1779,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395395</v>
+        <v>395441</v>
       </c>
       <c r="R12" t="n">
-        <v>6804584</v>
+        <v>6804637</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1828,7 +1838,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1838,12 +1848,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:44</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1870,7 +1875,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046938</v>
+        <v>131046908</v>
       </c>
       <c r="B13" t="n">
         <v>79244</v>
@@ -1905,10 +1910,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395437</v>
+        <v>395394</v>
       </c>
       <c r="R13" t="n">
-        <v>6804676</v>
+        <v>6804623</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1940,7 +1945,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1950,7 +1955,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1977,10 +1982,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046758</v>
+        <v>131046938</v>
       </c>
       <c r="B14" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1988,39 +1993,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395526</v>
+        <v>395437</v>
       </c>
       <c r="R14" t="n">
-        <v>6804768</v>
+        <v>6804676</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2089,10 +2089,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046907</v>
+        <v>131046800</v>
       </c>
       <c r="B15" t="n">
-        <v>79244</v>
+        <v>81229</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2100,21 +2100,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395411</v>
+        <v>395387</v>
       </c>
       <c r="R15" t="n">
-        <v>6804605</v>
+        <v>6804626</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2196,10 +2196,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131046800</v>
+        <v>131047000</v>
       </c>
       <c r="B16" t="n">
-        <v>81229</v>
+        <v>79244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2207,21 +2207,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395387</v>
+        <v>395494</v>
       </c>
       <c r="R16" t="n">
-        <v>6804626</v>
+        <v>6804583</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2303,7 +2303,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131047000</v>
+        <v>131046986</v>
       </c>
       <c r="B17" t="n">
         <v>79244</v>
@@ -2338,10 +2338,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395494</v>
+        <v>395520</v>
       </c>
       <c r="R17" t="n">
-        <v>6804583</v>
+        <v>6804657</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2410,7 +2410,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046986</v>
+        <v>131047002</v>
       </c>
       <c r="B18" t="n">
         <v>79244</v>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395520</v>
+        <v>395503</v>
       </c>
       <c r="R18" t="n">
-        <v>6804657</v>
+        <v>6804603</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2517,7 +2517,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131047002</v>
+        <v>131046968</v>
       </c>
       <c r="B19" t="n">
         <v>79244</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395503</v>
+        <v>395412</v>
       </c>
       <c r="R19" t="n">
-        <v>6804603</v>
+        <v>6804755</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2624,7 +2624,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131046968</v>
+        <v>131046907</v>
       </c>
       <c r="B20" t="n">
         <v>79244</v>
@@ -2659,10 +2659,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395412</v>
+        <v>395411</v>
       </c>
       <c r="R20" t="n">
-        <v>6804755</v>
+        <v>6804605</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2731,10 +2731,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131046714</v>
+        <v>131046963</v>
       </c>
       <c r="B21" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2742,21 +2742,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2766,10 +2766,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395419</v>
+        <v>395386</v>
       </c>
       <c r="R21" t="n">
-        <v>6804801</v>
+        <v>6804723</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2838,7 +2838,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131046963</v>
+        <v>131046972</v>
       </c>
       <c r="B22" t="n">
         <v>79244</v>
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395386</v>
+        <v>395524</v>
       </c>
       <c r="R22" t="n">
-        <v>6804723</v>
+        <v>6804798</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2945,7 +2945,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131046972</v>
+        <v>131046922</v>
       </c>
       <c r="B23" t="n">
         <v>79244</v>
@@ -2980,10 +2980,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395524</v>
+        <v>395365</v>
       </c>
       <c r="R23" t="n">
-        <v>6804798</v>
+        <v>6804755</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3052,10 +3052,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131046922</v>
+        <v>131046714</v>
       </c>
       <c r="B24" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3063,21 +3063,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3087,10 +3087,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395365</v>
+        <v>395419</v>
       </c>
       <c r="R24" t="n">
-        <v>6804755</v>
+        <v>6804801</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3500,10 +3500,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131046937</v>
+        <v>131046801</v>
       </c>
       <c r="B28" t="n">
-        <v>79244</v>
+        <v>81229</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3511,21 +3511,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3535,10 +3535,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>395433</v>
+        <v>395526</v>
       </c>
       <c r="R28" t="n">
-        <v>6804692</v>
+        <v>6804768</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3607,7 +3607,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131046991</v>
+        <v>131046964</v>
       </c>
       <c r="B29" t="n">
         <v>79244</v>
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>395479</v>
+        <v>395381</v>
       </c>
       <c r="R29" t="n">
-        <v>6804588</v>
+        <v>6804728</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3714,7 +3714,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046945</v>
+        <v>131046937</v>
       </c>
       <c r="B30" t="n">
         <v>79244</v>
@@ -3749,10 +3749,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395448</v>
+        <v>395433</v>
       </c>
       <c r="R30" t="n">
-        <v>6804579</v>
+        <v>6804692</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3821,7 +3821,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046964</v>
+        <v>131046991</v>
       </c>
       <c r="B31" t="n">
         <v>79244</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395381</v>
+        <v>395479</v>
       </c>
       <c r="R31" t="n">
-        <v>6804728</v>
+        <v>6804588</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3928,7 +3928,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046914</v>
+        <v>131046945</v>
       </c>
       <c r="B32" t="n">
         <v>79244</v>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395382</v>
+        <v>395448</v>
       </c>
       <c r="R32" t="n">
-        <v>6804689</v>
+        <v>6804579</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4035,10 +4035,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131046801</v>
+        <v>131046914</v>
       </c>
       <c r="B33" t="n">
-        <v>81229</v>
+        <v>79244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4046,21 +4046,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4070,10 +4070,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>395526</v>
+        <v>395382</v>
       </c>
       <c r="R33" t="n">
-        <v>6804768</v>
+        <v>6804689</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4463,7 +4463,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131046934</v>
+        <v>131046966</v>
       </c>
       <c r="B37" t="n">
         <v>79244</v>
@@ -4498,10 +4498,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>395456</v>
+        <v>395401</v>
       </c>
       <c r="R37" t="n">
-        <v>6804752</v>
+        <v>6804761</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4570,7 +4570,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131046981</v>
+        <v>131046934</v>
       </c>
       <c r="B38" t="n">
         <v>79244</v>
@@ -4605,10 +4605,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>395501</v>
+        <v>395456</v>
       </c>
       <c r="R38" t="n">
-        <v>6804703</v>
+        <v>6804752</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4677,7 +4677,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131046966</v>
+        <v>131046981</v>
       </c>
       <c r="B39" t="n">
         <v>79244</v>
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>395401</v>
+        <v>395501</v>
       </c>
       <c r="R39" t="n">
-        <v>6804761</v>
+        <v>6804703</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4784,7 +4784,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131046935</v>
+        <v>131046941</v>
       </c>
       <c r="B40" t="n">
         <v>79244</v>
@@ -4819,10 +4819,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395438</v>
+        <v>395442</v>
       </c>
       <c r="R40" t="n">
-        <v>6804735</v>
+        <v>6804622</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4891,7 +4891,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131046979</v>
+        <v>131046918</v>
       </c>
       <c r="B41" t="n">
         <v>79244</v>
@@ -4926,10 +4926,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>395499</v>
+        <v>395369</v>
       </c>
       <c r="R41" t="n">
-        <v>6804721</v>
+        <v>6804718</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4998,7 +4998,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131046941</v>
+        <v>131046935</v>
       </c>
       <c r="B42" t="n">
         <v>79244</v>
@@ -5033,10 +5033,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395442</v>
+        <v>395438</v>
       </c>
       <c r="R42" t="n">
-        <v>6804622</v>
+        <v>6804735</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5105,7 +5105,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131046918</v>
+        <v>131046920</v>
       </c>
       <c r="B43" t="n">
         <v>79244</v>
@@ -5143,7 +5143,7 @@
         <v>395369</v>
       </c>
       <c r="R43" t="n">
-        <v>6804718</v>
+        <v>6804738</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5212,7 +5212,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131046980</v>
+        <v>131046919</v>
       </c>
       <c r="B44" t="n">
         <v>79244</v>
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>395494</v>
+        <v>395363</v>
       </c>
       <c r="R44" t="n">
-        <v>6804716</v>
+        <v>6804723</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5319,7 +5319,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131046920</v>
+        <v>131046932</v>
       </c>
       <c r="B45" t="n">
         <v>79244</v>
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395369</v>
+        <v>395455</v>
       </c>
       <c r="R45" t="n">
-        <v>6804738</v>
+        <v>6804767</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5426,7 +5426,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046919</v>
+        <v>131046979</v>
       </c>
       <c r="B46" t="n">
         <v>79244</v>
@@ -5461,10 +5461,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395363</v>
+        <v>395499</v>
       </c>
       <c r="R46" t="n">
-        <v>6804723</v>
+        <v>6804721</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5533,7 +5533,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131046932</v>
+        <v>131046980</v>
       </c>
       <c r="B47" t="n">
         <v>79244</v>
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>395455</v>
+        <v>395494</v>
       </c>
       <c r="R47" t="n">
-        <v>6804767</v>
+        <v>6804716</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5854,10 +5854,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131046982</v>
+        <v>131046716</v>
       </c>
       <c r="B50" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5865,21 +5865,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5889,10 +5889,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395507</v>
+        <v>395401</v>
       </c>
       <c r="R50" t="n">
-        <v>6804695</v>
+        <v>6804761</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5961,7 +5961,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131046960</v>
+        <v>131046982</v>
       </c>
       <c r="B51" t="n">
         <v>79244</v>
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395414</v>
+        <v>395507</v>
       </c>
       <c r="R51" t="n">
-        <v>6804670</v>
+        <v>6804695</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6068,7 +6068,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131046967</v>
+        <v>131046960</v>
       </c>
       <c r="B52" t="n">
         <v>79244</v>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395410</v>
+        <v>395414</v>
       </c>
       <c r="R52" t="n">
-        <v>6804765</v>
+        <v>6804670</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6175,7 +6175,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131046959</v>
+        <v>131046967</v>
       </c>
       <c r="B53" t="n">
         <v>79244</v>
@@ -6210,10 +6210,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>395420</v>
+        <v>395410</v>
       </c>
       <c r="R53" t="n">
-        <v>6804656</v>
+        <v>6804765</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6282,10 +6282,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131046716</v>
+        <v>131046959</v>
       </c>
       <c r="B54" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6293,21 +6293,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6317,10 +6317,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>395401</v>
+        <v>395420</v>
       </c>
       <c r="R54" t="n">
-        <v>6804761</v>
+        <v>6804656</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6817,10 +6817,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131046722</v>
+        <v>131046925</v>
       </c>
       <c r="B59" t="n">
-        <v>79276</v>
+        <v>79244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6828,21 +6828,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6852,10 +6852,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>395391</v>
+        <v>395380</v>
       </c>
       <c r="R59" t="n">
-        <v>6804603</v>
+        <v>6804774</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6924,10 +6924,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131046925</v>
+        <v>131046722</v>
       </c>
       <c r="B60" t="n">
-        <v>79244</v>
+        <v>79276</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6935,21 +6935,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6959,10 +6959,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>395380</v>
+        <v>395391</v>
       </c>
       <c r="R60" t="n">
-        <v>6804774</v>
+        <v>6804603</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7031,10 +7031,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131046760</v>
+        <v>131046939</v>
       </c>
       <c r="B61" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7042,39 +7042,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>395448</v>
+        <v>395446</v>
       </c>
       <c r="R61" t="n">
-        <v>6804572</v>
+        <v>6804659</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7106,7 +7101,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7116,7 +7111,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7143,10 +7138,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131046904</v>
+        <v>131046760</v>
       </c>
       <c r="B62" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7154,34 +7149,39 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>395385</v>
+        <v>395448</v>
       </c>
       <c r="R62" t="n">
-        <v>6804578</v>
+        <v>6804572</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7250,7 +7250,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131046983</v>
+        <v>131046904</v>
       </c>
       <c r="B63" t="n">
         <v>79244</v>
@@ -7285,10 +7285,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395515</v>
+        <v>395385</v>
       </c>
       <c r="R63" t="n">
-        <v>6804694</v>
+        <v>6804578</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7320,7 +7320,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7330,7 +7330,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7357,7 +7357,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131046939</v>
+        <v>131046983</v>
       </c>
       <c r="B64" t="n">
         <v>79244</v>
@@ -7392,10 +7392,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395446</v>
+        <v>395515</v>
       </c>
       <c r="R64" t="n">
-        <v>6804659</v>
+        <v>6804694</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7785,7 +7785,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131046917</v>
+        <v>131046921</v>
       </c>
       <c r="B68" t="n">
         <v>79244</v>
@@ -7820,10 +7820,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>395365</v>
+        <v>395357</v>
       </c>
       <c r="R68" t="n">
-        <v>6804704</v>
+        <v>6804752</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7892,10 +7892,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131046717</v>
+        <v>131047026</v>
       </c>
       <c r="B69" t="n">
-        <v>83224</v>
+        <v>78910</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7903,21 +7903,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6440</v>
+        <v>353</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7927,10 +7927,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395464</v>
+        <v>395386</v>
       </c>
       <c r="R69" t="n">
-        <v>6804807</v>
+        <v>6804628</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -7999,7 +7999,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131046921</v>
+        <v>131046917</v>
       </c>
       <c r="B70" t="n">
         <v>79244</v>
@@ -8034,10 +8034,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>395357</v>
+        <v>395365</v>
       </c>
       <c r="R70" t="n">
-        <v>6804752</v>
+        <v>6804704</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8106,10 +8106,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131047026</v>
+        <v>131046717</v>
       </c>
       <c r="B71" t="n">
-        <v>78910</v>
+        <v>83224</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8117,21 +8117,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>353</v>
+        <v>6440</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8141,10 +8141,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395386</v>
+        <v>395464</v>
       </c>
       <c r="R71" t="n">
-        <v>6804628</v>
+        <v>6804807</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8213,10 +8213,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131047012</v>
+        <v>131046930</v>
       </c>
       <c r="B72" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8224,29 +8224,24 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P72" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
@@ -8256,7 +8251,7 @@
         <v>395446</v>
       </c>
       <c r="R72" t="n">
-        <v>6804659</v>
+        <v>6804802</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8288,7 +8283,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8298,19 +8293,14 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="AC72" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD72" t="b">
         <v>0</v>
       </c>
       <c r="AE72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG72" t="b">
         <v>0</v>
@@ -8330,7 +8320,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131046930</v>
+        <v>131046923</v>
       </c>
       <c r="B73" t="n">
         <v>79244</v>
@@ -8365,10 +8355,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>395446</v>
+        <v>395364</v>
       </c>
       <c r="R73" t="n">
-        <v>6804802</v>
+        <v>6804764</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8400,7 +8390,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8410,7 +8400,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8437,7 +8427,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131046923</v>
+        <v>131046933</v>
       </c>
       <c r="B74" t="n">
         <v>79244</v>
@@ -8472,10 +8462,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395364</v>
+        <v>395458</v>
       </c>
       <c r="R74" t="n">
-        <v>6804764</v>
+        <v>6804762</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8507,7 +8497,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8517,7 +8507,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8544,7 +8534,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131046933</v>
+        <v>131046916</v>
       </c>
       <c r="B75" t="n">
         <v>79244</v>
@@ -8579,10 +8569,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395458</v>
+        <v>395367</v>
       </c>
       <c r="R75" t="n">
-        <v>6804762</v>
+        <v>6804698</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8614,7 +8604,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8624,7 +8614,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8651,10 +8641,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131046916</v>
+        <v>131047012</v>
       </c>
       <c r="B76" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8662,34 +8652,39 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>395367</v>
+        <v>395446</v>
       </c>
       <c r="R76" t="n">
-        <v>6804698</v>
+        <v>6804659</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8721,7 +8716,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -8731,14 +8726,19 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
       <c r="AE76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG76" t="b">
         <v>0</v>
@@ -9079,7 +9079,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131046962</v>
+        <v>131046905</v>
       </c>
       <c r="B80" t="n">
         <v>79244</v>
@@ -9114,10 +9114,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>395389</v>
+        <v>395392</v>
       </c>
       <c r="R80" t="n">
-        <v>6804711</v>
+        <v>6804583</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9149,7 +9149,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -9159,7 +9159,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9186,7 +9186,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131047001</v>
+        <v>131046929</v>
       </c>
       <c r="B81" t="n">
         <v>79244</v>
@@ -9221,10 +9221,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395505</v>
+        <v>395420</v>
       </c>
       <c r="R81" t="n">
-        <v>6804590</v>
+        <v>6804798</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9293,10 +9293,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131046976</v>
+        <v>131046781</v>
       </c>
       <c r="B82" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9304,34 +9304,39 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P82" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>395525</v>
+        <v>395473</v>
       </c>
       <c r="R82" t="n">
-        <v>6804757</v>
+        <v>6804805</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9363,7 +9368,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -9373,7 +9378,12 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9400,7 +9410,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131046931</v>
+        <v>131046962</v>
       </c>
       <c r="B83" t="n">
         <v>79244</v>
@@ -9435,10 +9445,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>395443</v>
+        <v>395389</v>
       </c>
       <c r="R83" t="n">
-        <v>6804778</v>
+        <v>6804711</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9470,7 +9480,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9480,7 +9490,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9507,7 +9517,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131046905</v>
+        <v>131047001</v>
       </c>
       <c r="B84" t="n">
         <v>79244</v>
@@ -9542,10 +9552,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>395392</v>
+        <v>395505</v>
       </c>
       <c r="R84" t="n">
-        <v>6804583</v>
+        <v>6804590</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9577,7 +9587,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -9587,7 +9597,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9614,7 +9624,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131046929</v>
+        <v>131046976</v>
       </c>
       <c r="B85" t="n">
         <v>79244</v>
@@ -9649,10 +9659,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>395420</v>
+        <v>395525</v>
       </c>
       <c r="R85" t="n">
-        <v>6804798</v>
+        <v>6804757</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9684,7 +9694,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -9694,7 +9704,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9721,10 +9731,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131046781</v>
+        <v>131046931</v>
       </c>
       <c r="B86" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9732,39 +9742,34 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P86" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>395473</v>
+        <v>395443</v>
       </c>
       <c r="R86" t="n">
-        <v>6804805</v>
+        <v>6804778</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9796,7 +9801,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -9806,12 +9811,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>11:58</t>
-        </is>
-      </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10179,10 +10179,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131046791</v>
+        <v>131046990</v>
       </c>
       <c r="B90" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10190,39 +10190,34 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P90" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>395362</v>
+        <v>395474</v>
       </c>
       <c r="R90" t="n">
-        <v>6804701</v>
+        <v>6804600</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10254,7 +10249,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -10264,12 +10259,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>11:10</t>
-        </is>
-      </c>
-      <c r="AC90" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10296,10 +10286,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131046778</v>
+        <v>131046984</v>
       </c>
       <c r="B91" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10307,39 +10297,34 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P91" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>395366</v>
+        <v>395531</v>
       </c>
       <c r="R91" t="n">
-        <v>6804690</v>
+        <v>6804688</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10371,7 +10356,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10381,12 +10366,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>11:09</t>
-        </is>
-      </c>
-      <c r="AC91" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10413,10 +10393,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046990</v>
+        <v>131046804</v>
       </c>
       <c r="B92" t="n">
-        <v>79244</v>
+        <v>79001</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10424,21 +10404,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10448,10 +10428,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395474</v>
+        <v>395367</v>
       </c>
       <c r="R92" t="n">
-        <v>6804600</v>
+        <v>6804754</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10483,7 +10463,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10493,7 +10473,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10520,10 +10500,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046804</v>
+        <v>131046718</v>
       </c>
       <c r="B93" t="n">
-        <v>79001</v>
+        <v>83224</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10531,21 +10511,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6446</v>
+        <v>6440</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10555,10 +10535,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395367</v>
+        <v>395471</v>
       </c>
       <c r="R93" t="n">
-        <v>6804754</v>
+        <v>6804595</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10590,7 +10570,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10600,7 +10580,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10627,10 +10607,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046984</v>
+        <v>131046791</v>
       </c>
       <c r="B94" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10638,34 +10618,39 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P94" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395531</v>
+        <v>395362</v>
       </c>
       <c r="R94" t="n">
-        <v>6804688</v>
+        <v>6804701</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10697,7 +10682,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10707,7 +10692,12 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="AC94" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10734,10 +10724,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131046718</v>
+        <v>131046778</v>
       </c>
       <c r="B95" t="n">
-        <v>83224</v>
+        <v>57884</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10745,34 +10735,39 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P95" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>395471</v>
+        <v>395366</v>
       </c>
       <c r="R95" t="n">
-        <v>6804595</v>
+        <v>6804690</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10804,7 +10799,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -10814,7 +10809,12 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:09</t>
+        </is>
+      </c>
+      <c r="AC95" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11055,7 +11055,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131046975</v>
+        <v>131046928</v>
       </c>
       <c r="B98" t="n">
         <v>79244</v>
@@ -11090,10 +11090,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395535</v>
+        <v>395417</v>
       </c>
       <c r="R98" t="n">
-        <v>6804771</v>
+        <v>6804797</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11162,7 +11162,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131046985</v>
+        <v>131046975</v>
       </c>
       <c r="B99" t="n">
         <v>79244</v>
@@ -11197,10 +11197,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395531</v>
+        <v>395535</v>
       </c>
       <c r="R99" t="n">
-        <v>6804664</v>
+        <v>6804771</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11232,7 +11232,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11242,7 +11242,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11269,10 +11269,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131046715</v>
+        <v>131046906</v>
       </c>
       <c r="B100" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11280,21 +11280,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11304,10 +11304,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395445</v>
+        <v>395395</v>
       </c>
       <c r="R100" t="n">
-        <v>6804803</v>
+        <v>6804604</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11376,10 +11376,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131046906</v>
+        <v>131046715</v>
       </c>
       <c r="B101" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11387,21 +11387,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11411,10 +11411,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395395</v>
+        <v>395445</v>
       </c>
       <c r="R101" t="n">
-        <v>6804604</v>
+        <v>6804803</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11483,7 +11483,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131046928</v>
+        <v>131046985</v>
       </c>
       <c r="B102" t="n">
         <v>79244</v>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395417</v>
+        <v>395531</v>
       </c>
       <c r="R102" t="n">
-        <v>6804797</v>
+        <v>6804664</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD102" t="b">

--- a/artfynd/A 58063-2025 artfynd.xlsx
+++ b/artfynd/A 58063-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046977</v>
+        <v>131046971</v>
       </c>
       <c r="B2" t="n">
         <v>79244</v>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395528</v>
+        <v>395487</v>
       </c>
       <c r="R2" t="n">
-        <v>6804736</v>
+        <v>6804812</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046989</v>
+        <v>131046942</v>
       </c>
       <c r="B3" t="n">
         <v>79244</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395484</v>
+        <v>395445</v>
       </c>
       <c r="R3" t="n">
-        <v>6804617</v>
+        <v>6804607</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,7 +894,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046915</v>
+        <v>131046977</v>
       </c>
       <c r="B4" t="n">
         <v>79244</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395373</v>
+        <v>395528</v>
       </c>
       <c r="R4" t="n">
-        <v>6804690</v>
+        <v>6804736</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1001,7 +1001,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046942</v>
+        <v>131046989</v>
       </c>
       <c r="B5" t="n">
         <v>79244</v>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395445</v>
+        <v>395484</v>
       </c>
       <c r="R5" t="n">
-        <v>6804607</v>
+        <v>6804617</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046971</v>
+        <v>131046915</v>
       </c>
       <c r="B6" t="n">
         <v>79244</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395487</v>
+        <v>395373</v>
       </c>
       <c r="R6" t="n">
-        <v>6804812</v>
+        <v>6804690</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1215,7 +1215,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046965</v>
+        <v>131046927</v>
       </c>
       <c r="B7" t="n">
         <v>79244</v>
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395396</v>
+        <v>395404</v>
       </c>
       <c r="R7" t="n">
-        <v>6804747</v>
+        <v>6804786</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1429,10 +1429,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046758</v>
+        <v>131046940</v>
       </c>
       <c r="B9" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1440,39 +1440,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395526</v>
+        <v>395441</v>
       </c>
       <c r="R9" t="n">
-        <v>6804768</v>
+        <v>6804637</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1504,7 +1499,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1514,7 +1509,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1541,10 +1536,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046767</v>
+        <v>131046938</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1552,42 +1547,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395395</v>
+        <v>395437</v>
       </c>
       <c r="R10" t="n">
-        <v>6804584</v>
+        <v>6804676</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1619,7 +1606,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1629,12 +1616,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>10:44</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1661,10 +1643,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046927</v>
+        <v>131046758</v>
       </c>
       <c r="B11" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1672,34 +1654,39 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395404</v>
+        <v>395526</v>
       </c>
       <c r="R11" t="n">
-        <v>6804786</v>
+        <v>6804768</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1731,7 +1718,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1741,7 +1728,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1768,10 +1755,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046940</v>
+        <v>131046767</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1779,34 +1766,42 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395441</v>
+        <v>395395</v>
       </c>
       <c r="R12" t="n">
-        <v>6804637</v>
+        <v>6804584</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1838,7 +1833,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1848,7 +1843,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1875,7 +1875,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046908</v>
+        <v>131046965</v>
       </c>
       <c r="B13" t="n">
         <v>79244</v>
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395394</v>
+        <v>395396</v>
       </c>
       <c r="R13" t="n">
-        <v>6804623</v>
+        <v>6804747</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1982,7 +1982,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046938</v>
+        <v>131046908</v>
       </c>
       <c r="B14" t="n">
         <v>79244</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395437</v>
+        <v>395394</v>
       </c>
       <c r="R14" t="n">
-        <v>6804676</v>
+        <v>6804623</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2196,7 +2196,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131047000</v>
+        <v>131046986</v>
       </c>
       <c r="B16" t="n">
         <v>79244</v>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395494</v>
+        <v>395520</v>
       </c>
       <c r="R16" t="n">
-        <v>6804583</v>
+        <v>6804657</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2303,7 +2303,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131046986</v>
+        <v>131046907</v>
       </c>
       <c r="B17" t="n">
         <v>79244</v>
@@ -2338,10 +2338,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395520</v>
+        <v>395411</v>
       </c>
       <c r="R17" t="n">
-        <v>6804657</v>
+        <v>6804605</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2410,7 +2410,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131047002</v>
+        <v>131046968</v>
       </c>
       <c r="B18" t="n">
         <v>79244</v>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395503</v>
+        <v>395412</v>
       </c>
       <c r="R18" t="n">
-        <v>6804603</v>
+        <v>6804755</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2517,7 +2517,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131046968</v>
+        <v>131047000</v>
       </c>
       <c r="B19" t="n">
         <v>79244</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395412</v>
+        <v>395494</v>
       </c>
       <c r="R19" t="n">
-        <v>6804755</v>
+        <v>6804583</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2624,7 +2624,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131046907</v>
+        <v>131047002</v>
       </c>
       <c r="B20" t="n">
         <v>79244</v>
@@ -2659,10 +2659,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395411</v>
+        <v>395503</v>
       </c>
       <c r="R20" t="n">
-        <v>6804605</v>
+        <v>6804603</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2731,10 +2731,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131046963</v>
+        <v>131046714</v>
       </c>
       <c r="B21" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2742,21 +2742,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2766,10 +2766,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395386</v>
+        <v>395419</v>
       </c>
       <c r="R21" t="n">
-        <v>6804723</v>
+        <v>6804801</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2838,7 +2838,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131046972</v>
+        <v>131046963</v>
       </c>
       <c r="B22" t="n">
         <v>79244</v>
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395524</v>
+        <v>395386</v>
       </c>
       <c r="R22" t="n">
-        <v>6804798</v>
+        <v>6804723</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2945,7 +2945,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131046922</v>
+        <v>131046972</v>
       </c>
       <c r="B23" t="n">
         <v>79244</v>
@@ -2980,10 +2980,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395365</v>
+        <v>395524</v>
       </c>
       <c r="R23" t="n">
-        <v>6804755</v>
+        <v>6804798</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3052,10 +3052,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131046714</v>
+        <v>131046922</v>
       </c>
       <c r="B24" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3063,21 +3063,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3087,10 +3087,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395419</v>
+        <v>395365</v>
       </c>
       <c r="R24" t="n">
-        <v>6804801</v>
+        <v>6804755</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3607,7 +3607,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131046964</v>
+        <v>131046914</v>
       </c>
       <c r="B29" t="n">
         <v>79244</v>
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>395381</v>
+        <v>395382</v>
       </c>
       <c r="R29" t="n">
-        <v>6804728</v>
+        <v>6804689</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3714,7 +3714,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046937</v>
+        <v>131046945</v>
       </c>
       <c r="B30" t="n">
         <v>79244</v>
@@ -3749,10 +3749,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395433</v>
+        <v>395448</v>
       </c>
       <c r="R30" t="n">
-        <v>6804692</v>
+        <v>6804579</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3821,7 +3821,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046991</v>
+        <v>131046964</v>
       </c>
       <c r="B31" t="n">
         <v>79244</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395479</v>
+        <v>395381</v>
       </c>
       <c r="R31" t="n">
-        <v>6804588</v>
+        <v>6804728</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3928,7 +3928,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046945</v>
+        <v>131046937</v>
       </c>
       <c r="B32" t="n">
         <v>79244</v>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395448</v>
+        <v>395433</v>
       </c>
       <c r="R32" t="n">
-        <v>6804579</v>
+        <v>6804692</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4035,7 +4035,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131046914</v>
+        <v>131046991</v>
       </c>
       <c r="B33" t="n">
         <v>79244</v>
@@ -4070,10 +4070,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>395382</v>
+        <v>395479</v>
       </c>
       <c r="R33" t="n">
-        <v>6804689</v>
+        <v>6804588</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4356,7 +4356,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131046970</v>
+        <v>131046934</v>
       </c>
       <c r="B36" t="n">
         <v>79244</v>
@@ -4391,10 +4391,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>395474</v>
+        <v>395456</v>
       </c>
       <c r="R36" t="n">
-        <v>6804807</v>
+        <v>6804752</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4463,7 +4463,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131046966</v>
+        <v>131046981</v>
       </c>
       <c r="B37" t="n">
         <v>79244</v>
@@ -4498,10 +4498,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>395401</v>
+        <v>395501</v>
       </c>
       <c r="R37" t="n">
-        <v>6804761</v>
+        <v>6804703</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4570,7 +4570,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131046934</v>
+        <v>131046970</v>
       </c>
       <c r="B38" t="n">
         <v>79244</v>
@@ -4605,10 +4605,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>395456</v>
+        <v>395474</v>
       </c>
       <c r="R38" t="n">
-        <v>6804752</v>
+        <v>6804807</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4677,7 +4677,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131046981</v>
+        <v>131046966</v>
       </c>
       <c r="B39" t="n">
         <v>79244</v>
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>395501</v>
+        <v>395401</v>
       </c>
       <c r="R39" t="n">
-        <v>6804703</v>
+        <v>6804761</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4784,7 +4784,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131046941</v>
+        <v>131046935</v>
       </c>
       <c r="B40" t="n">
         <v>79244</v>
@@ -4819,10 +4819,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395442</v>
+        <v>395438</v>
       </c>
       <c r="R40" t="n">
-        <v>6804622</v>
+        <v>6804735</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4891,7 +4891,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131046918</v>
+        <v>131046920</v>
       </c>
       <c r="B41" t="n">
         <v>79244</v>
@@ -4929,7 +4929,7 @@
         <v>395369</v>
       </c>
       <c r="R41" t="n">
-        <v>6804718</v>
+        <v>6804738</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4998,7 +4998,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131046935</v>
+        <v>131046988</v>
       </c>
       <c r="B42" t="n">
         <v>79244</v>
@@ -5033,10 +5033,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395438</v>
+        <v>395491</v>
       </c>
       <c r="R42" t="n">
-        <v>6804735</v>
+        <v>6804630</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5105,7 +5105,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131046920</v>
+        <v>131046918</v>
       </c>
       <c r="B43" t="n">
         <v>79244</v>
@@ -5143,7 +5143,7 @@
         <v>395369</v>
       </c>
       <c r="R43" t="n">
-        <v>6804738</v>
+        <v>6804718</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5212,7 +5212,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131046919</v>
+        <v>131046936</v>
       </c>
       <c r="B44" t="n">
         <v>79244</v>
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>395363</v>
+        <v>395431</v>
       </c>
       <c r="R44" t="n">
-        <v>6804723</v>
+        <v>6804712</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5319,7 +5319,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131046932</v>
+        <v>131046980</v>
       </c>
       <c r="B45" t="n">
         <v>79244</v>
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395455</v>
+        <v>395494</v>
       </c>
       <c r="R45" t="n">
-        <v>6804767</v>
+        <v>6804716</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5426,7 +5426,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046979</v>
+        <v>131046919</v>
       </c>
       <c r="B46" t="n">
         <v>79244</v>
@@ -5461,10 +5461,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395499</v>
+        <v>395363</v>
       </c>
       <c r="R46" t="n">
-        <v>6804721</v>
+        <v>6804723</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5533,7 +5533,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131046980</v>
+        <v>131046932</v>
       </c>
       <c r="B47" t="n">
         <v>79244</v>
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>395494</v>
+        <v>395455</v>
       </c>
       <c r="R47" t="n">
-        <v>6804716</v>
+        <v>6804767</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5640,7 +5640,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131046936</v>
+        <v>131046979</v>
       </c>
       <c r="B48" t="n">
         <v>79244</v>
@@ -5675,10 +5675,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>395431</v>
+        <v>395499</v>
       </c>
       <c r="R48" t="n">
-        <v>6804712</v>
+        <v>6804721</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5747,7 +5747,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131046988</v>
+        <v>131046941</v>
       </c>
       <c r="B49" t="n">
         <v>79244</v>
@@ -5782,10 +5782,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>395491</v>
+        <v>395442</v>
       </c>
       <c r="R49" t="n">
-        <v>6804630</v>
+        <v>6804622</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5854,10 +5854,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131046716</v>
+        <v>131046982</v>
       </c>
       <c r="B50" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5865,21 +5865,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5889,10 +5889,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395401</v>
+        <v>395507</v>
       </c>
       <c r="R50" t="n">
-        <v>6804761</v>
+        <v>6804695</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5961,10 +5961,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131046982</v>
+        <v>131046716</v>
       </c>
       <c r="B51" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5972,21 +5972,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395507</v>
+        <v>395401</v>
       </c>
       <c r="R51" t="n">
-        <v>6804695</v>
+        <v>6804761</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6389,10 +6389,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131046944</v>
+        <v>131046722</v>
       </c>
       <c r="B55" t="n">
-        <v>79244</v>
+        <v>79276</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6400,21 +6400,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6424,10 +6424,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>395449</v>
+        <v>395391</v>
       </c>
       <c r="R55" t="n">
-        <v>6804589</v>
+        <v>6804603</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6603,7 +6603,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046969</v>
+        <v>131046925</v>
       </c>
       <c r="B57" t="n">
         <v>79244</v>
@@ -6638,10 +6638,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395464</v>
+        <v>395380</v>
       </c>
       <c r="R57" t="n">
-        <v>6804807</v>
+        <v>6804774</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6710,7 +6710,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131046926</v>
+        <v>131046944</v>
       </c>
       <c r="B58" t="n">
         <v>79244</v>
@@ -6745,10 +6745,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395395</v>
+        <v>395449</v>
       </c>
       <c r="R58" t="n">
-        <v>6804786</v>
+        <v>6804589</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6817,7 +6817,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131046925</v>
+        <v>131046969</v>
       </c>
       <c r="B59" t="n">
         <v>79244</v>
@@ -6852,10 +6852,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>395380</v>
+        <v>395464</v>
       </c>
       <c r="R59" t="n">
-        <v>6804774</v>
+        <v>6804807</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6924,10 +6924,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131046722</v>
+        <v>131046926</v>
       </c>
       <c r="B60" t="n">
-        <v>79276</v>
+        <v>79244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6935,21 +6935,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6959,10 +6959,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>395391</v>
+        <v>395395</v>
       </c>
       <c r="R60" t="n">
-        <v>6804603</v>
+        <v>6804786</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7031,7 +7031,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131046939</v>
+        <v>131046983</v>
       </c>
       <c r="B61" t="n">
         <v>79244</v>
@@ -7066,10 +7066,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>395446</v>
+        <v>395515</v>
       </c>
       <c r="R61" t="n">
-        <v>6804659</v>
+        <v>6804694</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7101,7 +7101,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7138,10 +7138,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131046760</v>
+        <v>131046904</v>
       </c>
       <c r="B62" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7149,39 +7149,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P62" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>395448</v>
+        <v>395385</v>
       </c>
       <c r="R62" t="n">
-        <v>6804572</v>
+        <v>6804578</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7213,7 +7208,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7223,7 +7218,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7250,10 +7245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131046904</v>
+        <v>131046760</v>
       </c>
       <c r="B63" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7261,34 +7256,39 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395385</v>
+        <v>395448</v>
       </c>
       <c r="R63" t="n">
-        <v>6804578</v>
+        <v>6804572</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7320,7 +7320,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7330,7 +7330,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7357,7 +7357,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131046983</v>
+        <v>131046939</v>
       </c>
       <c r="B64" t="n">
         <v>79244</v>
@@ -7392,10 +7392,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395515</v>
+        <v>395446</v>
       </c>
       <c r="R64" t="n">
-        <v>6804694</v>
+        <v>6804659</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7785,10 +7785,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131046921</v>
+        <v>131046717</v>
       </c>
       <c r="B68" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7796,21 +7796,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7820,10 +7820,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>395357</v>
+        <v>395464</v>
       </c>
       <c r="R68" t="n">
-        <v>6804752</v>
+        <v>6804807</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7892,10 +7892,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131047026</v>
+        <v>131046921</v>
       </c>
       <c r="B69" t="n">
-        <v>78910</v>
+        <v>79244</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7903,21 +7903,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7927,10 +7927,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395386</v>
+        <v>395357</v>
       </c>
       <c r="R69" t="n">
-        <v>6804628</v>
+        <v>6804752</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -7999,10 +7999,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131046917</v>
+        <v>131047026</v>
       </c>
       <c r="B70" t="n">
-        <v>79244</v>
+        <v>78910</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8010,21 +8010,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8034,10 +8034,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>395365</v>
+        <v>395386</v>
       </c>
       <c r="R70" t="n">
-        <v>6804704</v>
+        <v>6804628</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8106,10 +8106,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131046717</v>
+        <v>131046917</v>
       </c>
       <c r="B71" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8117,21 +8117,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8141,10 +8141,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395464</v>
+        <v>395365</v>
       </c>
       <c r="R71" t="n">
-        <v>6804807</v>
+        <v>6804704</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8213,7 +8213,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131046930</v>
+        <v>131046916</v>
       </c>
       <c r="B72" t="n">
         <v>79244</v>
@@ -8248,10 +8248,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>395446</v>
+        <v>395367</v>
       </c>
       <c r="R72" t="n">
-        <v>6804802</v>
+        <v>6804698</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8293,7 +8293,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8320,10 +8320,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131046923</v>
+        <v>131047012</v>
       </c>
       <c r="B73" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8331,34 +8331,39 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>395364</v>
+        <v>395446</v>
       </c>
       <c r="R73" t="n">
-        <v>6804764</v>
+        <v>6804659</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8390,7 +8395,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8400,14 +8405,19 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD73" t="b">
         <v>0</v>
       </c>
       <c r="AE73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG73" t="b">
         <v>0</v>
@@ -8534,7 +8544,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131046916</v>
+        <v>131046930</v>
       </c>
       <c r="B75" t="n">
         <v>79244</v>
@@ -8569,10 +8579,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395367</v>
+        <v>395446</v>
       </c>
       <c r="R75" t="n">
-        <v>6804698</v>
+        <v>6804802</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8604,7 +8614,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8614,7 +8624,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8641,10 +8651,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131047012</v>
+        <v>131046923</v>
       </c>
       <c r="B76" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8652,39 +8662,34 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>395446</v>
+        <v>395364</v>
       </c>
       <c r="R76" t="n">
-        <v>6804659</v>
+        <v>6804764</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8716,7 +8721,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -8726,19 +8731,14 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
       <c r="AE76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG76" t="b">
         <v>0</v>
@@ -8865,7 +8865,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131046911</v>
+        <v>131046958</v>
       </c>
       <c r="B78" t="n">
         <v>79244</v>
@@ -8900,10 +8900,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>395395</v>
+        <v>395430</v>
       </c>
       <c r="R78" t="n">
-        <v>6804651</v>
+        <v>6804615</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -8972,7 +8972,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131046958</v>
+        <v>131046911</v>
       </c>
       <c r="B79" t="n">
         <v>79244</v>
@@ -9007,10 +9007,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>395430</v>
+        <v>395395</v>
       </c>
       <c r="R79" t="n">
-        <v>6804615</v>
+        <v>6804651</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9079,7 +9079,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131046905</v>
+        <v>131047001</v>
       </c>
       <c r="B80" t="n">
         <v>79244</v>
@@ -9114,10 +9114,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>395392</v>
+        <v>395505</v>
       </c>
       <c r="R80" t="n">
-        <v>6804583</v>
+        <v>6804590</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9149,7 +9149,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -9159,7 +9159,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9293,10 +9293,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131046781</v>
+        <v>131046976</v>
       </c>
       <c r="B82" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9304,39 +9304,34 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P82" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>395473</v>
+        <v>395525</v>
       </c>
       <c r="R82" t="n">
-        <v>6804805</v>
+        <v>6804757</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9368,7 +9363,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -9378,12 +9373,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>11:58</t>
-        </is>
-      </c>
-      <c r="AC82" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9410,7 +9400,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131046962</v>
+        <v>131046931</v>
       </c>
       <c r="B83" t="n">
         <v>79244</v>
@@ -9445,10 +9435,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>395389</v>
+        <v>395443</v>
       </c>
       <c r="R83" t="n">
-        <v>6804711</v>
+        <v>6804778</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9480,7 +9470,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9490,7 +9480,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9517,10 +9507,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131047001</v>
+        <v>131046781</v>
       </c>
       <c r="B84" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9528,34 +9518,39 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P84" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>395505</v>
+        <v>395473</v>
       </c>
       <c r="R84" t="n">
-        <v>6804590</v>
+        <v>6804805</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9587,7 +9582,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -9597,7 +9592,12 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9624,7 +9624,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131046976</v>
+        <v>131046905</v>
       </c>
       <c r="B85" t="n">
         <v>79244</v>
@@ -9659,10 +9659,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>395525</v>
+        <v>395392</v>
       </c>
       <c r="R85" t="n">
-        <v>6804757</v>
+        <v>6804583</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9694,7 +9694,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -9704,7 +9704,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9731,7 +9731,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131046931</v>
+        <v>131046962</v>
       </c>
       <c r="B86" t="n">
         <v>79244</v>
@@ -9766,10 +9766,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>395443</v>
+        <v>395389</v>
       </c>
       <c r="R86" t="n">
-        <v>6804778</v>
+        <v>6804711</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -9811,7 +9811,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10286,10 +10286,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131046984</v>
+        <v>131046804</v>
       </c>
       <c r="B91" t="n">
-        <v>79244</v>
+        <v>79001</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10297,21 +10297,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -10321,10 +10321,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>395531</v>
+        <v>395367</v>
       </c>
       <c r="R91" t="n">
-        <v>6804688</v>
+        <v>6804754</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10366,7 +10366,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10393,10 +10393,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046804</v>
+        <v>131046984</v>
       </c>
       <c r="B92" t="n">
-        <v>79001</v>
+        <v>79244</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10404,21 +10404,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10428,10 +10428,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395367</v>
+        <v>395531</v>
       </c>
       <c r="R92" t="n">
-        <v>6804754</v>
+        <v>6804688</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10463,7 +10463,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10473,7 +10473,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10948,10 +10948,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131046912</v>
+        <v>131046715</v>
       </c>
       <c r="B97" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10959,21 +10959,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -10983,10 +10983,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395382</v>
+        <v>395445</v>
       </c>
       <c r="R97" t="n">
-        <v>6804661</v>
+        <v>6804803</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11018,7 +11018,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11055,7 +11055,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131046928</v>
+        <v>131046912</v>
       </c>
       <c r="B98" t="n">
         <v>79244</v>
@@ -11090,10 +11090,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395417</v>
+        <v>395382</v>
       </c>
       <c r="R98" t="n">
-        <v>6804797</v>
+        <v>6804661</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11162,7 +11162,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131046975</v>
+        <v>131046906</v>
       </c>
       <c r="B99" t="n">
         <v>79244</v>
@@ -11197,10 +11197,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395535</v>
+        <v>395395</v>
       </c>
       <c r="R99" t="n">
-        <v>6804771</v>
+        <v>6804604</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11232,7 +11232,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11242,7 +11242,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11269,7 +11269,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131046906</v>
+        <v>131046928</v>
       </c>
       <c r="B100" t="n">
         <v>79244</v>
@@ -11304,10 +11304,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395395</v>
+        <v>395417</v>
       </c>
       <c r="R100" t="n">
-        <v>6804604</v>
+        <v>6804797</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11376,10 +11376,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>131046715</v>
+        <v>131046975</v>
       </c>
       <c r="B101" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11387,21 +11387,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11411,10 +11411,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>395445</v>
+        <v>395535</v>
       </c>
       <c r="R101" t="n">
-        <v>6804803</v>
+        <v>6804771</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD101" t="b">

--- a/artfynd/A 58063-2025 artfynd.xlsx
+++ b/artfynd/A 58063-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046971</v>
+        <v>131046942</v>
       </c>
       <c r="B2" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395487</v>
+        <v>395445</v>
       </c>
       <c r="R2" t="n">
-        <v>6804812</v>
+        <v>6804607</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046942</v>
+        <v>131046977</v>
       </c>
       <c r="B3" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395445</v>
+        <v>395528</v>
       </c>
       <c r="R3" t="n">
-        <v>6804607</v>
+        <v>6804736</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046977</v>
+        <v>131046989</v>
       </c>
       <c r="B4" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395528</v>
+        <v>395484</v>
       </c>
       <c r="R4" t="n">
-        <v>6804736</v>
+        <v>6804617</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1001,10 +1001,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131046989</v>
+        <v>131046971</v>
       </c>
       <c r="B5" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>395484</v>
+        <v>395487</v>
       </c>
       <c r="R5" t="n">
-        <v>6804617</v>
+        <v>6804812</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1111,7 +1111,7 @@
         <v>131046915</v>
       </c>
       <c r="B6" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1215,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046927</v>
+        <v>131046758</v>
       </c>
       <c r="B7" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1226,34 +1226,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395404</v>
+        <v>395526</v>
       </c>
       <c r="R7" t="n">
-        <v>6804786</v>
+        <v>6804768</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1285,7 +1290,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1295,7 +1300,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1322,10 +1327,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046910</v>
+        <v>131046938</v>
       </c>
       <c r="B8" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1357,10 +1362,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395389</v>
+        <v>395437</v>
       </c>
       <c r="R8" t="n">
-        <v>6804638</v>
+        <v>6804676</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1392,7 +1397,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1402,7 +1407,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1429,10 +1434,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046940</v>
+        <v>131046908</v>
       </c>
       <c r="B9" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1464,10 +1469,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395441</v>
+        <v>395394</v>
       </c>
       <c r="R9" t="n">
-        <v>6804637</v>
+        <v>6804623</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1499,7 +1504,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1509,7 +1514,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1536,10 +1541,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046938</v>
+        <v>131046910</v>
       </c>
       <c r="B10" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1571,10 +1576,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395437</v>
+        <v>395389</v>
       </c>
       <c r="R10" t="n">
-        <v>6804676</v>
+        <v>6804638</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1606,7 +1611,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1616,7 +1621,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1643,10 +1648,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046758</v>
+        <v>131046927</v>
       </c>
       <c r="B11" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1654,39 +1659,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395526</v>
+        <v>395404</v>
       </c>
       <c r="R11" t="n">
-        <v>6804768</v>
+        <v>6804786</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1755,10 +1755,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046767</v>
+        <v>131046940</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1766,42 +1766,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395395</v>
+        <v>395441</v>
       </c>
       <c r="R12" t="n">
-        <v>6804584</v>
+        <v>6804637</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1833,7 +1825,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1843,12 +1835,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:44</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1878,7 +1865,7 @@
         <v>131046965</v>
       </c>
       <c r="B13" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1982,10 +1969,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046908</v>
+        <v>131046767</v>
       </c>
       <c r="B14" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1993,34 +1980,42 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395394</v>
+        <v>395395</v>
       </c>
       <c r="R14" t="n">
-        <v>6804623</v>
+        <v>6804584</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2052,7 +2047,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2062,7 +2057,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2089,10 +2089,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046800</v>
+        <v>131046968</v>
       </c>
       <c r="B15" t="n">
-        <v>81229</v>
+        <v>79245</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2100,21 +2100,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395387</v>
+        <v>395412</v>
       </c>
       <c r="R15" t="n">
-        <v>6804626</v>
+        <v>6804755</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2196,10 +2196,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131046986</v>
+        <v>131047002</v>
       </c>
       <c r="B16" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395520</v>
+        <v>395503</v>
       </c>
       <c r="R16" t="n">
-        <v>6804657</v>
+        <v>6804603</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2303,10 +2303,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131046907</v>
+        <v>131047000</v>
       </c>
       <c r="B17" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2338,10 +2338,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395411</v>
+        <v>395494</v>
       </c>
       <c r="R17" t="n">
-        <v>6804605</v>
+        <v>6804583</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2410,10 +2410,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046968</v>
+        <v>131046800</v>
       </c>
       <c r="B18" t="n">
-        <v>79244</v>
+        <v>81230</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2421,21 +2421,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395412</v>
+        <v>395387</v>
       </c>
       <c r="R18" t="n">
-        <v>6804755</v>
+        <v>6804626</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2517,10 +2517,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131047000</v>
+        <v>131046986</v>
       </c>
       <c r="B19" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395494</v>
+        <v>395520</v>
       </c>
       <c r="R19" t="n">
-        <v>6804583</v>
+        <v>6804657</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2624,10 +2624,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131047002</v>
+        <v>131046907</v>
       </c>
       <c r="B20" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2659,10 +2659,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395503</v>
+        <v>395411</v>
       </c>
       <c r="R20" t="n">
-        <v>6804603</v>
+        <v>6804605</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2731,10 +2731,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131046714</v>
+        <v>131046963</v>
       </c>
       <c r="B21" t="n">
-        <v>83224</v>
+        <v>79245</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2742,21 +2742,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2766,10 +2766,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395419</v>
+        <v>395386</v>
       </c>
       <c r="R21" t="n">
-        <v>6804801</v>
+        <v>6804723</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2838,10 +2838,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131046963</v>
+        <v>131046972</v>
       </c>
       <c r="B22" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395386</v>
+        <v>395524</v>
       </c>
       <c r="R22" t="n">
-        <v>6804723</v>
+        <v>6804798</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2945,10 +2945,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131046972</v>
+        <v>131046922</v>
       </c>
       <c r="B23" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2980,10 +2980,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395524</v>
+        <v>395365</v>
       </c>
       <c r="R23" t="n">
-        <v>6804798</v>
+        <v>6804755</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3052,10 +3052,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131046922</v>
+        <v>131046714</v>
       </c>
       <c r="B24" t="n">
-        <v>79244</v>
+        <v>83225</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3063,21 +3063,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3087,10 +3087,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395365</v>
+        <v>395419</v>
       </c>
       <c r="R24" t="n">
-        <v>6804755</v>
+        <v>6804801</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3396,7 +3396,7 @@
         <v>131047027</v>
       </c>
       <c r="B27" t="n">
-        <v>78910</v>
+        <v>78911</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>131046801</v>
       </c>
       <c r="B28" t="n">
-        <v>81229</v>
+        <v>81230</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3607,10 +3607,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131046914</v>
+        <v>131046945</v>
       </c>
       <c r="B29" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>395382</v>
+        <v>395448</v>
       </c>
       <c r="R29" t="n">
-        <v>6804689</v>
+        <v>6804579</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3714,10 +3714,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046945</v>
+        <v>131046991</v>
       </c>
       <c r="B30" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3749,10 +3749,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395448</v>
+        <v>395479</v>
       </c>
       <c r="R30" t="n">
-        <v>6804579</v>
+        <v>6804588</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3821,10 +3821,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046964</v>
+        <v>131046937</v>
       </c>
       <c r="B31" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395381</v>
+        <v>395433</v>
       </c>
       <c r="R31" t="n">
-        <v>6804728</v>
+        <v>6804692</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3928,10 +3928,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046937</v>
+        <v>131046964</v>
       </c>
       <c r="B32" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395433</v>
+        <v>395381</v>
       </c>
       <c r="R32" t="n">
-        <v>6804692</v>
+        <v>6804728</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4035,10 +4035,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131046991</v>
+        <v>131046914</v>
       </c>
       <c r="B33" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4070,10 +4070,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>395479</v>
+        <v>395382</v>
       </c>
       <c r="R33" t="n">
-        <v>6804588</v>
+        <v>6804689</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4142,10 +4142,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131046725</v>
+        <v>131046987</v>
       </c>
       <c r="B34" t="n">
-        <v>79276</v>
+        <v>79245</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4153,21 +4153,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>395392</v>
+        <v>395501</v>
       </c>
       <c r="R34" t="n">
-        <v>6804595</v>
+        <v>6804647</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4249,10 +4249,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131046987</v>
+        <v>131046725</v>
       </c>
       <c r="B35" t="n">
-        <v>79244</v>
+        <v>79277</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4260,21 +4260,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4284,10 +4284,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>395501</v>
+        <v>395392</v>
       </c>
       <c r="R35" t="n">
-        <v>6804647</v>
+        <v>6804595</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4359,7 +4359,7 @@
         <v>131046934</v>
       </c>
       <c r="B36" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4463,10 +4463,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131046981</v>
+        <v>131046970</v>
       </c>
       <c r="B37" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4498,10 +4498,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>395501</v>
+        <v>395474</v>
       </c>
       <c r="R37" t="n">
-        <v>6804703</v>
+        <v>6804807</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4570,10 +4570,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131046970</v>
+        <v>131046966</v>
       </c>
       <c r="B38" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4605,10 +4605,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>395474</v>
+        <v>395401</v>
       </c>
       <c r="R38" t="n">
-        <v>6804807</v>
+        <v>6804761</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4677,10 +4677,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131046966</v>
+        <v>131046981</v>
       </c>
       <c r="B39" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>395401</v>
+        <v>395501</v>
       </c>
       <c r="R39" t="n">
-        <v>6804761</v>
+        <v>6804703</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4784,10 +4784,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131046935</v>
+        <v>131046941</v>
       </c>
       <c r="B40" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4819,10 +4819,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>395438</v>
+        <v>395442</v>
       </c>
       <c r="R40" t="n">
-        <v>6804735</v>
+        <v>6804622</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4891,10 +4891,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131046920</v>
+        <v>131046932</v>
       </c>
       <c r="B41" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4926,10 +4926,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>395369</v>
+        <v>395455</v>
       </c>
       <c r="R41" t="n">
-        <v>6804738</v>
+        <v>6804767</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4998,10 +4998,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131046988</v>
+        <v>131046979</v>
       </c>
       <c r="B42" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5033,10 +5033,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>395491</v>
+        <v>395499</v>
       </c>
       <c r="R42" t="n">
-        <v>6804630</v>
+        <v>6804721</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5105,10 +5105,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131046918</v>
+        <v>131046935</v>
       </c>
       <c r="B43" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>395369</v>
+        <v>395438</v>
       </c>
       <c r="R43" t="n">
-        <v>6804718</v>
+        <v>6804735</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5212,10 +5212,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131046936</v>
+        <v>131046920</v>
       </c>
       <c r="B44" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>395431</v>
+        <v>395369</v>
       </c>
       <c r="R44" t="n">
-        <v>6804712</v>
+        <v>6804738</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5319,10 +5319,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131046980</v>
+        <v>131046919</v>
       </c>
       <c r="B45" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>395494</v>
+        <v>395363</v>
       </c>
       <c r="R45" t="n">
-        <v>6804716</v>
+        <v>6804723</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5426,10 +5426,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131046919</v>
+        <v>131046936</v>
       </c>
       <c r="B46" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5461,10 +5461,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>395363</v>
+        <v>395431</v>
       </c>
       <c r="R46" t="n">
-        <v>6804723</v>
+        <v>6804712</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5533,10 +5533,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131046932</v>
+        <v>131046988</v>
       </c>
       <c r="B47" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>395455</v>
+        <v>395491</v>
       </c>
       <c r="R47" t="n">
-        <v>6804767</v>
+        <v>6804630</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5640,10 +5640,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131046979</v>
+        <v>131046918</v>
       </c>
       <c r="B48" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5675,10 +5675,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>395499</v>
+        <v>395369</v>
       </c>
       <c r="R48" t="n">
-        <v>6804721</v>
+        <v>6804718</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5747,10 +5747,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131046941</v>
+        <v>131046980</v>
       </c>
       <c r="B49" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5782,10 +5782,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>395442</v>
+        <v>395494</v>
       </c>
       <c r="R49" t="n">
-        <v>6804622</v>
+        <v>6804716</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5854,10 +5854,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131046982</v>
+        <v>131046960</v>
       </c>
       <c r="B50" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5889,10 +5889,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>395507</v>
+        <v>395414</v>
       </c>
       <c r="R50" t="n">
-        <v>6804695</v>
+        <v>6804670</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5961,10 +5961,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131046716</v>
+        <v>131046959</v>
       </c>
       <c r="B51" t="n">
-        <v>83224</v>
+        <v>79245</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5972,21 +5972,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>395401</v>
+        <v>395420</v>
       </c>
       <c r="R51" t="n">
-        <v>6804761</v>
+        <v>6804656</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6068,10 +6068,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131046960</v>
+        <v>131046982</v>
       </c>
       <c r="B52" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>395414</v>
+        <v>395507</v>
       </c>
       <c r="R52" t="n">
-        <v>6804670</v>
+        <v>6804695</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6178,7 +6178,7 @@
         <v>131046967</v>
       </c>
       <c r="B53" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6282,10 +6282,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131046959</v>
+        <v>131046716</v>
       </c>
       <c r="B54" t="n">
-        <v>79244</v>
+        <v>83225</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6293,21 +6293,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6317,10 +6317,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>395420</v>
+        <v>395401</v>
       </c>
       <c r="R54" t="n">
-        <v>6804656</v>
+        <v>6804761</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6389,10 +6389,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131046722</v>
+        <v>131046944</v>
       </c>
       <c r="B55" t="n">
-        <v>79276</v>
+        <v>79245</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6400,21 +6400,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6424,10 +6424,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>395391</v>
+        <v>395449</v>
       </c>
       <c r="R55" t="n">
-        <v>6804603</v>
+        <v>6804589</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6499,7 +6499,7 @@
         <v>131046924</v>
       </c>
       <c r="B56" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6603,10 +6603,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046925</v>
+        <v>131046722</v>
       </c>
       <c r="B57" t="n">
-        <v>79244</v>
+        <v>79277</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6614,21 +6614,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6638,10 +6638,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395380</v>
+        <v>395391</v>
       </c>
       <c r="R57" t="n">
-        <v>6804774</v>
+        <v>6804603</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6710,10 +6710,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131046944</v>
+        <v>131046969</v>
       </c>
       <c r="B58" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6745,10 +6745,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395449</v>
+        <v>395464</v>
       </c>
       <c r="R58" t="n">
-        <v>6804589</v>
+        <v>6804807</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6817,10 +6817,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131046969</v>
+        <v>131046926</v>
       </c>
       <c r="B59" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6852,10 +6852,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>395464</v>
+        <v>395395</v>
       </c>
       <c r="R59" t="n">
-        <v>6804807</v>
+        <v>6804786</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6924,10 +6924,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131046926</v>
+        <v>131046925</v>
       </c>
       <c r="B60" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6959,10 +6959,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>395395</v>
+        <v>395380</v>
       </c>
       <c r="R60" t="n">
-        <v>6804786</v>
+        <v>6804774</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7034,7 +7034,7 @@
         <v>131046983</v>
       </c>
       <c r="B61" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>131046904</v>
       </c>
       <c r="B62" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7245,10 +7245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131046760</v>
+        <v>131046939</v>
       </c>
       <c r="B63" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7256,39 +7256,34 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395448</v>
+        <v>395446</v>
       </c>
       <c r="R63" t="n">
-        <v>6804572</v>
+        <v>6804659</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7320,7 +7315,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7330,7 +7325,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7357,10 +7352,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131046939</v>
+        <v>131046760</v>
       </c>
       <c r="B64" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7368,34 +7363,39 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>395446</v>
+        <v>395448</v>
       </c>
       <c r="R64" t="n">
-        <v>6804659</v>
+        <v>6804572</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7467,7 +7467,7 @@
         <v>131046723</v>
       </c>
       <c r="B65" t="n">
-        <v>79276</v>
+        <v>79277</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>131046961</v>
       </c>
       <c r="B66" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>131046943</v>
       </c>
       <c r="B67" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7785,10 +7785,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131046717</v>
+        <v>131046921</v>
       </c>
       <c r="B68" t="n">
-        <v>83224</v>
+        <v>79245</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7796,21 +7796,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7820,10 +7820,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>395464</v>
+        <v>395357</v>
       </c>
       <c r="R68" t="n">
-        <v>6804807</v>
+        <v>6804752</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7892,10 +7892,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131046921</v>
+        <v>131046717</v>
       </c>
       <c r="B69" t="n">
-        <v>79244</v>
+        <v>83225</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7903,21 +7903,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7927,10 +7927,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>395357</v>
+        <v>395464</v>
       </c>
       <c r="R69" t="n">
-        <v>6804752</v>
+        <v>6804807</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8002,7 +8002,7 @@
         <v>131047026</v>
       </c>
       <c r="B70" t="n">
-        <v>78910</v>
+        <v>78911</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>131046917</v>
       </c>
       <c r="B71" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8213,10 +8213,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131046916</v>
+        <v>131046923</v>
       </c>
       <c r="B72" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8248,10 +8248,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>395367</v>
+        <v>395364</v>
       </c>
       <c r="R72" t="n">
-        <v>6804698</v>
+        <v>6804764</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8293,7 +8293,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8320,10 +8320,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131047012</v>
+        <v>131046930</v>
       </c>
       <c r="B73" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8331,29 +8331,24 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
@@ -8363,7 +8358,7 @@
         <v>395446</v>
       </c>
       <c r="R73" t="n">
-        <v>6804659</v>
+        <v>6804802</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8395,7 +8390,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8405,19 +8400,14 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD73" t="b">
         <v>0</v>
       </c>
       <c r="AE73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG73" t="b">
         <v>0</v>
@@ -8437,10 +8427,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131046933</v>
+        <v>131046916</v>
       </c>
       <c r="B74" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8472,10 +8462,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395458</v>
+        <v>395367</v>
       </c>
       <c r="R74" t="n">
-        <v>6804762</v>
+        <v>6804698</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8507,7 +8497,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8517,7 +8507,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8544,10 +8534,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131046930</v>
+        <v>131046933</v>
       </c>
       <c r="B75" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8579,10 +8569,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395446</v>
+        <v>395458</v>
       </c>
       <c r="R75" t="n">
-        <v>6804802</v>
+        <v>6804762</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8614,7 +8604,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8624,7 +8614,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8651,10 +8641,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131046923</v>
+        <v>131047012</v>
       </c>
       <c r="B76" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8662,34 +8652,39 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>395364</v>
+        <v>395446</v>
       </c>
       <c r="R76" t="n">
-        <v>6804764</v>
+        <v>6804659</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8721,7 +8716,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -8731,14 +8726,19 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
       <c r="AE76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG76" t="b">
         <v>0</v>
@@ -8758,10 +8758,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131046913</v>
+        <v>131046958</v>
       </c>
       <c r="B77" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8793,10 +8793,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>395387</v>
+        <v>395430</v>
       </c>
       <c r="R77" t="n">
-        <v>6804675</v>
+        <v>6804615</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -8865,10 +8865,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131046958</v>
+        <v>131046911</v>
       </c>
       <c r="B78" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8900,10 +8900,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>395430</v>
+        <v>395395</v>
       </c>
       <c r="R78" t="n">
-        <v>6804615</v>
+        <v>6804651</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -8972,10 +8972,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131046911</v>
+        <v>131046913</v>
       </c>
       <c r="B79" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -9007,10 +9007,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>395395</v>
+        <v>395387</v>
       </c>
       <c r="R79" t="n">
-        <v>6804651</v>
+        <v>6804675</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9079,10 +9079,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131047001</v>
+        <v>131046929</v>
       </c>
       <c r="B80" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9114,10 +9114,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>395505</v>
+        <v>395420</v>
       </c>
       <c r="R80" t="n">
-        <v>6804590</v>
+        <v>6804798</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9149,7 +9149,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -9159,7 +9159,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9186,10 +9186,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131046929</v>
+        <v>131046931</v>
       </c>
       <c r="B81" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9221,10 +9221,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>395420</v>
+        <v>395443</v>
       </c>
       <c r="R81" t="n">
-        <v>6804798</v>
+        <v>6804778</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9293,10 +9293,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131046976</v>
+        <v>131047001</v>
       </c>
       <c r="B82" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9328,10 +9328,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>395525</v>
+        <v>395505</v>
       </c>
       <c r="R82" t="n">
-        <v>6804757</v>
+        <v>6804590</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9363,7 +9363,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -9373,7 +9373,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9400,10 +9400,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131046931</v>
+        <v>131046962</v>
       </c>
       <c r="B83" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9435,10 +9435,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>395443</v>
+        <v>395389</v>
       </c>
       <c r="R83" t="n">
-        <v>6804778</v>
+        <v>6804711</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9470,7 +9470,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9480,7 +9480,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9507,10 +9507,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131046781</v>
+        <v>131046976</v>
       </c>
       <c r="B84" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9518,39 +9518,34 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P84" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>395473</v>
+        <v>395525</v>
       </c>
       <c r="R84" t="n">
-        <v>6804805</v>
+        <v>6804757</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9582,7 +9577,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -9592,12 +9587,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>11:58</t>
-        </is>
-      </c>
-      <c r="AC84" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9627,7 +9617,7 @@
         <v>131046905</v>
       </c>
       <c r="B85" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9731,10 +9721,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131046962</v>
+        <v>131046781</v>
       </c>
       <c r="B86" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9742,34 +9732,39 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>395389</v>
+        <v>395473</v>
       </c>
       <c r="R86" t="n">
-        <v>6804711</v>
+        <v>6804805</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9801,7 +9796,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -9811,7 +9806,12 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9838,10 +9838,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131046978</v>
+        <v>131046793</v>
       </c>
       <c r="B87" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9849,34 +9849,39 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P87" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>395521</v>
+        <v>395448</v>
       </c>
       <c r="R87" t="n">
-        <v>6804726</v>
+        <v>6804583</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9908,7 +9913,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -9918,7 +9923,12 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:38</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -9945,7 +9955,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131046793</v>
+        <v>131046779</v>
       </c>
       <c r="B88" t="n">
         <v>57884</v>
@@ -9976,7 +9986,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -9985,10 +9995,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>395448</v>
+        <v>395369</v>
       </c>
       <c r="R88" t="n">
-        <v>6804583</v>
+        <v>6804718</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10020,7 +10030,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10030,12 +10040,12 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
-          <t>Färska ringhack (gran)</t>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10062,10 +10072,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131046779</v>
+        <v>131046978</v>
       </c>
       <c r="B89" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -10073,39 +10083,34 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P89" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>395369</v>
+        <v>395521</v>
       </c>
       <c r="R89" t="n">
-        <v>6804718</v>
+        <v>6804726</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10137,7 +10142,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10147,12 +10152,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>11:13</t>
-        </is>
-      </c>
-      <c r="AC89" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10182,7 +10182,7 @@
         <v>131046990</v>
       </c>
       <c r="B90" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10286,10 +10286,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131046804</v>
+        <v>131046791</v>
       </c>
       <c r="B91" t="n">
-        <v>79001</v>
+        <v>57884</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10297,34 +10297,39 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6446</v>
+        <v>100109</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P91" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>395367</v>
+        <v>395362</v>
       </c>
       <c r="R91" t="n">
-        <v>6804754</v>
+        <v>6804701</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10356,7 +10361,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10366,7 +10371,12 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="AC91" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10396,7 +10406,7 @@
         <v>131046984</v>
       </c>
       <c r="B92" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10500,10 +10510,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046718</v>
+        <v>131046804</v>
       </c>
       <c r="B93" t="n">
-        <v>83224</v>
+        <v>79002</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10511,21 +10521,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6440</v>
+        <v>6446</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10535,10 +10545,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395471</v>
+        <v>395367</v>
       </c>
       <c r="R93" t="n">
-        <v>6804595</v>
+        <v>6804754</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10570,7 +10580,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10580,7 +10590,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10607,10 +10617,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046791</v>
+        <v>131046718</v>
       </c>
       <c r="B94" t="n">
-        <v>57884</v>
+        <v>83225</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10618,39 +10628,34 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P94" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395362</v>
+        <v>395471</v>
       </c>
       <c r="R94" t="n">
-        <v>6804701</v>
+        <v>6804595</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10682,7 +10687,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10692,12 +10697,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>11:10</t>
-        </is>
-      </c>
-      <c r="AC94" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10841,10 +10841,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131046797</v>
+        <v>131046906</v>
       </c>
       <c r="B96" t="n">
-        <v>79002</v>
+        <v>79245</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10852,21 +10852,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10876,10 +10876,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>395367</v>
+        <v>395395</v>
       </c>
       <c r="R96" t="n">
-        <v>6804754</v>
+        <v>6804604</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10948,32 +10948,32 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131046715</v>
+        <v>131046794</v>
       </c>
       <c r="B97" t="n">
-        <v>83224</v>
+        <v>57076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6440</v>
+        <v>102613</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -10983,10 +10983,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>395445</v>
+        <v>395383</v>
       </c>
       <c r="R97" t="n">
-        <v>6804803</v>
+        <v>6804574</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11018,7 +11018,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11055,10 +11055,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131046912</v>
+        <v>131046928</v>
       </c>
       <c r="B98" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -11090,10 +11090,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>395382</v>
+        <v>395417</v>
       </c>
       <c r="R98" t="n">
-        <v>6804661</v>
+        <v>6804797</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11162,10 +11162,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>131046906</v>
+        <v>131046912</v>
       </c>
       <c r="B99" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -11197,10 +11197,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>395395</v>
+        <v>395382</v>
       </c>
       <c r="R99" t="n">
-        <v>6804604</v>
+        <v>6804661</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11232,7 +11232,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11242,7 +11242,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11269,10 +11269,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>131046928</v>
+        <v>131046985</v>
       </c>
       <c r="B100" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11304,10 +11304,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>395417</v>
+        <v>395531</v>
       </c>
       <c r="R100" t="n">
-        <v>6804797</v>
+        <v>6804664</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11379,7 +11379,7 @@
         <v>131046975</v>
       </c>
       <c r="B101" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11483,10 +11483,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131046985</v>
+        <v>131046715</v>
       </c>
       <c r="B102" t="n">
-        <v>79244</v>
+        <v>83225</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11494,21 +11494,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>395531</v>
+        <v>395445</v>
       </c>
       <c r="R102" t="n">
-        <v>6804664</v>
+        <v>6804803</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11590,32 +11590,32 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>131046794</v>
+        <v>131046797</v>
       </c>
       <c r="B103" t="n">
-        <v>57076</v>
+        <v>79003</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>102613</v>
+        <v>228912</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11625,10 +11625,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>395383</v>
+        <v>395367</v>
       </c>
       <c r="R103" t="n">
-        <v>6804574</v>
+        <v>6804754</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11660,7 +11660,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD103" t="b">

--- a/artfynd/A 58063-2025 artfynd.xlsx
+++ b/artfynd/A 58063-2025 artfynd.xlsx
@@ -1215,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046758</v>
+        <v>131046938</v>
       </c>
       <c r="B7" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1226,39 +1226,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395526</v>
+        <v>395437</v>
       </c>
       <c r="R7" t="n">
-        <v>6804768</v>
+        <v>6804676</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1290,7 +1285,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1300,7 +1295,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1327,7 +1322,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046938</v>
+        <v>131046908</v>
       </c>
       <c r="B8" t="n">
         <v>79245</v>
@@ -1362,10 +1357,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395437</v>
+        <v>395394</v>
       </c>
       <c r="R8" t="n">
-        <v>6804676</v>
+        <v>6804623</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1397,7 +1392,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1407,7 +1402,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1434,7 +1429,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046908</v>
+        <v>131046910</v>
       </c>
       <c r="B9" t="n">
         <v>79245</v>
@@ -1469,10 +1464,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395394</v>
+        <v>395389</v>
       </c>
       <c r="R9" t="n">
-        <v>6804623</v>
+        <v>6804638</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1504,7 +1499,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1514,7 +1509,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1541,10 +1536,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046910</v>
+        <v>131046758</v>
       </c>
       <c r="B10" t="n">
-        <v>79245</v>
+        <v>57881</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1552,34 +1547,39 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395389</v>
+        <v>395526</v>
       </c>
       <c r="R10" t="n">
-        <v>6804638</v>
+        <v>6804768</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -3500,10 +3500,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131046801</v>
+        <v>131046945</v>
       </c>
       <c r="B28" t="n">
-        <v>81230</v>
+        <v>79245</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3511,21 +3511,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3535,10 +3535,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>395526</v>
+        <v>395448</v>
       </c>
       <c r="R28" t="n">
-        <v>6804768</v>
+        <v>6804579</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3607,7 +3607,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131046945</v>
+        <v>131046991</v>
       </c>
       <c r="B29" t="n">
         <v>79245</v>
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>395448</v>
+        <v>395479</v>
       </c>
       <c r="R29" t="n">
-        <v>6804579</v>
+        <v>6804588</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3714,7 +3714,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131046991</v>
+        <v>131046937</v>
       </c>
       <c r="B30" t="n">
         <v>79245</v>
@@ -3749,10 +3749,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>395479</v>
+        <v>395433</v>
       </c>
       <c r="R30" t="n">
-        <v>6804588</v>
+        <v>6804692</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3821,7 +3821,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131046937</v>
+        <v>131046964</v>
       </c>
       <c r="B31" t="n">
         <v>79245</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>395433</v>
+        <v>395381</v>
       </c>
       <c r="R31" t="n">
-        <v>6804692</v>
+        <v>6804728</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3928,7 +3928,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131046964</v>
+        <v>131046914</v>
       </c>
       <c r="B32" t="n">
         <v>79245</v>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>395381</v>
+        <v>395382</v>
       </c>
       <c r="R32" t="n">
-        <v>6804728</v>
+        <v>6804689</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4035,10 +4035,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131046914</v>
+        <v>131046801</v>
       </c>
       <c r="B33" t="n">
-        <v>79245</v>
+        <v>81230</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4046,21 +4046,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4070,10 +4070,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>395382</v>
+        <v>395526</v>
       </c>
       <c r="R33" t="n">
-        <v>6804689</v>
+        <v>6804768</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4142,10 +4142,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131046987</v>
+        <v>131046725</v>
       </c>
       <c r="B34" t="n">
-        <v>79245</v>
+        <v>79277</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4153,21 +4153,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>395501</v>
+        <v>395392</v>
       </c>
       <c r="R34" t="n">
-        <v>6804647</v>
+        <v>6804595</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4249,10 +4249,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131046725</v>
+        <v>131046987</v>
       </c>
       <c r="B35" t="n">
-        <v>79277</v>
+        <v>79245</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4260,21 +4260,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4284,10 +4284,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>395392</v>
+        <v>395501</v>
       </c>
       <c r="R35" t="n">
-        <v>6804595</v>
+        <v>6804647</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -6603,10 +6603,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131046722</v>
+        <v>131046969</v>
       </c>
       <c r="B57" t="n">
-        <v>79277</v>
+        <v>79245</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6614,21 +6614,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6638,10 +6638,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>395391</v>
+        <v>395464</v>
       </c>
       <c r="R57" t="n">
-        <v>6804603</v>
+        <v>6804807</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6710,7 +6710,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131046969</v>
+        <v>131046926</v>
       </c>
       <c r="B58" t="n">
         <v>79245</v>
@@ -6745,10 +6745,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>395464</v>
+        <v>395395</v>
       </c>
       <c r="R58" t="n">
-        <v>6804807</v>
+        <v>6804786</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6817,7 +6817,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131046926</v>
+        <v>131046925</v>
       </c>
       <c r="B59" t="n">
         <v>79245</v>
@@ -6852,10 +6852,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>395395</v>
+        <v>395380</v>
       </c>
       <c r="R59" t="n">
-        <v>6804786</v>
+        <v>6804774</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6924,10 +6924,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131046925</v>
+        <v>131046722</v>
       </c>
       <c r="B60" t="n">
-        <v>79245</v>
+        <v>79277</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6935,21 +6935,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6959,10 +6959,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>395380</v>
+        <v>395391</v>
       </c>
       <c r="R60" t="n">
-        <v>6804774</v>
+        <v>6804603</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7031,7 +7031,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131046983</v>
+        <v>131046904</v>
       </c>
       <c r="B61" t="n">
         <v>79245</v>
@@ -7066,10 +7066,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>395515</v>
+        <v>395385</v>
       </c>
       <c r="R61" t="n">
-        <v>6804694</v>
+        <v>6804578</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7101,7 +7101,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7138,7 +7138,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131046904</v>
+        <v>131046939</v>
       </c>
       <c r="B62" t="n">
         <v>79245</v>
@@ -7173,10 +7173,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>395385</v>
+        <v>395446</v>
       </c>
       <c r="R62" t="n">
-        <v>6804578</v>
+        <v>6804659</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7208,7 +7208,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7218,7 +7218,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7245,7 +7245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131046939</v>
+        <v>131046983</v>
       </c>
       <c r="B63" t="n">
         <v>79245</v>
@@ -7280,10 +7280,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>395446</v>
+        <v>395515</v>
       </c>
       <c r="R63" t="n">
-        <v>6804659</v>
+        <v>6804694</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7785,10 +7785,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131046921</v>
+        <v>131047026</v>
       </c>
       <c r="B68" t="n">
-        <v>79245</v>
+        <v>78911</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7796,21 +7796,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7820,10 +7820,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>395357</v>
+        <v>395386</v>
       </c>
       <c r="R68" t="n">
-        <v>6804752</v>
+        <v>6804628</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7999,10 +7999,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131047026</v>
+        <v>131046917</v>
       </c>
       <c r="B70" t="n">
-        <v>78911</v>
+        <v>79245</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8010,21 +8010,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8034,10 +8034,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>395386</v>
+        <v>395365</v>
       </c>
       <c r="R70" t="n">
-        <v>6804628</v>
+        <v>6804704</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8106,7 +8106,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131046917</v>
+        <v>131046921</v>
       </c>
       <c r="B71" t="n">
         <v>79245</v>
@@ -8141,10 +8141,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>395365</v>
+        <v>395357</v>
       </c>
       <c r="R71" t="n">
-        <v>6804704</v>
+        <v>6804752</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8320,10 +8320,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131046930</v>
+        <v>131047012</v>
       </c>
       <c r="B73" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8331,24 +8331,29 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
@@ -8358,7 +8363,7 @@
         <v>395446</v>
       </c>
       <c r="R73" t="n">
-        <v>6804802</v>
+        <v>6804659</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8390,7 +8395,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8400,14 +8405,19 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD73" t="b">
         <v>0</v>
       </c>
       <c r="AE73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG73" t="b">
         <v>0</v>
@@ -8427,7 +8437,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131046916</v>
+        <v>131046930</v>
       </c>
       <c r="B74" t="n">
         <v>79245</v>
@@ -8462,10 +8472,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>395367</v>
+        <v>395446</v>
       </c>
       <c r="R74" t="n">
-        <v>6804698</v>
+        <v>6804802</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8497,7 +8507,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8507,7 +8517,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8534,7 +8544,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131046933</v>
+        <v>131046916</v>
       </c>
       <c r="B75" t="n">
         <v>79245</v>
@@ -8569,10 +8579,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>395458</v>
+        <v>395367</v>
       </c>
       <c r="R75" t="n">
-        <v>6804762</v>
+        <v>6804698</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8604,7 +8614,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8614,7 +8624,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8641,10 +8651,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131047012</v>
+        <v>131046933</v>
       </c>
       <c r="B76" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8652,39 +8662,34 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>395446</v>
+        <v>395458</v>
       </c>
       <c r="R76" t="n">
-        <v>6804659</v>
+        <v>6804762</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8716,7 +8721,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -8726,19 +8731,14 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
       <c r="AE76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG76" t="b">
         <v>0</v>
@@ -10286,10 +10286,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131046791</v>
+        <v>131046804</v>
       </c>
       <c r="B91" t="n">
-        <v>57884</v>
+        <v>79002</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10297,39 +10297,34 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>100109</v>
+        <v>6446</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P91" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>395362</v>
+        <v>395367</v>
       </c>
       <c r="R91" t="n">
-        <v>6804701</v>
+        <v>6804754</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10361,7 +10356,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10371,12 +10366,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>11:10</t>
-        </is>
-      </c>
-      <c r="AC91" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10403,10 +10393,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131046984</v>
+        <v>131046718</v>
       </c>
       <c r="B92" t="n">
-        <v>79245</v>
+        <v>83225</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10414,21 +10404,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10438,10 +10428,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>395531</v>
+        <v>395471</v>
       </c>
       <c r="R92" t="n">
-        <v>6804688</v>
+        <v>6804595</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10473,7 +10463,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10483,7 +10473,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10510,10 +10500,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131046804</v>
+        <v>131046984</v>
       </c>
       <c r="B93" t="n">
-        <v>79002</v>
+        <v>79245</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10521,21 +10511,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10545,10 +10535,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>395367</v>
+        <v>395531</v>
       </c>
       <c r="R93" t="n">
-        <v>6804754</v>
+        <v>6804688</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10580,7 +10570,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10590,7 +10580,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10617,10 +10607,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131046718</v>
+        <v>131046791</v>
       </c>
       <c r="B94" t="n">
-        <v>83225</v>
+        <v>57884</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10628,34 +10618,39 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P94" t="inlineStr">
         <is>
           <t>Älgforsen, norr om, Dlr</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>395471</v>
+        <v>395362</v>
       </c>
       <c r="R94" t="n">
-        <v>6804595</v>
+        <v>6804701</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10687,7 +10682,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -10697,7 +10692,12 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="AC94" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD94" t="b">
